--- a/doc/CTV ClinicalTrial File.xlsx
+++ b/doc/CTV ClinicalTrial File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang10\GitHubPkgs\CRAN-task-view-ClinicalTrials\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CF9FB0-3286-40DB-B5E6-FDB474ABD2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F56E8-2226-4362-A4DB-C1591FAE9818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-12" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="259">
   <si>
     <t>Package Name</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Monitoring</t>
   </si>
   <si>
-    <t>`r pkg("monitOS") Monitoring Overall Survival in Pivotal Trials in Indolent Cancers</t>
-  </si>
-  <si>
     <t>OncoBayes2</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>adpss</t>
   </si>
   <si>
-    <t>Provides the functions for planning and conducting a clinical trial with adaptive sample size determination. Maximal statistical efficiency will be exploited even when dramatic or multiple adaptations are made. Such a trial consists of adaptive determination of sample size at an interim analysis and implementation of frequentist statistical test at the interim and final analysis with a prefixed significance level. The required assumptions for the stage-wise test statistics are independent and stationary increments and normality. Predetermination of adaptation rule is not required.</t>
-  </si>
-  <si>
     <t>ASSISTant</t>
   </si>
   <si>
@@ -678,9 +672,6 @@
     <t>`r pkg("iAdapt")` Simulate and implement early phase two-stage adaptive dose-finding design for binary and quasi-continuous toxicity endpoints. See Chiuzan et al. (2018) for further reading &lt;doi:10.1080/19466315.2018.1462727&gt;.</t>
   </si>
   <si>
-    <t>`r pkg("OncoBayes")` Bayesian Logistic Regression for Oncology Dose-Escalation Trials.</t>
-  </si>
-  <si>
     <t>`r pkg("clinfun", priority = "core")` has functions for both design and analysis of clinical trials. For phase II trials, it has functions to calculate sample size, effect size, and power based on Fisher's exact test, the operating characteristics of a two-stage boundary, Optimal and Minimax 2-stage Phase II designs given by Richard Simon, the exact 1-stage Phase II design and can compute a stopping rule and its operating characteristics for toxicity monitoring based repeated significance testing. For phase III trials, it can calculate sample size for group sequential designs.</t>
   </si>
   <si>
@@ -805,6 +796,15 @@
   </si>
   <si>
     <t>Adaptive designs, Monitoring, Simulation</t>
+  </si>
+  <si>
+    <t>`r pkg("adpss")` provides the functions for planning and conducting a clinical trial with adaptive sample size determination. Maximal statistical efficiency will be exploited even when dramatic or multiple adaptations are made. Such a trial consists of adaptive determination of sample size at an interim analysis and implementation of frequentist statistical test at the interim and final analysis with a prefixed significance level. The required assumptions for the stage-wise test statistics are independent and stationary increments and normality. Predetermination of adaptation rule is not required.</t>
+  </si>
+  <si>
+    <t>`r pkg("monitOS") Monitoring Overall Survival in Pivotal Trials in Indolent Cancers.</t>
+  </si>
+  <si>
+    <t>`r pkg("OncoBayes2")` Bayesian Logistic Regression for Oncology Dose-Escalation Trials.</t>
   </si>
 </sst>
 </file>
@@ -1197,21 +1197,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="168" style="16" customWidth="1"/>
-    <col min="7" max="7" width="116.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="171.90625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="116.6328125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -1258,144 +1258,144 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="43.2">
+    <row r="2" spans="1:26" ht="43.5">
       <c r="A2" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="43.2">
+    <row r="4" spans="1:26" ht="43.5">
       <c r="A4" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>26</v>
@@ -1405,16 +1405,16 @@
         <v>47</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>26</v>
@@ -1423,16 +1423,16 @@
         <v>47</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>26</v>
@@ -1442,16 +1442,16 @@
         <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>26</v>
@@ -1461,16 +1461,16 @@
         <v>47</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>26</v>
@@ -1480,16 +1480,16 @@
         <v>47</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="28.8">
+    <row r="15" spans="1:26" ht="29">
       <c r="A15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>26</v>
@@ -1498,16 +1498,16 @@
         <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="28.8">
+    <row r="16" spans="1:26" ht="29">
       <c r="A16" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>26</v>
@@ -1517,16 +1517,16 @@
         <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="28.8">
+    <row r="17" spans="1:26" ht="29">
       <c r="A17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>26</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:26" ht="29">
+      <c r="A18" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:26" ht="28.8">
-      <c r="A18" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1556,13 +1556,13 @@
         <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" ht="29">
+      <c r="A19" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="28.8">
-      <c r="A19" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1572,13 +1572,13 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="28.8">
+    <row r="20" spans="1:26" ht="29">
       <c r="A20" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>26</v>
@@ -1588,10 +1588,10 @@
         <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>26</v>
@@ -1626,16 +1626,16 @@
         <v>47</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="28.8">
+    <row r="22" spans="1:26" ht="29">
       <c r="A22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         <v>47</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -1663,13 +1663,13 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>26</v>
@@ -1679,13 +1679,13 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
@@ -1695,11 +1695,11 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="43.2">
+    <row r="26" spans="1:26" ht="43.5">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -1711,16 +1711,16 @@
         <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>26</v>
@@ -1731,13 +1731,13 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="28.8">
+    <row r="28" spans="1:26" ht="29">
       <c r="A28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>26</v>
@@ -1748,13 +1748,13 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:26" ht="28.8">
+    <row r="29" spans="1:26" ht="29">
       <c r="A29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>26</v>
@@ -1763,16 +1763,16 @@
         <v>47</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>26</v>
@@ -1782,16 +1782,16 @@
         <v>47</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="28.8">
+    <row r="31" spans="1:26" ht="29">
       <c r="A31" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>26</v>
@@ -1803,13 +1803,13 @@
         <v>11</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="28.8">
+    <row r="32" spans="1:26" ht="29">
       <c r="A32" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>26</v>
@@ -1819,13 +1819,13 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:26" ht="43.2">
+    <row r="33" spans="1:26" ht="43.5">
       <c r="A33" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>26</v>
@@ -1836,13 +1836,13 @@
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>26</v>
@@ -1852,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="10"/>
@@ -1878,679 +1878,679 @@
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="1:26" ht="172.8">
+    <row r="35" spans="1:26" ht="174">
       <c r="A35" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:26" ht="28.8">
+    <row r="36" spans="1:26" ht="29">
       <c r="A36" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:26" ht="28.8">
+    <row r="37" spans="1:26" ht="29">
       <c r="A37" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:26" ht="57.6">
+    <row r="38" spans="1:26" ht="58">
       <c r="A38" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:26" ht="28.8">
+    <row r="39" spans="1:26" ht="29">
       <c r="A39" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:26" ht="72">
+    <row r="40" spans="1:26" ht="72.5">
       <c r="A40" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:26" ht="57.6">
+    <row r="41" spans="1:26" ht="58">
       <c r="A41" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:26" ht="28.8">
+    <row r="42" spans="1:26" ht="29">
       <c r="A42" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:26" ht="115.2">
+    <row r="43" spans="1:26" ht="116">
       <c r="A43" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:26" ht="28.8">
+    <row r="44" spans="1:26" ht="29">
       <c r="A44" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:26" ht="28.8">
+    <row r="45" spans="1:26" ht="29">
       <c r="A45" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:26" ht="86.4">
+    <row r="46" spans="1:26" ht="87">
       <c r="A46" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:26" ht="72">
+    <row r="47" spans="1:26" ht="72.5">
       <c r="A47" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:26" ht="43.2">
+    <row r="48" spans="1:26" ht="43.5">
       <c r="A48" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="28.8">
+    <row r="49" spans="1:7" ht="29">
       <c r="A49" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="57.6">
+    <row r="50" spans="1:7" ht="58">
       <c r="A50" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="43.2">
+    <row r="53" spans="1:7" ht="43.5">
       <c r="A53" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="28.8">
+    <row r="54" spans="1:7" ht="29">
       <c r="A54" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="43.2">
+    <row r="55" spans="1:7" ht="43.5">
       <c r="A55" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="86.4">
+    <row r="56" spans="1:7" ht="87">
       <c r="A56" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="43.2">
+    <row r="58" spans="1:7" ht="43.5">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="43.2">
+    <row r="59" spans="1:7" ht="43.5">
       <c r="A59" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="86.4">
+    <row r="60" spans="1:7" ht="87">
       <c r="A60" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" ht="86.4">
+    <row r="61" spans="1:7" ht="87">
       <c r="A61" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="100.8">
+    <row r="63" spans="1:7" ht="101.5">
       <c r="A63" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="43.2">
+    <row r="64" spans="1:7" ht="43.5">
       <c r="A64" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:26" ht="43.5">
+      <c r="A65" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:26" ht="43.2">
-      <c r="A65" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:26" ht="35.4">
+    <row r="66" spans="1:26" ht="35.5">
       <c r="A66" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="28.8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="29">
       <c r="A67" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:26" ht="57.6">
+    <row r="68" spans="1:26" ht="58">
       <c r="A68" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:26" ht="28.8">
+    <row r="69" spans="1:26" ht="29">
       <c r="A69" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:26" ht="28.8">
+    <row r="70" spans="1:26" ht="29">
       <c r="A70" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G70" s="7"/>
     </row>
@@ -2610,7 +2610,7 @@
       <c r="Y72"/>
       <c r="Z72"/>
     </row>
-    <row r="73" spans="1:26" ht="57.6">
+    <row r="73" spans="1:26" ht="58">
       <c r="A73" s="5" t="s">
         <v>29</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:26" ht="43.2">
+    <row r="75" spans="1:26" ht="43.5">
       <c r="A75" s="5" t="s">
         <v>36</v>
       </c>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:26" ht="28.8">
+    <row r="76" spans="1:26" ht="29">
       <c r="A76" s="25" t="s">
         <v>13</v>
       </c>
@@ -2675,13 +2675,13 @@
         <v>9</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:26" ht="43.2">
+    <row r="78" spans="1:26" ht="43.5">
       <c r="A78" s="5" t="s">
         <v>42</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:26" ht="28.8">
+    <row r="79" spans="1:26" ht="29">
       <c r="A79" s="5" t="s">
         <v>44</v>
       </c>
@@ -2734,16 +2734,16 @@
         <v>9</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" ht="28.8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="43.5">
       <c r="A80" s="5" t="s">
         <v>21</v>
       </c>
@@ -2772,14 +2772,14 @@
         <v>9</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" ht="28.8">
+    <row r="82" spans="1:7" ht="29">
       <c r="A82" s="5" t="s">
         <v>31</v>
       </c>
@@ -2807,15 +2807,17 @@
       <c r="D83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="F83" s="9" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>26</v>
@@ -2823,15 +2825,15 @@
       <c r="D84" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" ht="28.8">
+    <row r="85" spans="1:7" ht="29">
       <c r="A85" s="5" t="s">
         <v>15</v>
       </c>
@@ -2842,14 +2844,14 @@
         <v>9</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="28.8">
+    <row r="86" spans="1:7" ht="29">
       <c r="A86" s="5" t="s">
         <v>50</v>
       </c>
@@ -2867,9 +2869,9 @@
       </c>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" ht="43.2">
+    <row r="87" spans="1:7" ht="43.5">
       <c r="A87" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>26</v>
@@ -2881,13 +2883,13 @@
         <v>51</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" ht="28.8">
+    <row r="88" spans="1:7" ht="29">
       <c r="A88" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>26</v>
@@ -2899,13 +2901,13 @@
         <v>19</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" ht="43.2">
+    <row r="89" spans="1:7" ht="43.5">
       <c r="A89" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>8</v>
@@ -2914,16 +2916,16 @@
         <v>9</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>8</v>
@@ -2935,13 +2937,13 @@
         <v>23</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="28.8">
+    <row r="91" spans="1:7" ht="29">
       <c r="A91" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>26</v>
@@ -2953,13 +2955,13 @@
         <v>11</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>26</v>
@@ -2971,11 +2973,11 @@
         <v>11</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" ht="43.2">
+    <row r="93" spans="1:7" ht="43.5">
       <c r="A93" s="5" t="s">
         <v>38</v>
       </c>
@@ -2986,16 +2988,16 @@
         <v>9</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" ht="43.2">
+    <row r="94" spans="1:7" ht="43.5">
       <c r="A94" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>26</v>
@@ -3004,14 +3006,14 @@
         <v>9</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="43.2">
+    <row r="95" spans="1:7" ht="43.5">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -3029,9 +3031,9 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="43.2">
+    <row r="96" spans="1:7" ht="43.5">
       <c r="A96" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>26</v>
@@ -3040,14 +3042,14 @@
         <v>9</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" ht="29">
       <c r="A97" s="5" t="s">
         <v>7</v>
       </c>
@@ -3065,9 +3067,9 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" ht="43.2">
+    <row r="98" spans="1:7" ht="58">
       <c r="A98" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>26</v>
@@ -3079,16 +3081,16 @@
         <v>9</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" ht="28.8">
+    <row r="99" spans="1:7" ht="29">
       <c r="A99" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>26</v>
@@ -3100,13 +3102,13 @@
         <v>54</v>
       </c>
       <c r="F99" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" ht="43.5">
+      <c r="A100" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:7" ht="43.2">
-      <c r="A100" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>26</v>
@@ -3115,90 +3117,90 @@
         <v>9</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" ht="29">
+      <c r="A102" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" spans="1:7" ht="28.8">
-      <c r="A102" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="B102" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="28.8">
+    <row r="105" spans="1:7" ht="29">
       <c r="A105" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G105" s="7"/>
     </row>

--- a/doc/CTV ClinicalTrial File.xlsx
+++ b/doc/CTV ClinicalTrial File.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elias/Projects/CRAN-task-view-ClinicalTrials/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F5A437-92CC-ED4D-A413-1DA9381C73FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$Z$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$105</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Rsa7QLiRVv4Lnf1POJRJddTQnJRpIWvsMiXHSXUjKQo="/>
@@ -18,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="269">
   <si>
     <t>Package Name</t>
   </si>
@@ -801,60 +811,98 @@
   </si>
   <si>
     <t>`r pkg("mice")` implements multiple imputation by chained equations using Fully Conditional Specification (FCS) implemented by the MICE algorithm as described in Van Buuren and Groothuis-Oudshoorn (2011) &lt;doi:10.18637/jss.v045.i03&gt;</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>CohortPlat</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>SIMPLE</t>
+  </si>
+  <si>
+    <t>`r pkg("Cats")` simulates a cohort platform trial design whereby every cohort consists of two arms (control and experimental treatment). Co-primary binary endpoints are used, and decisions at the interim or final analysis are made using either Bayesian or frequentist decision rules. Several options for sharing control data across cohorts are implemented. Realistic trial trajectories are simulated, and the operating characteristics of the designs are calculated. This package was used to derive the simulation results in Meyer et al. (2023) &lt;doi:10.1371/journal.pone.0281674&gt;.</t>
+  </si>
+  <si>
+    <t>`r pkg("NCC")`is an R package that allows users to simulate platform trials and perform treatment–control comparisons using non-concurrent control data (Krotka et al. (2023) &lt;doi:10.1016/j.softx.2023.101437&gt;). The package supports simulation of complex platform trial designs with continuous or binary endpoints and a flexible number of treatment arms that enter the trial at different time points. The software accommodates different treatment effects among the arms and includes several patterns for time trends. Analytic approaches currently implemented in the package cover frequentist modes (e.g., regression model adjusting for time as a fixed effect mixed model adjusting for time as a random factor, and regression splines), the Bayesian time machine a meta-analytic predictive prior separate analysis, and pooled analysis.</t>
+  </si>
+  <si>
+    <t>`r pkg("SIMPLE")` is a modular R package to simulate clinical trials and was developed to solve the problem of poor shareability and re-usability of existing software code in future projects (Meyer et al. (2023) &lt;10.1016/j.softx.2023.101515&gt;). In `r pkg("SIMPLE")`, different aspects of the simulation (e.g., participant recruitment, analysis strategies, and the inclusion and exclusion of further interventions into the platform) are governed by partially independent and re-usable “modules”. Due to its architecture, `r pkg("SIMPLE")` can be used as a backbone from which to create highly complex designs that are accessible to users with very limited R skills, while more advanced users can nearly infinitely tweak the designs.</t>
+  </si>
+  <si>
+    <t>`r pkg("CohortPlat")` facilitates the simulation of cohort platform trials with binary endpoints, where each cohort consists of a combination treatment, the respective monotherapies, and control. Bayesian decision rules are used at the interim analysis (early futility or efficacy based on a surrogate endpoint) and at the final analysis to declare the combination therapy successful or futile. Sharing of the control and the backbone monotherapy data across cohorts is possible. The package offers extensive flexibility with respect to both platform trial trajectories, as well as treatment effect scenarios, and decision rules. This package was used to derive the simulation results in Meyer et al. (2022) &lt;doi:10.1002/pst.2194&gt;.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF729FCF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF5B9BD5"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF729FCF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -862,7 +910,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -878,72 +926,80 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1133,30 +1189,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.86"/>
-    <col customWidth="1" min="3" max="3" width="11.86"/>
-    <col customWidth="1" min="4" max="4" width="24.14"/>
-    <col customWidth="1" min="5" max="5" width="26.57"/>
-    <col customWidth="1" min="6" max="6" width="171.86"/>
-    <col customWidth="1" min="7" max="7" width="116.57"/>
-    <col customWidth="1" min="8" max="8" width="17.57"/>
-    <col customWidth="1" min="9" max="26" width="8.57"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="171.83203125" customWidth="1"/>
+    <col min="7" max="7" width="116.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1258,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1277,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1295,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +1313,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1329,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1287,7 +1345,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1303,7 +1361,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1319,7 +1377,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1393,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1354,7 +1412,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1430,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1391,7 +1449,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +1468,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -1429,7 +1487,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -1447,7 +1505,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -1466,7 +1524,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -1484,7 +1542,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1560,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -1518,7 +1576,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>55</v>
       </c>
@@ -1556,7 +1614,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
@@ -1575,7 +1633,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
@@ -1593,7 +1651,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -1609,7 +1667,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
@@ -1625,7 +1683,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -1641,7 +1699,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
@@ -1660,7 +1718,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -1677,7 +1735,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
@@ -1694,7 +1752,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -1712,7 +1770,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>78</v>
       </c>
@@ -1731,7 +1789,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>80</v>
       </c>
@@ -1749,7 +1807,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>82</v>
       </c>
@@ -1765,7 +1823,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -1782,7 +1840,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>86</v>
       </c>
@@ -1820,7 +1878,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>90</v>
       </c>
@@ -1839,7 +1897,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>94</v>
       </c>
@@ -1858,7 +1916,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
@@ -1877,7 +1935,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -1896,7 +1954,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
@@ -1915,7 +1973,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>104</v>
       </c>
@@ -1934,7 +1992,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>106</v>
       </c>
@@ -1953,7 +2011,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>108</v>
       </c>
@@ -1972,7 +2030,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>111</v>
       </c>
@@ -1991,7 +2049,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>113</v>
       </c>
@@ -2010,7 +2068,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>116</v>
       </c>
@@ -2029,7 +2087,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
@@ -2048,7 +2106,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -2067,7 +2125,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>124</v>
       </c>
@@ -2086,7 +2144,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>126</v>
       </c>
@@ -2105,7 +2163,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>128</v>
       </c>
@@ -2124,7 +2182,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>130</v>
       </c>
@@ -2143,7 +2201,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>132</v>
       </c>
@@ -2162,7 +2220,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>134</v>
       </c>
@@ -2180,7 +2238,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -2198,7 +2256,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>139</v>
       </c>
@@ -2217,7 +2275,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>142</v>
       </c>
@@ -2236,7 +2294,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>144</v>
       </c>
@@ -2254,7 +2312,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>146</v>
       </c>
@@ -2272,7 +2330,7 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>148</v>
       </c>
@@ -2290,7 +2348,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>150</v>
       </c>
@@ -2308,7 +2366,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>152</v>
       </c>
@@ -2327,7 +2385,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>154</v>
       </c>
@@ -2346,7 +2404,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>156</v>
       </c>
@@ -2364,7 +2422,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>159</v>
       </c>
@@ -2382,7 +2440,7 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
@@ -2400,7 +2458,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>164</v>
       </c>
@@ -2421,7 +2479,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>168</v>
       </c>
@@ -2440,7 +2498,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>170</v>
       </c>
@@ -2459,7 +2517,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>172</v>
       </c>
@@ -2477,7 +2535,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>174</v>
       </c>
@@ -2496,7 +2554,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>177</v>
       </c>
@@ -2514,7 +2572,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>181</v>
       </c>
@@ -2533,7 +2591,7 @@
       <c r="G72" s="7"/>
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>184</v>
       </c>
@@ -2551,7 +2609,7 @@
       </c>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>186</v>
       </c>
@@ -2569,7 +2627,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>188</v>
       </c>
@@ -2587,7 +2645,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>190</v>
       </c>
@@ -2607,7 +2665,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>194</v>
       </c>
@@ -2625,7 +2683,7 @@
       </c>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>196</v>
       </c>
@@ -2643,7 +2701,7 @@
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>68</v>
       </c>
@@ -2666,7 +2724,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>201</v>
       </c>
@@ -2684,7 +2742,7 @@
       </c>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>204</v>
       </c>
@@ -2702,7 +2760,7 @@
       </c>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>206</v>
       </c>
@@ -2720,7 +2778,7 @@
       </c>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>209</v>
       </c>
@@ -2738,7 +2796,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>211</v>
       </c>
@@ -2756,7 +2814,7 @@
       </c>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>213</v>
       </c>
@@ -2774,7 +2832,7 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>215</v>
       </c>
@@ -2792,7 +2850,7 @@
       </c>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>217</v>
       </c>
@@ -2810,7 +2868,7 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>219</v>
       </c>
@@ -2828,7 +2886,7 @@
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>221</v>
       </c>
@@ -2846,7 +2904,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>224</v>
       </c>
@@ -2864,7 +2922,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>226</v>
       </c>
@@ -2882,7 +2940,7 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>228</v>
       </c>
@@ -2900,7 +2958,7 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>230</v>
       </c>
@@ -2918,7 +2976,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>232</v>
       </c>
@@ -2936,7 +2994,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>234</v>
       </c>
@@ -2954,7 +3012,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>236</v>
       </c>
@@ -2972,7 +3030,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>239</v>
       </c>
@@ -2990,7 +3048,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>241</v>
       </c>
@@ -3011,7 +3069,7 @@
       </c>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>244</v>
       </c>
@@ -3029,7 +3087,7 @@
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>246</v>
       </c>
@@ -3047,7 +3105,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>248</v>
       </c>
@@ -3063,7 +3121,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>251</v>
       </c>
@@ -3079,7 +3137,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>253</v>
       </c>
@@ -3095,7 +3153,7 @@
       </c>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>255</v>
       </c>
@@ -3111,7 +3169,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>257</v>
       </c>
@@ -3127,8 +3185,8 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="16" t="s">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -3145,4518 +3203,4555 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>265</v>
+      </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="16"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E404" s="7"/>
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E408" s="7"/>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E410" s="7"/>
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E411" s="7"/>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E415" s="7"/>
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E417" s="7"/>
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E421" s="7"/>
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E422" s="7"/>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E423" s="7"/>
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E424" s="7"/>
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E425" s="7"/>
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E426" s="7"/>
       <c r="F426" s="7"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E427" s="7"/>
       <c r="F427" s="7"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E428" s="7"/>
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E429" s="7"/>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E430" s="7"/>
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E431" s="7"/>
       <c r="F431" s="7"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E432" s="7"/>
       <c r="F432" s="7"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E434" s="7"/>
       <c r="F434" s="7"/>
       <c r="G434" s="7"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E435" s="7"/>
       <c r="F435" s="7"/>
       <c r="G435" s="7"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E436" s="7"/>
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
       <c r="G439" s="7"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
       <c r="G440" s="7"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
       <c r="G442" s="7"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
       <c r="G447" s="7"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
       <c r="G450" s="7"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
       <c r="G452" s="7"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
       <c r="G457" s="7"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
       <c r="G458" s="7"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E459" s="7"/>
       <c r="F459" s="7"/>
       <c r="G459" s="7"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
       <c r="G460" s="7"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E461" s="7"/>
       <c r="F461" s="7"/>
       <c r="G461" s="7"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
       <c r="G462" s="7"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E463" s="7"/>
       <c r="F463" s="7"/>
       <c r="G463" s="7"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E464" s="7"/>
       <c r="F464" s="7"/>
       <c r="G464" s="7"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E465" s="7"/>
       <c r="F465" s="7"/>
       <c r="G465" s="7"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E466" s="7"/>
       <c r="F466" s="7"/>
       <c r="G466" s="7"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E467" s="7"/>
       <c r="F467" s="7"/>
       <c r="G467" s="7"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E468" s="7"/>
       <c r="F468" s="7"/>
       <c r="G468" s="7"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E469" s="7"/>
       <c r="F469" s="7"/>
       <c r="G469" s="7"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E470" s="7"/>
       <c r="F470" s="7"/>
       <c r="G470" s="7"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E471" s="7"/>
       <c r="F471" s="7"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E472" s="7"/>
       <c r="F472" s="7"/>
       <c r="G472" s="7"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E473" s="7"/>
       <c r="F473" s="7"/>
       <c r="G473" s="7"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E474" s="7"/>
       <c r="F474" s="7"/>
       <c r="G474" s="7"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E475" s="7"/>
       <c r="F475" s="7"/>
       <c r="G475" s="7"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E476" s="7"/>
       <c r="F476" s="7"/>
       <c r="G476" s="7"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E477" s="7"/>
       <c r="F477" s="7"/>
       <c r="G477" s="7"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E478" s="7"/>
       <c r="F478" s="7"/>
       <c r="G478" s="7"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E479" s="7"/>
       <c r="F479" s="7"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E480" s="7"/>
       <c r="F480" s="7"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E481" s="7"/>
       <c r="F481" s="7"/>
       <c r="G481" s="7"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E482" s="7"/>
       <c r="F482" s="7"/>
       <c r="G482" s="7"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E483" s="7"/>
       <c r="F483" s="7"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E484" s="7"/>
       <c r="F484" s="7"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E485" s="7"/>
       <c r="F485" s="7"/>
       <c r="G485" s="7"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E486" s="7"/>
       <c r="F486" s="7"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E487" s="7"/>
       <c r="F487" s="7"/>
       <c r="G487" s="7"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E488" s="7"/>
       <c r="F488" s="7"/>
       <c r="G488" s="7"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E489" s="7"/>
       <c r="F489" s="7"/>
       <c r="G489" s="7"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E490" s="7"/>
       <c r="F490" s="7"/>
       <c r="G490" s="7"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E491" s="7"/>
       <c r="F491" s="7"/>
       <c r="G491" s="7"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E492" s="7"/>
       <c r="F492" s="7"/>
       <c r="G492" s="7"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E493" s="7"/>
       <c r="F493" s="7"/>
       <c r="G493" s="7"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E494" s="7"/>
       <c r="F494" s="7"/>
       <c r="G494" s="7"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E495" s="7"/>
       <c r="F495" s="7"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E496" s="7"/>
       <c r="F496" s="7"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E497" s="7"/>
       <c r="F497" s="7"/>
       <c r="G497" s="7"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E498" s="7"/>
       <c r="F498" s="7"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E499" s="7"/>
       <c r="F499" s="7"/>
       <c r="G499" s="7"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E500" s="7"/>
       <c r="F500" s="7"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E501" s="7"/>
       <c r="F501" s="7"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E502" s="7"/>
       <c r="F502" s="7"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E503" s="7"/>
       <c r="F503" s="7"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E504" s="7"/>
       <c r="F504" s="7"/>
       <c r="G504" s="7"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E505" s="7"/>
       <c r="F505" s="7"/>
       <c r="G505" s="7"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E506" s="7"/>
       <c r="F506" s="7"/>
       <c r="G506" s="7"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E507" s="7"/>
       <c r="F507" s="7"/>
       <c r="G507" s="7"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E508" s="7"/>
       <c r="F508" s="7"/>
       <c r="G508" s="7"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E509" s="7"/>
       <c r="F509" s="7"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E510" s="7"/>
       <c r="F510" s="7"/>
       <c r="G510" s="7"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E511" s="7"/>
       <c r="F511" s="7"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E512" s="7"/>
       <c r="F512" s="7"/>
       <c r="G512" s="7"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E513" s="7"/>
       <c r="F513" s="7"/>
       <c r="G513" s="7"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E514" s="7"/>
       <c r="F514" s="7"/>
       <c r="G514" s="7"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E515" s="7"/>
       <c r="F515" s="7"/>
       <c r="G515" s="7"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E516" s="7"/>
       <c r="F516" s="7"/>
       <c r="G516" s="7"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E517" s="7"/>
       <c r="F517" s="7"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E518" s="7"/>
       <c r="F518" s="7"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E519" s="7"/>
       <c r="F519" s="7"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E520" s="7"/>
       <c r="F520" s="7"/>
       <c r="G520" s="7"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E521" s="7"/>
       <c r="F521" s="7"/>
       <c r="G521" s="7"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E522" s="7"/>
       <c r="F522" s="7"/>
       <c r="G522" s="7"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E523" s="7"/>
       <c r="F523" s="7"/>
       <c r="G523" s="7"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E524" s="7"/>
       <c r="F524" s="7"/>
       <c r="G524" s="7"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E525" s="7"/>
       <c r="F525" s="7"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E526" s="7"/>
       <c r="F526" s="7"/>
       <c r="G526" s="7"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E527" s="7"/>
       <c r="F527" s="7"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E528" s="7"/>
       <c r="F528" s="7"/>
       <c r="G528" s="7"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E529" s="7"/>
       <c r="F529" s="7"/>
       <c r="G529" s="7"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E530" s="7"/>
       <c r="F530" s="7"/>
       <c r="G530" s="7"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E531" s="7"/>
       <c r="F531" s="7"/>
       <c r="G531" s="7"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E532" s="7"/>
       <c r="F532" s="7"/>
       <c r="G532" s="7"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E533" s="7"/>
       <c r="F533" s="7"/>
       <c r="G533" s="7"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E534" s="7"/>
       <c r="F534" s="7"/>
       <c r="G534" s="7"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E535" s="7"/>
       <c r="F535" s="7"/>
       <c r="G535" s="7"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E536" s="7"/>
       <c r="F536" s="7"/>
       <c r="G536" s="7"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E537" s="7"/>
       <c r="F537" s="7"/>
       <c r="G537" s="7"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E538" s="7"/>
       <c r="F538" s="7"/>
       <c r="G538" s="7"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E539" s="7"/>
       <c r="F539" s="7"/>
       <c r="G539" s="7"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E540" s="7"/>
       <c r="F540" s="7"/>
       <c r="G540" s="7"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E541" s="7"/>
       <c r="F541" s="7"/>
       <c r="G541" s="7"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E542" s="7"/>
       <c r="F542" s="7"/>
       <c r="G542" s="7"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E543" s="7"/>
       <c r="F543" s="7"/>
       <c r="G543" s="7"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E544" s="7"/>
       <c r="F544" s="7"/>
       <c r="G544" s="7"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E545" s="7"/>
       <c r="F545" s="7"/>
       <c r="G545" s="7"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E546" s="7"/>
       <c r="F546" s="7"/>
       <c r="G546" s="7"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E547" s="7"/>
       <c r="F547" s="7"/>
       <c r="G547" s="7"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E548" s="7"/>
       <c r="F548" s="7"/>
       <c r="G548" s="7"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E549" s="7"/>
       <c r="F549" s="7"/>
       <c r="G549" s="7"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E550" s="7"/>
       <c r="F550" s="7"/>
       <c r="G550" s="7"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E551" s="7"/>
       <c r="F551" s="7"/>
       <c r="G551" s="7"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E552" s="7"/>
       <c r="F552" s="7"/>
       <c r="G552" s="7"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E553" s="7"/>
       <c r="F553" s="7"/>
       <c r="G553" s="7"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E554" s="7"/>
       <c r="F554" s="7"/>
       <c r="G554" s="7"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E555" s="7"/>
       <c r="F555" s="7"/>
       <c r="G555" s="7"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E556" s="7"/>
       <c r="F556" s="7"/>
       <c r="G556" s="7"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E557" s="7"/>
       <c r="F557" s="7"/>
       <c r="G557" s="7"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E558" s="7"/>
       <c r="F558" s="7"/>
       <c r="G558" s="7"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E559" s="7"/>
       <c r="F559" s="7"/>
       <c r="G559" s="7"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E560" s="7"/>
       <c r="F560" s="7"/>
       <c r="G560" s="7"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E561" s="7"/>
       <c r="F561" s="7"/>
       <c r="G561" s="7"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E562" s="7"/>
       <c r="F562" s="7"/>
       <c r="G562" s="7"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E563" s="7"/>
       <c r="F563" s="7"/>
       <c r="G563" s="7"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E564" s="7"/>
       <c r="F564" s="7"/>
       <c r="G564" s="7"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E565" s="7"/>
       <c r="F565" s="7"/>
       <c r="G565" s="7"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E566" s="7"/>
       <c r="F566" s="7"/>
       <c r="G566" s="7"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E567" s="7"/>
       <c r="F567" s="7"/>
       <c r="G567" s="7"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E568" s="7"/>
       <c r="F568" s="7"/>
       <c r="G568" s="7"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E569" s="7"/>
       <c r="F569" s="7"/>
       <c r="G569" s="7"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E570" s="7"/>
       <c r="F570" s="7"/>
       <c r="G570" s="7"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E571" s="7"/>
       <c r="F571" s="7"/>
       <c r="G571" s="7"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E572" s="7"/>
       <c r="F572" s="7"/>
       <c r="G572" s="7"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E573" s="7"/>
       <c r="F573" s="7"/>
       <c r="G573" s="7"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E574" s="7"/>
       <c r="F574" s="7"/>
       <c r="G574" s="7"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E575" s="7"/>
       <c r="F575" s="7"/>
       <c r="G575" s="7"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E576" s="7"/>
       <c r="F576" s="7"/>
       <c r="G576" s="7"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E577" s="7"/>
       <c r="F577" s="7"/>
       <c r="G577" s="7"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E578" s="7"/>
       <c r="F578" s="7"/>
       <c r="G578" s="7"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E579" s="7"/>
       <c r="F579" s="7"/>
       <c r="G579" s="7"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E580" s="7"/>
       <c r="F580" s="7"/>
       <c r="G580" s="7"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E581" s="7"/>
       <c r="F581" s="7"/>
       <c r="G581" s="7"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E582" s="7"/>
       <c r="F582" s="7"/>
       <c r="G582" s="7"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E583" s="7"/>
       <c r="F583" s="7"/>
       <c r="G583" s="7"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E584" s="7"/>
       <c r="F584" s="7"/>
       <c r="G584" s="7"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E585" s="7"/>
       <c r="F585" s="7"/>
       <c r="G585" s="7"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E586" s="7"/>
       <c r="F586" s="7"/>
       <c r="G586" s="7"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E587" s="7"/>
       <c r="F587" s="7"/>
       <c r="G587" s="7"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E588" s="7"/>
       <c r="F588" s="7"/>
       <c r="G588" s="7"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E589" s="7"/>
       <c r="F589" s="7"/>
       <c r="G589" s="7"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E590" s="7"/>
       <c r="F590" s="7"/>
       <c r="G590" s="7"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E591" s="7"/>
       <c r="F591" s="7"/>
       <c r="G591" s="7"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E592" s="7"/>
       <c r="F592" s="7"/>
       <c r="G592" s="7"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E593" s="7"/>
       <c r="F593" s="7"/>
       <c r="G593" s="7"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E594" s="7"/>
       <c r="F594" s="7"/>
       <c r="G594" s="7"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E595" s="7"/>
       <c r="F595" s="7"/>
       <c r="G595" s="7"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E596" s="7"/>
       <c r="F596" s="7"/>
       <c r="G596" s="7"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E597" s="7"/>
       <c r="F597" s="7"/>
       <c r="G597" s="7"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E598" s="7"/>
       <c r="F598" s="7"/>
       <c r="G598" s="7"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E599" s="7"/>
       <c r="F599" s="7"/>
       <c r="G599" s="7"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E600" s="7"/>
       <c r="F600" s="7"/>
       <c r="G600" s="7"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E601" s="7"/>
       <c r="F601" s="7"/>
       <c r="G601" s="7"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E602" s="7"/>
       <c r="F602" s="7"/>
       <c r="G602" s="7"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E603" s="7"/>
       <c r="F603" s="7"/>
       <c r="G603" s="7"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E604" s="7"/>
       <c r="F604" s="7"/>
       <c r="G604" s="7"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E605" s="7"/>
       <c r="F605" s="7"/>
       <c r="G605" s="7"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E606" s="7"/>
       <c r="F606" s="7"/>
       <c r="G606" s="7"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E607" s="7"/>
       <c r="F607" s="7"/>
       <c r="G607" s="7"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E608" s="7"/>
       <c r="F608" s="7"/>
       <c r="G608" s="7"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E609" s="7"/>
       <c r="F609" s="7"/>
       <c r="G609" s="7"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E610" s="7"/>
       <c r="F610" s="7"/>
       <c r="G610" s="7"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E611" s="7"/>
       <c r="F611" s="7"/>
       <c r="G611" s="7"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E612" s="7"/>
       <c r="F612" s="7"/>
       <c r="G612" s="7"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E613" s="7"/>
       <c r="F613" s="7"/>
       <c r="G613" s="7"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E614" s="7"/>
       <c r="F614" s="7"/>
       <c r="G614" s="7"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E615" s="7"/>
       <c r="F615" s="7"/>
       <c r="G615" s="7"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E616" s="7"/>
       <c r="F616" s="7"/>
       <c r="G616" s="7"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E617" s="7"/>
       <c r="F617" s="7"/>
       <c r="G617" s="7"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E618" s="7"/>
       <c r="F618" s="7"/>
       <c r="G618" s="7"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E619" s="7"/>
       <c r="F619" s="7"/>
       <c r="G619" s="7"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E620" s="7"/>
       <c r="F620" s="7"/>
       <c r="G620" s="7"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E621" s="7"/>
       <c r="F621" s="7"/>
       <c r="G621" s="7"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E622" s="7"/>
       <c r="F622" s="7"/>
       <c r="G622" s="7"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E623" s="7"/>
       <c r="F623" s="7"/>
       <c r="G623" s="7"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E624" s="7"/>
       <c r="F624" s="7"/>
       <c r="G624" s="7"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E625" s="7"/>
       <c r="F625" s="7"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E626" s="7"/>
       <c r="F626" s="7"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E627" s="7"/>
       <c r="F627" s="7"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E628" s="7"/>
       <c r="F628" s="7"/>
       <c r="G628" s="7"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E629" s="7"/>
       <c r="F629" s="7"/>
       <c r="G629" s="7"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E630" s="7"/>
       <c r="F630" s="7"/>
       <c r="G630" s="7"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E631" s="7"/>
       <c r="F631" s="7"/>
       <c r="G631" s="7"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E632" s="7"/>
       <c r="F632" s="7"/>
       <c r="G632" s="7"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E633" s="7"/>
       <c r="F633" s="7"/>
       <c r="G633" s="7"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E634" s="7"/>
       <c r="F634" s="7"/>
       <c r="G634" s="7"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E635" s="7"/>
       <c r="F635" s="7"/>
       <c r="G635" s="7"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E636" s="7"/>
       <c r="F636" s="7"/>
       <c r="G636" s="7"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E637" s="7"/>
       <c r="F637" s="7"/>
       <c r="G637" s="7"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E638" s="7"/>
       <c r="F638" s="7"/>
       <c r="G638" s="7"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E639" s="7"/>
       <c r="F639" s="7"/>
       <c r="G639" s="7"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E640" s="7"/>
       <c r="F640" s="7"/>
       <c r="G640" s="7"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E641" s="7"/>
       <c r="F641" s="7"/>
       <c r="G641" s="7"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E642" s="7"/>
       <c r="F642" s="7"/>
       <c r="G642" s="7"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E643" s="7"/>
       <c r="F643" s="7"/>
       <c r="G643" s="7"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E644" s="7"/>
       <c r="F644" s="7"/>
       <c r="G644" s="7"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E645" s="7"/>
       <c r="F645" s="7"/>
       <c r="G645" s="7"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E646" s="7"/>
       <c r="F646" s="7"/>
       <c r="G646" s="7"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E647" s="7"/>
       <c r="F647" s="7"/>
       <c r="G647" s="7"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E648" s="7"/>
       <c r="F648" s="7"/>
       <c r="G648" s="7"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E649" s="7"/>
       <c r="F649" s="7"/>
       <c r="G649" s="7"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E650" s="7"/>
       <c r="F650" s="7"/>
       <c r="G650" s="7"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E651" s="7"/>
       <c r="F651" s="7"/>
       <c r="G651" s="7"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E652" s="7"/>
       <c r="F652" s="7"/>
       <c r="G652" s="7"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E653" s="7"/>
       <c r="F653" s="7"/>
       <c r="G653" s="7"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E654" s="7"/>
       <c r="F654" s="7"/>
       <c r="G654" s="7"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E655" s="7"/>
       <c r="F655" s="7"/>
       <c r="G655" s="7"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E656" s="7"/>
       <c r="F656" s="7"/>
       <c r="G656" s="7"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E657" s="7"/>
       <c r="F657" s="7"/>
       <c r="G657" s="7"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E658" s="7"/>
       <c r="F658" s="7"/>
       <c r="G658" s="7"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E659" s="7"/>
       <c r="F659" s="7"/>
       <c r="G659" s="7"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E660" s="7"/>
       <c r="F660" s="7"/>
       <c r="G660" s="7"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E661" s="7"/>
       <c r="F661" s="7"/>
       <c r="G661" s="7"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E662" s="7"/>
       <c r="F662" s="7"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E663" s="7"/>
       <c r="F663" s="7"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E664" s="7"/>
       <c r="F664" s="7"/>
       <c r="G664" s="7"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E665" s="7"/>
       <c r="F665" s="7"/>
       <c r="G665" s="7"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E666" s="7"/>
       <c r="F666" s="7"/>
       <c r="G666" s="7"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E667" s="7"/>
       <c r="F667" s="7"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E668" s="7"/>
       <c r="F668" s="7"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E669" s="7"/>
       <c r="F669" s="7"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E670" s="7"/>
       <c r="F670" s="7"/>
       <c r="G670" s="7"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E671" s="7"/>
       <c r="F671" s="7"/>
       <c r="G671" s="7"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E672" s="7"/>
       <c r="F672" s="7"/>
       <c r="G672" s="7"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E673" s="7"/>
       <c r="F673" s="7"/>
       <c r="G673" s="7"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E674" s="7"/>
       <c r="F674" s="7"/>
       <c r="G674" s="7"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E675" s="7"/>
       <c r="F675" s="7"/>
       <c r="G675" s="7"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E676" s="7"/>
       <c r="F676" s="7"/>
       <c r="G676" s="7"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E677" s="7"/>
       <c r="F677" s="7"/>
       <c r="G677" s="7"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E678" s="7"/>
       <c r="F678" s="7"/>
       <c r="G678" s="7"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E679" s="7"/>
       <c r="F679" s="7"/>
       <c r="G679" s="7"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E680" s="7"/>
       <c r="F680" s="7"/>
       <c r="G680" s="7"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E681" s="7"/>
       <c r="F681" s="7"/>
       <c r="G681" s="7"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E682" s="7"/>
       <c r="F682" s="7"/>
       <c r="G682" s="7"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E683" s="7"/>
       <c r="F683" s="7"/>
       <c r="G683" s="7"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E684" s="7"/>
       <c r="F684" s="7"/>
       <c r="G684" s="7"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E685" s="7"/>
       <c r="F685" s="7"/>
       <c r="G685" s="7"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E686" s="7"/>
       <c r="F686" s="7"/>
       <c r="G686" s="7"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E687" s="7"/>
       <c r="F687" s="7"/>
       <c r="G687" s="7"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E688" s="7"/>
       <c r="F688" s="7"/>
       <c r="G688" s="7"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E689" s="7"/>
       <c r="F689" s="7"/>
       <c r="G689" s="7"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E690" s="7"/>
       <c r="F690" s="7"/>
       <c r="G690" s="7"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E691" s="7"/>
       <c r="F691" s="7"/>
       <c r="G691" s="7"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E692" s="7"/>
       <c r="F692" s="7"/>
       <c r="G692" s="7"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E693" s="7"/>
       <c r="F693" s="7"/>
       <c r="G693" s="7"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E694" s="7"/>
       <c r="F694" s="7"/>
       <c r="G694" s="7"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E695" s="7"/>
       <c r="F695" s="7"/>
       <c r="G695" s="7"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E696" s="7"/>
       <c r="F696" s="7"/>
       <c r="G696" s="7"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E697" s="7"/>
       <c r="F697" s="7"/>
       <c r="G697" s="7"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E698" s="7"/>
       <c r="F698" s="7"/>
       <c r="G698" s="7"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E699" s="7"/>
       <c r="F699" s="7"/>
       <c r="G699" s="7"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E700" s="7"/>
       <c r="F700" s="7"/>
       <c r="G700" s="7"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E701" s="7"/>
       <c r="F701" s="7"/>
       <c r="G701" s="7"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E702" s="7"/>
       <c r="F702" s="7"/>
       <c r="G702" s="7"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E703" s="7"/>
       <c r="F703" s="7"/>
       <c r="G703" s="7"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E704" s="7"/>
       <c r="F704" s="7"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E705" s="7"/>
       <c r="F705" s="7"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E706" s="7"/>
       <c r="F706" s="7"/>
       <c r="G706" s="7"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E707" s="7"/>
       <c r="F707" s="7"/>
       <c r="G707" s="7"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E708" s="7"/>
       <c r="F708" s="7"/>
       <c r="G708" s="7"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E709" s="7"/>
       <c r="F709" s="7"/>
       <c r="G709" s="7"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E710" s="7"/>
       <c r="F710" s="7"/>
       <c r="G710" s="7"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E711" s="7"/>
       <c r="F711" s="7"/>
       <c r="G711" s="7"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E712" s="7"/>
       <c r="F712" s="7"/>
       <c r="G712" s="7"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E713" s="7"/>
       <c r="F713" s="7"/>
       <c r="G713" s="7"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E714" s="7"/>
       <c r="F714" s="7"/>
       <c r="G714" s="7"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E715" s="7"/>
       <c r="F715" s="7"/>
       <c r="G715" s="7"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E716" s="7"/>
       <c r="F716" s="7"/>
       <c r="G716" s="7"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E717" s="7"/>
       <c r="F717" s="7"/>
       <c r="G717" s="7"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E718" s="7"/>
       <c r="F718" s="7"/>
       <c r="G718" s="7"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E719" s="7"/>
       <c r="F719" s="7"/>
       <c r="G719" s="7"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E720" s="7"/>
       <c r="F720" s="7"/>
       <c r="G720" s="7"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E721" s="7"/>
       <c r="F721" s="7"/>
       <c r="G721" s="7"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E722" s="7"/>
       <c r="F722" s="7"/>
       <c r="G722" s="7"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E723" s="7"/>
       <c r="F723" s="7"/>
       <c r="G723" s="7"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E724" s="7"/>
       <c r="F724" s="7"/>
       <c r="G724" s="7"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E725" s="7"/>
       <c r="F725" s="7"/>
       <c r="G725" s="7"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E726" s="7"/>
       <c r="F726" s="7"/>
       <c r="G726" s="7"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E727" s="7"/>
       <c r="F727" s="7"/>
       <c r="G727" s="7"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E728" s="7"/>
       <c r="F728" s="7"/>
       <c r="G728" s="7"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E729" s="7"/>
       <c r="F729" s="7"/>
       <c r="G729" s="7"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E730" s="7"/>
       <c r="F730" s="7"/>
       <c r="G730" s="7"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E731" s="7"/>
       <c r="F731" s="7"/>
       <c r="G731" s="7"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E732" s="7"/>
       <c r="F732" s="7"/>
       <c r="G732" s="7"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E733" s="7"/>
       <c r="F733" s="7"/>
       <c r="G733" s="7"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E734" s="7"/>
       <c r="F734" s="7"/>
       <c r="G734" s="7"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E735" s="7"/>
       <c r="F735" s="7"/>
       <c r="G735" s="7"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E736" s="7"/>
       <c r="F736" s="7"/>
       <c r="G736" s="7"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E737" s="7"/>
       <c r="F737" s="7"/>
       <c r="G737" s="7"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E738" s="7"/>
       <c r="F738" s="7"/>
       <c r="G738" s="7"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E739" s="7"/>
       <c r="F739" s="7"/>
       <c r="G739" s="7"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E740" s="7"/>
       <c r="F740" s="7"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E741" s="7"/>
       <c r="F741" s="7"/>
       <c r="G741" s="7"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E742" s="7"/>
       <c r="F742" s="7"/>
       <c r="G742" s="7"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E743" s="7"/>
       <c r="F743" s="7"/>
       <c r="G743" s="7"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E744" s="7"/>
       <c r="F744" s="7"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E745" s="7"/>
       <c r="F745" s="7"/>
       <c r="G745" s="7"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E746" s="7"/>
       <c r="F746" s="7"/>
       <c r="G746" s="7"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E747" s="7"/>
       <c r="F747" s="7"/>
       <c r="G747" s="7"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E748" s="7"/>
       <c r="F748" s="7"/>
       <c r="G748" s="7"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E749" s="7"/>
       <c r="F749" s="7"/>
       <c r="G749" s="7"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E750" s="7"/>
       <c r="F750" s="7"/>
       <c r="G750" s="7"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E751" s="7"/>
       <c r="F751" s="7"/>
       <c r="G751" s="7"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E752" s="7"/>
       <c r="F752" s="7"/>
       <c r="G752" s="7"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E753" s="7"/>
       <c r="F753" s="7"/>
       <c r="G753" s="7"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E754" s="7"/>
       <c r="F754" s="7"/>
       <c r="G754" s="7"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E755" s="7"/>
       <c r="F755" s="7"/>
       <c r="G755" s="7"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E756" s="7"/>
       <c r="F756" s="7"/>
       <c r="G756" s="7"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E757" s="7"/>
       <c r="F757" s="7"/>
       <c r="G757" s="7"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E758" s="7"/>
       <c r="F758" s="7"/>
       <c r="G758" s="7"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E759" s="7"/>
       <c r="F759" s="7"/>
       <c r="G759" s="7"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E760" s="7"/>
       <c r="F760" s="7"/>
       <c r="G760" s="7"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E761" s="7"/>
       <c r="F761" s="7"/>
       <c r="G761" s="7"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E762" s="7"/>
       <c r="F762" s="7"/>
       <c r="G762" s="7"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E763" s="7"/>
       <c r="F763" s="7"/>
       <c r="G763" s="7"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E764" s="7"/>
       <c r="F764" s="7"/>
       <c r="G764" s="7"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E765" s="7"/>
       <c r="F765" s="7"/>
       <c r="G765" s="7"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E766" s="7"/>
       <c r="F766" s="7"/>
       <c r="G766" s="7"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E767" s="7"/>
       <c r="F767" s="7"/>
       <c r="G767" s="7"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E768" s="7"/>
       <c r="F768" s="7"/>
       <c r="G768" s="7"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E769" s="7"/>
       <c r="F769" s="7"/>
       <c r="G769" s="7"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E770" s="7"/>
       <c r="F770" s="7"/>
       <c r="G770" s="7"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E771" s="7"/>
       <c r="F771" s="7"/>
       <c r="G771" s="7"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E772" s="7"/>
       <c r="F772" s="7"/>
       <c r="G772" s="7"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E773" s="7"/>
       <c r="F773" s="7"/>
       <c r="G773" s="7"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E774" s="7"/>
       <c r="F774" s="7"/>
       <c r="G774" s="7"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E775" s="7"/>
       <c r="F775" s="7"/>
       <c r="G775" s="7"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E776" s="7"/>
       <c r="F776" s="7"/>
       <c r="G776" s="7"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E777" s="7"/>
       <c r="F777" s="7"/>
       <c r="G777" s="7"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E778" s="7"/>
       <c r="F778" s="7"/>
       <c r="G778" s="7"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E779" s="7"/>
       <c r="F779" s="7"/>
       <c r="G779" s="7"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E780" s="7"/>
       <c r="F780" s="7"/>
       <c r="G780" s="7"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E781" s="7"/>
       <c r="F781" s="7"/>
       <c r="G781" s="7"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E782" s="7"/>
       <c r="F782" s="7"/>
       <c r="G782" s="7"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E783" s="7"/>
       <c r="F783" s="7"/>
       <c r="G783" s="7"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E784" s="7"/>
       <c r="F784" s="7"/>
       <c r="G784" s="7"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E785" s="7"/>
       <c r="F785" s="7"/>
       <c r="G785" s="7"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E786" s="7"/>
       <c r="F786" s="7"/>
       <c r="G786" s="7"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E787" s="7"/>
       <c r="F787" s="7"/>
       <c r="G787" s="7"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E788" s="7"/>
       <c r="F788" s="7"/>
       <c r="G788" s="7"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E789" s="7"/>
       <c r="F789" s="7"/>
       <c r="G789" s="7"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E790" s="7"/>
       <c r="F790" s="7"/>
       <c r="G790" s="7"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E791" s="7"/>
       <c r="F791" s="7"/>
       <c r="G791" s="7"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E792" s="7"/>
       <c r="F792" s="7"/>
       <c r="G792" s="7"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E793" s="7"/>
       <c r="F793" s="7"/>
       <c r="G793" s="7"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E794" s="7"/>
       <c r="F794" s="7"/>
       <c r="G794" s="7"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E795" s="7"/>
       <c r="F795" s="7"/>
       <c r="G795" s="7"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E796" s="7"/>
       <c r="F796" s="7"/>
       <c r="G796" s="7"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E797" s="7"/>
       <c r="F797" s="7"/>
       <c r="G797" s="7"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E798" s="7"/>
       <c r="F798" s="7"/>
       <c r="G798" s="7"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E799" s="7"/>
       <c r="F799" s="7"/>
       <c r="G799" s="7"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E800" s="7"/>
       <c r="F800" s="7"/>
       <c r="G800" s="7"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E801" s="7"/>
       <c r="F801" s="7"/>
       <c r="G801" s="7"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E802" s="7"/>
       <c r="F802" s="7"/>
       <c r="G802" s="7"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E803" s="7"/>
       <c r="F803" s="7"/>
       <c r="G803" s="7"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E804" s="7"/>
       <c r="F804" s="7"/>
       <c r="G804" s="7"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E805" s="7"/>
       <c r="F805" s="7"/>
       <c r="G805" s="7"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E806" s="7"/>
       <c r="F806" s="7"/>
       <c r="G806" s="7"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E807" s="7"/>
       <c r="F807" s="7"/>
       <c r="G807" s="7"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E808" s="7"/>
       <c r="F808" s="7"/>
       <c r="G808" s="7"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E809" s="7"/>
       <c r="F809" s="7"/>
       <c r="G809" s="7"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E810" s="7"/>
       <c r="F810" s="7"/>
       <c r="G810" s="7"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E811" s="7"/>
       <c r="F811" s="7"/>
       <c r="G811" s="7"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E812" s="7"/>
       <c r="F812" s="7"/>
       <c r="G812" s="7"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E813" s="7"/>
       <c r="F813" s="7"/>
       <c r="G813" s="7"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E814" s="7"/>
       <c r="F814" s="7"/>
       <c r="G814" s="7"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E815" s="7"/>
       <c r="F815" s="7"/>
       <c r="G815" s="7"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E816" s="7"/>
       <c r="F816" s="7"/>
       <c r="G816" s="7"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E817" s="7"/>
       <c r="F817" s="7"/>
       <c r="G817" s="7"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E818" s="7"/>
       <c r="F818" s="7"/>
       <c r="G818" s="7"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E819" s="7"/>
       <c r="F819" s="7"/>
       <c r="G819" s="7"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E820" s="7"/>
       <c r="F820" s="7"/>
       <c r="G820" s="7"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E821" s="7"/>
       <c r="F821" s="7"/>
       <c r="G821" s="7"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E822" s="7"/>
       <c r="F822" s="7"/>
       <c r="G822" s="7"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E823" s="7"/>
       <c r="F823" s="7"/>
       <c r="G823" s="7"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E824" s="7"/>
       <c r="F824" s="7"/>
       <c r="G824" s="7"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E825" s="7"/>
       <c r="F825" s="7"/>
       <c r="G825" s="7"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E826" s="7"/>
       <c r="F826" s="7"/>
       <c r="G826" s="7"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E827" s="7"/>
       <c r="F827" s="7"/>
       <c r="G827" s="7"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E828" s="7"/>
       <c r="F828" s="7"/>
       <c r="G828" s="7"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E829" s="7"/>
       <c r="F829" s="7"/>
       <c r="G829" s="7"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E830" s="7"/>
       <c r="F830" s="7"/>
       <c r="G830" s="7"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E831" s="7"/>
       <c r="F831" s="7"/>
       <c r="G831" s="7"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E832" s="7"/>
       <c r="F832" s="7"/>
       <c r="G832" s="7"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E833" s="7"/>
       <c r="F833" s="7"/>
       <c r="G833" s="7"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E834" s="7"/>
       <c r="F834" s="7"/>
       <c r="G834" s="7"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E835" s="7"/>
       <c r="F835" s="7"/>
       <c r="G835" s="7"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E836" s="7"/>
       <c r="F836" s="7"/>
       <c r="G836" s="7"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E837" s="7"/>
       <c r="F837" s="7"/>
       <c r="G837" s="7"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E838" s="7"/>
       <c r="F838" s="7"/>
       <c r="G838" s="7"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E839" s="7"/>
       <c r="F839" s="7"/>
       <c r="G839" s="7"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E840" s="7"/>
       <c r="F840" s="7"/>
       <c r="G840" s="7"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E841" s="7"/>
       <c r="F841" s="7"/>
       <c r="G841" s="7"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E842" s="7"/>
       <c r="F842" s="7"/>
       <c r="G842" s="7"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E843" s="7"/>
       <c r="F843" s="7"/>
       <c r="G843" s="7"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E844" s="7"/>
       <c r="F844" s="7"/>
       <c r="G844" s="7"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E845" s="7"/>
       <c r="F845" s="7"/>
       <c r="G845" s="7"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E846" s="7"/>
       <c r="F846" s="7"/>
       <c r="G846" s="7"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E847" s="7"/>
       <c r="F847" s="7"/>
       <c r="G847" s="7"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E848" s="7"/>
       <c r="F848" s="7"/>
       <c r="G848" s="7"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E849" s="7"/>
       <c r="F849" s="7"/>
       <c r="G849" s="7"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E850" s="7"/>
       <c r="F850" s="7"/>
       <c r="G850" s="7"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E851" s="7"/>
       <c r="F851" s="7"/>
       <c r="G851" s="7"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E852" s="7"/>
       <c r="F852" s="7"/>
       <c r="G852" s="7"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E853" s="7"/>
       <c r="F853" s="7"/>
       <c r="G853" s="7"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E854" s="7"/>
       <c r="F854" s="7"/>
       <c r="G854" s="7"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E855" s="7"/>
       <c r="F855" s="7"/>
       <c r="G855" s="7"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E856" s="7"/>
       <c r="F856" s="7"/>
       <c r="G856" s="7"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E857" s="7"/>
       <c r="F857" s="7"/>
       <c r="G857" s="7"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E858" s="7"/>
       <c r="F858" s="7"/>
       <c r="G858" s="7"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E859" s="7"/>
       <c r="F859" s="7"/>
       <c r="G859" s="7"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E860" s="7"/>
       <c r="F860" s="7"/>
       <c r="G860" s="7"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E861" s="7"/>
       <c r="F861" s="7"/>
       <c r="G861" s="7"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E862" s="7"/>
       <c r="F862" s="7"/>
       <c r="G862" s="7"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E863" s="7"/>
       <c r="F863" s="7"/>
       <c r="G863" s="7"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E864" s="7"/>
       <c r="F864" s="7"/>
       <c r="G864" s="7"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E865" s="7"/>
       <c r="F865" s="7"/>
       <c r="G865" s="7"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E866" s="7"/>
       <c r="F866" s="7"/>
       <c r="G866" s="7"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E867" s="7"/>
       <c r="F867" s="7"/>
       <c r="G867" s="7"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E868" s="7"/>
       <c r="F868" s="7"/>
       <c r="G868" s="7"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E869" s="7"/>
       <c r="F869" s="7"/>
       <c r="G869" s="7"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E870" s="7"/>
       <c r="F870" s="7"/>
       <c r="G870" s="7"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E871" s="7"/>
       <c r="F871" s="7"/>
       <c r="G871" s="7"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E872" s="7"/>
       <c r="F872" s="7"/>
       <c r="G872" s="7"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E873" s="7"/>
       <c r="F873" s="7"/>
       <c r="G873" s="7"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E874" s="7"/>
       <c r="F874" s="7"/>
       <c r="G874" s="7"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E875" s="7"/>
       <c r="F875" s="7"/>
       <c r="G875" s="7"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E876" s="7"/>
       <c r="F876" s="7"/>
       <c r="G876" s="7"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E877" s="7"/>
       <c r="F877" s="7"/>
       <c r="G877" s="7"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E878" s="7"/>
       <c r="F878" s="7"/>
       <c r="G878" s="7"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E879" s="7"/>
       <c r="F879" s="7"/>
       <c r="G879" s="7"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E880" s="7"/>
       <c r="F880" s="7"/>
       <c r="G880" s="7"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E881" s="7"/>
       <c r="F881" s="7"/>
       <c r="G881" s="7"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E882" s="7"/>
       <c r="F882" s="7"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E883" s="7"/>
       <c r="F883" s="7"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E884" s="7"/>
       <c r="F884" s="7"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E885" s="7"/>
       <c r="F885" s="7"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E886" s="7"/>
       <c r="F886" s="7"/>
       <c r="G886" s="7"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E887" s="7"/>
       <c r="F887" s="7"/>
       <c r="G887" s="7"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E888" s="7"/>
       <c r="F888" s="7"/>
       <c r="G888" s="7"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E889" s="7"/>
       <c r="F889" s="7"/>
       <c r="G889" s="7"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E890" s="7"/>
       <c r="F890" s="7"/>
       <c r="G890" s="7"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E891" s="7"/>
       <c r="F891" s="7"/>
       <c r="G891" s="7"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E892" s="7"/>
       <c r="F892" s="7"/>
       <c r="G892" s="7"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E893" s="7"/>
       <c r="F893" s="7"/>
       <c r="G893" s="7"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E894" s="7"/>
       <c r="F894" s="7"/>
       <c r="G894" s="7"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E895" s="7"/>
       <c r="F895" s="7"/>
       <c r="G895" s="7"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E896" s="7"/>
       <c r="F896" s="7"/>
       <c r="G896" s="7"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E897" s="7"/>
       <c r="F897" s="7"/>
       <c r="G897" s="7"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E898" s="7"/>
       <c r="F898" s="7"/>
       <c r="G898" s="7"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E899" s="7"/>
       <c r="F899" s="7"/>
       <c r="G899" s="7"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E900" s="7"/>
       <c r="F900" s="7"/>
       <c r="G900" s="7"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E901" s="7"/>
       <c r="F901" s="7"/>
       <c r="G901" s="7"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E902" s="7"/>
       <c r="F902" s="7"/>
       <c r="G902" s="7"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E903" s="7"/>
       <c r="F903" s="7"/>
       <c r="G903" s="7"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E904" s="7"/>
       <c r="F904" s="7"/>
       <c r="G904" s="7"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E905" s="7"/>
       <c r="F905" s="7"/>
       <c r="G905" s="7"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E906" s="7"/>
       <c r="F906" s="7"/>
       <c r="G906" s="7"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E907" s="7"/>
       <c r="F907" s="7"/>
       <c r="G907" s="7"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E908" s="7"/>
       <c r="F908" s="7"/>
       <c r="G908" s="7"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E909" s="7"/>
       <c r="F909" s="7"/>
       <c r="G909" s="7"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E910" s="7"/>
       <c r="F910" s="7"/>
       <c r="G910" s="7"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E911" s="7"/>
       <c r="F911" s="7"/>
       <c r="G911" s="7"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E912" s="7"/>
       <c r="F912" s="7"/>
       <c r="G912" s="7"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E913" s="7"/>
       <c r="F913" s="7"/>
       <c r="G913" s="7"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E914" s="7"/>
       <c r="F914" s="7"/>
       <c r="G914" s="7"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E915" s="7"/>
       <c r="F915" s="7"/>
       <c r="G915" s="7"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E916" s="7"/>
       <c r="F916" s="7"/>
       <c r="G916" s="7"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E917" s="7"/>
       <c r="F917" s="7"/>
       <c r="G917" s="7"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E918" s="7"/>
       <c r="F918" s="7"/>
       <c r="G918" s="7"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E919" s="7"/>
       <c r="F919" s="7"/>
       <c r="G919" s="7"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E920" s="7"/>
       <c r="F920" s="7"/>
       <c r="G920" s="7"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E921" s="7"/>
       <c r="F921" s="7"/>
       <c r="G921" s="7"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E922" s="7"/>
       <c r="F922" s="7"/>
       <c r="G922" s="7"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E923" s="7"/>
       <c r="F923" s="7"/>
       <c r="G923" s="7"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E924" s="7"/>
       <c r="F924" s="7"/>
       <c r="G924" s="7"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E925" s="7"/>
       <c r="F925" s="7"/>
       <c r="G925" s="7"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E926" s="7"/>
       <c r="F926" s="7"/>
       <c r="G926" s="7"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E927" s="7"/>
       <c r="F927" s="7"/>
       <c r="G927" s="7"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E928" s="7"/>
       <c r="F928" s="7"/>
       <c r="G928" s="7"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E929" s="7"/>
       <c r="F929" s="7"/>
       <c r="G929" s="7"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E930" s="7"/>
       <c r="F930" s="7"/>
       <c r="G930" s="7"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E931" s="7"/>
       <c r="F931" s="7"/>
       <c r="G931" s="7"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E932" s="7"/>
       <c r="F932" s="7"/>
       <c r="G932" s="7"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E933" s="7"/>
       <c r="F933" s="7"/>
       <c r="G933" s="7"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E934" s="7"/>
       <c r="F934" s="7"/>
       <c r="G934" s="7"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E935" s="7"/>
       <c r="F935" s="7"/>
       <c r="G935" s="7"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E936" s="7"/>
       <c r="F936" s="7"/>
       <c r="G936" s="7"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E937" s="7"/>
       <c r="F937" s="7"/>
       <c r="G937" s="7"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E938" s="7"/>
       <c r="F938" s="7"/>
       <c r="G938" s="7"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E939" s="7"/>
       <c r="F939" s="7"/>
       <c r="G939" s="7"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E940" s="7"/>
       <c r="F940" s="7"/>
       <c r="G940" s="7"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E941" s="7"/>
       <c r="F941" s="7"/>
       <c r="G941" s="7"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E942" s="7"/>
       <c r="F942" s="7"/>
       <c r="G942" s="7"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E943" s="7"/>
       <c r="F943" s="7"/>
       <c r="G943" s="7"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E944" s="7"/>
       <c r="F944" s="7"/>
       <c r="G944" s="7"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E945" s="7"/>
       <c r="F945" s="7"/>
       <c r="G945" s="7"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E946" s="7"/>
       <c r="F946" s="7"/>
       <c r="G946" s="7"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E947" s="7"/>
       <c r="F947" s="7"/>
       <c r="G947" s="7"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E948" s="7"/>
       <c r="F948" s="7"/>
       <c r="G948" s="7"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E949" s="7"/>
       <c r="F949" s="7"/>
       <c r="G949" s="7"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E950" s="7"/>
       <c r="F950" s="7"/>
       <c r="G950" s="7"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E951" s="7"/>
       <c r="F951" s="7"/>
       <c r="G951" s="7"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E952" s="7"/>
       <c r="F952" s="7"/>
       <c r="G952" s="7"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E953" s="7"/>
       <c r="F953" s="7"/>
       <c r="G953" s="7"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E954" s="7"/>
       <c r="F954" s="7"/>
       <c r="G954" s="7"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E955" s="7"/>
       <c r="F955" s="7"/>
       <c r="G955" s="7"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E956" s="7"/>
       <c r="F956" s="7"/>
       <c r="G956" s="7"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E957" s="7"/>
       <c r="F957" s="7"/>
       <c r="G957" s="7"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E958" s="7"/>
       <c r="F958" s="7"/>
       <c r="G958" s="7"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E959" s="7"/>
       <c r="F959" s="7"/>
       <c r="G959" s="7"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E960" s="7"/>
       <c r="F960" s="7"/>
       <c r="G960" s="7"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E961" s="7"/>
       <c r="F961" s="7"/>
       <c r="G961" s="7"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E962" s="7"/>
       <c r="F962" s="7"/>
       <c r="G962" s="7"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E963" s="7"/>
       <c r="F963" s="7"/>
       <c r="G963" s="7"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E964" s="7"/>
       <c r="F964" s="7"/>
       <c r="G964" s="7"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E965" s="7"/>
       <c r="F965" s="7"/>
       <c r="G965" s="7"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E966" s="7"/>
       <c r="F966" s="7"/>
       <c r="G966" s="7"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E967" s="7"/>
       <c r="F967" s="7"/>
       <c r="G967" s="7"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E968" s="7"/>
       <c r="F968" s="7"/>
       <c r="G968" s="7"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E969" s="7"/>
       <c r="F969" s="7"/>
       <c r="G969" s="7"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E970" s="7"/>
       <c r="F970" s="7"/>
       <c r="G970" s="7"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E971" s="7"/>
       <c r="F971" s="7"/>
       <c r="G971" s="7"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E972" s="7"/>
       <c r="F972" s="7"/>
       <c r="G972" s="7"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E973" s="7"/>
       <c r="F973" s="7"/>
       <c r="G973" s="7"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E974" s="7"/>
       <c r="F974" s="7"/>
       <c r="G974" s="7"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E975" s="7"/>
       <c r="F975" s="7"/>
       <c r="G975" s="7"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E976" s="7"/>
       <c r="F976" s="7"/>
       <c r="G976" s="7"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E977" s="7"/>
       <c r="F977" s="7"/>
       <c r="G977" s="7"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E978" s="7"/>
       <c r="F978" s="7"/>
       <c r="G978" s="7"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E979" s="7"/>
       <c r="F979" s="7"/>
       <c r="G979" s="7"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E980" s="7"/>
       <c r="F980" s="7"/>
       <c r="G980" s="7"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E981" s="7"/>
       <c r="F981" s="7"/>
       <c r="G981" s="7"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E982" s="7"/>
       <c r="F982" s="7"/>
       <c r="G982" s="7"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E983" s="7"/>
       <c r="F983" s="7"/>
       <c r="G983" s="7"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E984" s="7"/>
       <c r="F984" s="7"/>
       <c r="G984" s="7"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E985" s="7"/>
       <c r="F985" s="7"/>
       <c r="G985" s="7"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E986" s="7"/>
       <c r="F986" s="7"/>
       <c r="G986" s="7"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E987" s="7"/>
       <c r="F987" s="7"/>
       <c r="G987" s="7"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E988" s="7"/>
       <c r="F988" s="7"/>
       <c r="G988" s="7"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E989" s="7"/>
       <c r="F989" s="7"/>
       <c r="G989" s="7"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E990" s="7"/>
       <c r="F990" s="7"/>
       <c r="G990" s="7"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E991" s="7"/>
       <c r="F991" s="7"/>
       <c r="G991" s="7"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E992" s="7"/>
       <c r="F992" s="7"/>
       <c r="G992" s="7"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E993" s="7"/>
       <c r="F993" s="7"/>
       <c r="G993" s="7"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E994" s="7"/>
       <c r="F994" s="7"/>
       <c r="G994" s="7"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E995" s="7"/>
       <c r="F995" s="7"/>
       <c r="G995" s="7"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E996" s="7"/>
       <c r="F996" s="7"/>
       <c r="G996" s="7"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E997" s="7"/>
       <c r="F997" s="7"/>
       <c r="G997" s="7"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E998" s="7"/>
       <c r="F998" s="7"/>
       <c r="G998" s="7"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E999" s="7"/>
       <c r="F999" s="7"/>
       <c r="G999" s="7"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1000" s="7"/>
       <c r="F1000" s="7"/>
       <c r="G1000" s="7"/>
     </row>
-    <row r="1001" ht="14.25" customHeight="1">
+    <row r="1001" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1001" s="7"/>
       <c r="F1001" s="7"/>
       <c r="G1001" s="7"/>
     </row>
-    <row r="1002" ht="14.25" customHeight="1">
+    <row r="1002" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1002" s="7"/>
       <c r="F1002" s="7"/>
       <c r="G1002" s="7"/>
     </row>
-    <row r="1003" ht="14.25" customHeight="1">
+    <row r="1003" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1003" s="7"/>
       <c r="F1003" s="7"/>
       <c r="G1003" s="7"/>
     </row>
-    <row r="1004" ht="14.25" customHeight="1">
+    <row r="1004" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1004" s="7"/>
       <c r="F1004" s="7"/>
       <c r="G1004" s="7"/>
     </row>
-    <row r="1005" ht="14.25" customHeight="1">
-      <c r="E1005" s="7"/>
-      <c r="F1005" s="7"/>
-      <c r="G1005" s="7"/>
-    </row>
-    <row r="1006" ht="14.25" customHeight="1">
-      <c r="E1006" s="7"/>
-      <c r="F1006" s="7"/>
-      <c r="G1006" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$105">
-    <sortState ref="A1:Z105">
-      <sortCondition ref="D1:D105"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Z105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F33"/>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/CTV ClinicalTrial File.xlsx
+++ b/doc/CTV ClinicalTrial File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elias/Projects/CRAN-task-view-ClinicalTrials/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F5A437-92CC-ED4D-A413-1DA9381C73FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B7340-D134-6246-AA37-52C15A9846E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,10 +831,10 @@
     <t>`r pkg("NCC")`is an R package that allows users to simulate platform trials and perform treatment–control comparisons using non-concurrent control data (Krotka et al. (2023) &lt;doi:10.1016/j.softx.2023.101437&gt;). The package supports simulation of complex platform trial designs with continuous or binary endpoints and a flexible number of treatment arms that enter the trial at different time points. The software accommodates different treatment effects among the arms and includes several patterns for time trends. Analytic approaches currently implemented in the package cover frequentist modes (e.g., regression model adjusting for time as a fixed effect mixed model adjusting for time as a random factor, and regression splines), the Bayesian time machine a meta-analytic predictive prior separate analysis, and pooled analysis.</t>
   </si>
   <si>
-    <t>`r pkg("SIMPLE")` is a modular R package to simulate clinical trials and was developed to solve the problem of poor shareability and re-usability of existing software code in future projects (Meyer et al. (2023) &lt;10.1016/j.softx.2023.101515&gt;). In `r pkg("SIMPLE")`, different aspects of the simulation (e.g., participant recruitment, analysis strategies, and the inclusion and exclusion of further interventions into the platform) are governed by partially independent and re-usable “modules”. Due to its architecture, `r pkg("SIMPLE")` can be used as a backbone from which to create highly complex designs that are accessible to users with very limited R skills, while more advanced users can nearly infinitely tweak the designs.</t>
-  </si>
-  <si>
     <t>`r pkg("CohortPlat")` facilitates the simulation of cohort platform trials with binary endpoints, where each cohort consists of a combination treatment, the respective monotherapies, and control. Bayesian decision rules are used at the interim analysis (early futility or efficacy based on a surrogate endpoint) and at the final analysis to declare the combination therapy successful or futile. Sharing of the control and the backbone monotherapy data across cohorts is possible. The package offers extensive flexibility with respect to both platform trial trajectories, as well as treatment effect scenarios, and decision rules. This package was used to derive the simulation results in Meyer et al. (2022) &lt;doi:10.1002/pst.2194&gt;.</t>
+  </si>
+  <si>
+    <t>`r pkg("SIMPLE")` is a modular R package to simulate clinical trials and was developed to solve the problem of poor shareability and re-usability of existing software code in future projects (Meyer et al. (2023) &lt;doi:10.1016/j.softx.2023.101515&gt;). In `r pkg("SIMPLE")`, different aspects of the simulation (e.g., participant recruitment, analysis strategies, and the inclusion and exclusion of further interventions into the platform) are governed by partially independent and re-usable “modules”. Due to its architecture, `r pkg("SIMPLE")` can be used as a backbone from which to create highly complex designs that are accessible to users with very limited R skills, while more advanced users can nearly infinitely tweak the designs.</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:AA1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3235,7 +3235,7 @@
         <v>140</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G108" s="7"/>
     </row>
@@ -3271,7 +3271,7 @@
         <v>140</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G110" s="7"/>
     </row>

--- a/doc/CTV ClinicalTrial File.xlsx
+++ b/doc/CTV ClinicalTrial File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elias/Projects/CRAN-task-view-ClinicalTrials/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B7340-D134-6246-AA37-52C15A9846E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0C42F-5B91-4E4C-B3AB-A5E0F6144F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="271">
   <si>
     <t>Package Name</t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t>`r pkg("SIMPLE")` is a modular R package to simulate clinical trials and was developed to solve the problem of poor shareability and re-usability of existing software code in future projects (Meyer et al. (2023) &lt;doi:10.1016/j.softx.2023.101515&gt;). In `r pkg("SIMPLE")`, different aspects of the simulation (e.g., participant recruitment, analysis strategies, and the inclusion and exclusion of further interventions into the platform) are governed by partially independent and re-usable “modules”. Due to its architecture, `r pkg("SIMPLE")` can be used as a backbone from which to create highly complex designs that are accessible to users with very limited R skills, while more advanced users can nearly infinitely tweak the designs.</t>
+  </si>
+  <si>
+    <t>airship</t>
+  </si>
+  <si>
+    <t>`r pkg("airship")`is an R package that contains an R Shiny App designed to plot simulation results of clinical trials. Its main feature is allowing users to simultaneously investigate the impact of several simulation input dimensions through dynamic filtering of the simulation results. A more detailed description of the core app can be found in Meyer et al. (2023) &lt;doi:10.1016/j.softx.2023.101347&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1205,7 @@
   <dimension ref="A1:AA1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3276,9 +3282,21 @@
       <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="16"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="A111" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/CTV ClinicalTrial File.xlsx
+++ b/doc/CTV ClinicalTrial File.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elias/Projects/CRAN-task-view-ClinicalTrials/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0C42F-5B91-4E4C-B3AB-A5E0F6144F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$105</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$AA$1006</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Rsa7QLiRVv4Lnf1POJRJddTQnJRpIWvsMiXHSXUjKQo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="X95rdQG9/co8Q875krGCtziDwFFKYvjmKiZ3CcgsESw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="273">
   <si>
     <t>Package Name</t>
   </si>
@@ -816,24 +806,24 @@
     <t>Cats</t>
   </si>
   <si>
+    <t>`r pkg("Cats")` simulates a cohort platform trial design whereby every cohort consists of two arms (control and experimental treatment). Co-primary binary endpoints are used, and decisions at the interim or final analysis are made using either Bayesian or frequentist decision rules. Several options for sharing control data across cohorts are implemented. Realistic trial trajectories are simulated, and the operating characteristics of the designs are calculated. This package was used to derive the simulation results in Meyer et al. (2023) &lt;doi:10.1371/journal.pone.0281674&gt;.</t>
+  </si>
+  <si>
     <t>CohortPlat</t>
   </si>
   <si>
+    <t>`r pkg("CohortPlat")` facilitates the simulation of cohort platform trials with binary endpoints, where each cohort consists of a combination treatment, the respective monotherapies, and control. Bayesian decision rules are used at the interim analysis (early futility or efficacy based on a surrogate endpoint) and at the final analysis to declare the combination therapy successful or futile. Sharing of the control and the backbone monotherapy data across cohorts is possible. The package offers extensive flexibility with respect to both platform trial trajectories, as well as treatment effect scenarios, and decision rules. This package was used to derive the simulation results in Meyer et al. (2022) &lt;doi:10.1002/pst.2194&gt;.</t>
+  </si>
+  <si>
     <t>NCC</t>
   </si>
   <si>
+    <t>`r pkg("NCC")`is an R package that allows users to simulate platform trials and perform treatment–control comparisons using non-concurrent control data (Krotka et al. (2023) &lt;doi:10.1016/j.softx.2023.101437&gt;). The package supports simulation of complex platform trial designs with continuous or binary endpoints and a flexible number of treatment arms that enter the trial at different time points. The software accommodates different treatment effects among the arms and includes several patterns for time trends. Analytic approaches currently implemented in the package cover frequentist modes (e.g., regression model adjusting for time as a fixed effect mixed model adjusting for time as a random factor, and regression splines), the Bayesian time machine a meta-analytic predictive prior separate analysis, and pooled analysis.</t>
+  </si>
+  <si>
     <t>SIMPLE</t>
   </si>
   <si>
-    <t>`r pkg("Cats")` simulates a cohort platform trial design whereby every cohort consists of two arms (control and experimental treatment). Co-primary binary endpoints are used, and decisions at the interim or final analysis are made using either Bayesian or frequentist decision rules. Several options for sharing control data across cohorts are implemented. Realistic trial trajectories are simulated, and the operating characteristics of the designs are calculated. This package was used to derive the simulation results in Meyer et al. (2023) &lt;doi:10.1371/journal.pone.0281674&gt;.</t>
-  </si>
-  <si>
-    <t>`r pkg("NCC")`is an R package that allows users to simulate platform trials and perform treatment–control comparisons using non-concurrent control data (Krotka et al. (2023) &lt;doi:10.1016/j.softx.2023.101437&gt;). The package supports simulation of complex platform trial designs with continuous or binary endpoints and a flexible number of treatment arms that enter the trial at different time points. The software accommodates different treatment effects among the arms and includes several patterns for time trends. Analytic approaches currently implemented in the package cover frequentist modes (e.g., regression model adjusting for time as a fixed effect mixed model adjusting for time as a random factor, and regression splines), the Bayesian time machine a meta-analytic predictive prior separate analysis, and pooled analysis.</t>
-  </si>
-  <si>
-    <t>`r pkg("CohortPlat")` facilitates the simulation of cohort platform trials with binary endpoints, where each cohort consists of a combination treatment, the respective monotherapies, and control. Bayesian decision rules are used at the interim analysis (early futility or efficacy based on a surrogate endpoint) and at the final analysis to declare the combination therapy successful or futile. Sharing of the control and the backbone monotherapy data across cohorts is possible. The package offers extensive flexibility with respect to both platform trial trajectories, as well as treatment effect scenarios, and decision rules. This package was used to derive the simulation results in Meyer et al. (2022) &lt;doi:10.1002/pst.2194&gt;.</t>
-  </si>
-  <si>
     <t>`r pkg("SIMPLE")` is a modular R package to simulate clinical trials and was developed to solve the problem of poor shareability and re-usability of existing software code in future projects (Meyer et al. (2023) &lt;doi:10.1016/j.softx.2023.101515&gt;). In `r pkg("SIMPLE")`, different aspects of the simulation (e.g., participant recruitment, analysis strategies, and the inclusion and exclusion of further interventions into the platform) are governed by partially independent and re-usable “modules”. Due to its architecture, `r pkg("SIMPLE")` can be used as a backbone from which to create highly complex designs that are accessible to users with very limited R skills, while more advanced users can nearly infinitely tweak the designs.</t>
   </si>
   <si>
@@ -841,74 +831,66 @@
   </si>
   <si>
     <t>`r pkg("airship")`is an R package that contains an R Shiny App designed to plot simulation results of clinical trials. Its main feature is allowing users to simultaneously investigate the impact of several simulation input dimensions through dynamic filtering of the simulation results. A more detailed description of the core app can be found in Meyer et al. (2023) &lt;doi:10.1016/j.softx.2023.101347&gt;.</t>
+  </si>
+  <si>
+    <t>MatchIt</t>
+  </si>
+  <si>
+    <t>`r pkg("MatchIt")` is an R package that selects matched samples of the original treated and control groups with similar covariate distributions.  It can be used to match exactly on covariates, to match on propensity scores, or perform a variety of other matching procedures.   The package also implements a series of recommendations offered in Ho, Imai, King, and Stuart (2007) &lt;doi:10.1093/pan/mpl013&gt;.   After appropriately preprocessing with MatchIt, researchers can use whatever parametric model they would have used without MatchIt and produce inferences that are more robust and less sensitive to modeling assumptions. Matching methods, assessing balance, and estimating effects after balance is described in the vignettes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="9">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF729FCF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF5B9BD5"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF729FCF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -916,7 +898,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -932,80 +914,74 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1195,32 +1171,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1004"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="171.83203125" customWidth="1"/>
-    <col min="7" max="7" width="116.5" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="26" width="8.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.86"/>
+    <col customWidth="1" min="3" max="3" width="11.86"/>
+    <col customWidth="1" min="4" max="4" width="24.14"/>
+    <col customWidth="1" min="5" max="5" width="26.43"/>
+    <col customWidth="1" min="6" max="6" width="171.86"/>
+    <col customWidth="1" min="7" max="7" width="116.43"/>
+    <col customWidth="1" min="8" max="8" width="17.43"/>
+    <col customWidth="1" min="9" max="26" width="8.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1238,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1257,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1275,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1319,7 +1293,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1335,7 +1309,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1325,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1367,7 +1341,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1357,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1373,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1392,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1436,7 +1410,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1455,7 +1429,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1474,7 +1448,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -1493,7 +1467,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -1511,7 +1485,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -1530,7 +1504,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -1548,7 +1522,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -1566,7 +1540,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1556,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1594,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
@@ -1639,7 +1613,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
@@ -1657,7 +1631,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -1673,7 +1647,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
@@ -1689,7 +1663,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -1705,7 +1679,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
@@ -1724,7 +1698,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -1741,7 +1715,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
@@ -1758,7 +1732,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -1776,7 +1750,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>78</v>
       </c>
@@ -1795,7 +1769,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>80</v>
       </c>
@@ -1813,7 +1787,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>82</v>
       </c>
@@ -1829,7 +1803,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -1846,7 +1820,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>86</v>
       </c>
@@ -1884,7 +1858,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>90</v>
       </c>
@@ -1903,7 +1877,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>94</v>
       </c>
@@ -1922,7 +1896,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
@@ -1941,7 +1915,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -1960,7 +1934,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
@@ -1979,7 +1953,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>104</v>
       </c>
@@ -1998,7 +1972,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>106</v>
       </c>
@@ -2017,7 +1991,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>108</v>
       </c>
@@ -2036,7 +2010,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>111</v>
       </c>
@@ -2055,7 +2029,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>113</v>
       </c>
@@ -2074,7 +2048,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>116</v>
       </c>
@@ -2093,7 +2067,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
@@ -2112,7 +2086,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -2131,7 +2105,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>124</v>
       </c>
@@ -2150,7 +2124,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>126</v>
       </c>
@@ -2169,7 +2143,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>128</v>
       </c>
@@ -2188,7 +2162,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>130</v>
       </c>
@@ -2207,7 +2181,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>132</v>
       </c>
@@ -2226,7 +2200,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>134</v>
       </c>
@@ -2244,7 +2218,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -2262,7 +2236,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>139</v>
       </c>
@@ -2281,7 +2255,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>142</v>
       </c>
@@ -2300,7 +2274,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>144</v>
       </c>
@@ -2318,7 +2292,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>146</v>
       </c>
@@ -2336,7 +2310,7 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>148</v>
       </c>
@@ -2354,7 +2328,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>150</v>
       </c>
@@ -2372,7 +2346,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>152</v>
       </c>
@@ -2391,7 +2365,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>154</v>
       </c>
@@ -2410,7 +2384,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>156</v>
       </c>
@@ -2428,7 +2402,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>159</v>
       </c>
@@ -2446,7 +2420,7 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
@@ -2464,7 +2438,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>164</v>
       </c>
@@ -2485,7 +2459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>168</v>
       </c>
@@ -2504,7 +2478,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>170</v>
       </c>
@@ -2523,7 +2497,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>172</v>
       </c>
@@ -2541,7 +2515,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>174</v>
       </c>
@@ -2560,7 +2534,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>177</v>
       </c>
@@ -2578,7 +2552,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>181</v>
       </c>
@@ -2597,7 +2571,7 @@
       <c r="G72" s="7"/>
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>184</v>
       </c>
@@ -2615,7 +2589,7 @@
       </c>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>186</v>
       </c>
@@ -2633,7 +2607,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>188</v>
       </c>
@@ -2651,7 +2625,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>190</v>
       </c>
@@ -2671,7 +2645,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>194</v>
       </c>
@@ -2689,7 +2663,7 @@
       </c>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>196</v>
       </c>
@@ -2707,7 +2681,7 @@
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>68</v>
       </c>
@@ -2730,7 +2704,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>201</v>
       </c>
@@ -2748,7 +2722,7 @@
       </c>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>204</v>
       </c>
@@ -2766,7 +2740,7 @@
       </c>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>206</v>
       </c>
@@ -2784,7 +2758,7 @@
       </c>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>209</v>
       </c>
@@ -2802,7 +2776,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>211</v>
       </c>
@@ -2820,7 +2794,7 @@
       </c>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>213</v>
       </c>
@@ -2838,7 +2812,7 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>215</v>
       </c>
@@ -2856,7 +2830,7 @@
       </c>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>217</v>
       </c>
@@ -2874,7 +2848,7 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>219</v>
       </c>
@@ -2892,7 +2866,7 @@
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>221</v>
       </c>
@@ -2910,7 +2884,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>224</v>
       </c>
@@ -2928,7 +2902,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>226</v>
       </c>
@@ -2946,7 +2920,7 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>228</v>
       </c>
@@ -2964,7 +2938,7 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>230</v>
       </c>
@@ -2982,7 +2956,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>232</v>
       </c>
@@ -3000,7 +2974,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>234</v>
       </c>
@@ -3018,7 +2992,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>236</v>
       </c>
@@ -3036,7 +3010,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>239</v>
       </c>
@@ -3054,14 +3028,14 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -3075,7 +3049,7 @@
       </c>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>244</v>
       </c>
@@ -3093,7 +3067,7 @@
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>246</v>
       </c>
@@ -3111,7 +3085,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>248</v>
       </c>
@@ -3127,7 +3101,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>251</v>
       </c>
@@ -3143,7 +3117,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>253</v>
       </c>
@@ -3159,7 +3133,7 @@
       </c>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>255</v>
       </c>
@@ -3175,7 +3149,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>257</v>
       </c>
@@ -3191,7 +3165,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>259</v>
       </c>
@@ -3204,4572 +3178,4587 @@
       <c r="E106" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="7" t="s">
         <v>260</v>
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G107" s="7"/>
-    </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="17" t="s">
+      <c r="B109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E109" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F109" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G108" s="7"/>
-    </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="17" t="s">
+      <c r="B110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E110" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F109" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G109" s="7"/>
-    </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="7" t="s">
         <v>270</v>
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
     </row>
-    <row r="174" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
     </row>
-    <row r="176" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
     </row>
-    <row r="180" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
     </row>
-    <row r="184" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" ht="14.25" customHeight="1">
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
     </row>
-    <row r="186" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" ht="14.25" customHeight="1">
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" ht="14.25" customHeight="1">
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" ht="14.25" customHeight="1">
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
     </row>
-    <row r="192" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" ht="14.25" customHeight="1">
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" ht="14.25" customHeight="1">
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" ht="14.25" customHeight="1">
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" ht="14.25" customHeight="1">
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
     </row>
-    <row r="196" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" ht="14.25" customHeight="1">
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" ht="14.25" customHeight="1">
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" ht="14.25" customHeight="1">
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" ht="14.25" customHeight="1">
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" ht="14.25" customHeight="1">
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" ht="14.25" customHeight="1">
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
     </row>
-    <row r="204" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" ht="14.25" customHeight="1">
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="14.25" customHeight="1">
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
     </row>
-    <row r="206" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" ht="14.25" customHeight="1">
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" ht="14.25" customHeight="1">
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" ht="14.25" customHeight="1">
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" ht="14.25" customHeight="1">
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" ht="14.25" customHeight="1">
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" ht="14.25" customHeight="1">
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" ht="14.25" customHeight="1">
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" ht="14.25" customHeight="1">
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" ht="14.25" customHeight="1">
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" ht="14.25" customHeight="1">
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" ht="14.25" customHeight="1">
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" ht="14.25" customHeight="1">
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" ht="14.25" customHeight="1">
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" ht="14.25" customHeight="1">
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" ht="14.25" customHeight="1">
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" ht="14.25" customHeight="1">
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" ht="14.25" customHeight="1">
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" ht="14.25" customHeight="1">
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
     </row>
-    <row r="227" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" ht="14.25" customHeight="1">
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" ht="14.25" customHeight="1">
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
     </row>
-    <row r="229" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" ht="14.25" customHeight="1">
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" ht="14.25" customHeight="1">
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
     </row>
-    <row r="231" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" ht="14.25" customHeight="1">
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" ht="14.25" customHeight="1">
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
     </row>
-    <row r="233" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" ht="14.25" customHeight="1">
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
     </row>
-    <row r="234" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" ht="14.25" customHeight="1">
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
     </row>
-    <row r="235" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" ht="14.25" customHeight="1">
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
     </row>
-    <row r="236" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" ht="14.25" customHeight="1">
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" ht="14.25" customHeight="1">
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
     </row>
-    <row r="238" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" ht="14.25" customHeight="1">
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
     </row>
-    <row r="239" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" ht="14.25" customHeight="1">
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
     </row>
-    <row r="240" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" ht="14.25" customHeight="1">
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" ht="14.25" customHeight="1">
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" ht="14.25" customHeight="1">
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" ht="14.25" customHeight="1">
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
     </row>
-    <row r="244" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" ht="14.25" customHeight="1">
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" ht="14.25" customHeight="1">
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
     </row>
-    <row r="246" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" ht="14.25" customHeight="1">
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
     </row>
-    <row r="247" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" ht="14.25" customHeight="1">
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
     </row>
-    <row r="248" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" ht="14.25" customHeight="1">
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
     </row>
-    <row r="249" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" ht="14.25" customHeight="1">
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
     </row>
-    <row r="250" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" ht="14.25" customHeight="1">
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" ht="14.25" customHeight="1">
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
     </row>
-    <row r="252" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" ht="14.25" customHeight="1">
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" ht="14.25" customHeight="1">
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" ht="14.25" customHeight="1">
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" ht="14.25" customHeight="1">
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" ht="14.25" customHeight="1">
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" ht="14.25" customHeight="1">
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
     </row>
-    <row r="258" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" ht="14.25" customHeight="1">
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
     </row>
-    <row r="259" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" ht="14.25" customHeight="1">
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
     </row>
-    <row r="260" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" ht="14.25" customHeight="1">
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
     </row>
-    <row r="261" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" ht="14.25" customHeight="1">
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
     </row>
-    <row r="262" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" ht="14.25" customHeight="1">
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" ht="14.25" customHeight="1">
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
     </row>
-    <row r="264" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" ht="14.25" customHeight="1">
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" ht="14.25" customHeight="1">
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" ht="14.25" customHeight="1">
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
     </row>
-    <row r="267" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" ht="14.25" customHeight="1">
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" ht="14.25" customHeight="1">
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" ht="14.25" customHeight="1">
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" ht="14.25" customHeight="1">
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" ht="14.25" customHeight="1">
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" ht="14.25" customHeight="1">
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" ht="14.25" customHeight="1">
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
     </row>
-    <row r="274" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" ht="14.25" customHeight="1">
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" ht="14.25" customHeight="1">
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
     </row>
-    <row r="276" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" ht="14.25" customHeight="1">
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
     </row>
-    <row r="277" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" ht="14.25" customHeight="1">
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" ht="14.25" customHeight="1">
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" ht="14.25" customHeight="1">
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
     </row>
-    <row r="280" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" ht="14.25" customHeight="1">
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
     </row>
-    <row r="281" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" ht="14.25" customHeight="1">
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
     </row>
-    <row r="282" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" ht="14.25" customHeight="1">
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
     </row>
-    <row r="283" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" ht="14.25" customHeight="1">
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
     </row>
-    <row r="284" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" ht="14.25" customHeight="1">
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" ht="14.25" customHeight="1">
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
     </row>
-    <row r="286" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" ht="14.25" customHeight="1">
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
     </row>
-    <row r="287" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" ht="14.25" customHeight="1">
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
     </row>
-    <row r="288" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" ht="14.25" customHeight="1">
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" ht="14.25" customHeight="1">
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
     </row>
-    <row r="290" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" ht="14.25" customHeight="1">
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
     </row>
-    <row r="291" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" ht="14.25" customHeight="1">
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
     </row>
-    <row r="292" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" ht="14.25" customHeight="1">
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" ht="14.25" customHeight="1">
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
     </row>
-    <row r="294" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" ht="14.25" customHeight="1">
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
     </row>
-    <row r="295" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" ht="14.25" customHeight="1">
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
     </row>
-    <row r="296" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" ht="14.25" customHeight="1">
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" ht="14.25" customHeight="1">
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
     </row>
-    <row r="298" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" ht="14.25" customHeight="1">
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
     </row>
-    <row r="299" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" ht="14.25" customHeight="1">
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
     </row>
-    <row r="300" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" ht="14.25" customHeight="1">
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" ht="14.25" customHeight="1">
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
     </row>
-    <row r="302" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" ht="14.25" customHeight="1">
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
     </row>
-    <row r="303" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" ht="14.25" customHeight="1">
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
     </row>
-    <row r="304" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" ht="14.25" customHeight="1">
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
     </row>
-    <row r="305" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" ht="14.25" customHeight="1">
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
     </row>
-    <row r="306" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" ht="14.25" customHeight="1">
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
     </row>
-    <row r="307" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" ht="14.25" customHeight="1">
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
     </row>
-    <row r="308" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" ht="14.25" customHeight="1">
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
     </row>
-    <row r="309" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" ht="14.25" customHeight="1">
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
     </row>
-    <row r="310" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" ht="14.25" customHeight="1">
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
     </row>
-    <row r="311" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" ht="14.25" customHeight="1">
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
     </row>
-    <row r="312" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" ht="14.25" customHeight="1">
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
     </row>
-    <row r="313" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" ht="14.25" customHeight="1">
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
     </row>
-    <row r="314" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" ht="14.25" customHeight="1">
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
     </row>
-    <row r="315" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" ht="14.25" customHeight="1">
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
     </row>
-    <row r="316" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" ht="14.25" customHeight="1">
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
     </row>
-    <row r="317" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" ht="14.25" customHeight="1">
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
     </row>
-    <row r="318" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" ht="14.25" customHeight="1">
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
     </row>
-    <row r="319" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" ht="14.25" customHeight="1">
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
     </row>
-    <row r="320" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" ht="14.25" customHeight="1">
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
     </row>
-    <row r="321" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" ht="14.25" customHeight="1">
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
     </row>
-    <row r="322" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" ht="14.25" customHeight="1">
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" ht="14.25" customHeight="1">
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
     </row>
-    <row r="324" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" ht="14.25" customHeight="1">
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
     </row>
-    <row r="325" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" ht="14.25" customHeight="1">
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
     </row>
-    <row r="326" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" ht="14.25" customHeight="1">
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
     </row>
-    <row r="327" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" ht="14.25" customHeight="1">
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
     </row>
-    <row r="328" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" ht="14.25" customHeight="1">
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
     </row>
-    <row r="329" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" ht="14.25" customHeight="1">
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
     </row>
-    <row r="330" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" ht="14.25" customHeight="1">
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
     </row>
-    <row r="331" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" ht="14.25" customHeight="1">
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
     </row>
-    <row r="332" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" ht="14.25" customHeight="1">
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
     </row>
-    <row r="333" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" ht="14.25" customHeight="1">
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
     </row>
-    <row r="334" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" ht="14.25" customHeight="1">
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
     </row>
-    <row r="335" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" ht="14.25" customHeight="1">
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
     </row>
-    <row r="336" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" ht="14.25" customHeight="1">
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
     </row>
-    <row r="337" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" ht="14.25" customHeight="1">
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
     </row>
-    <row r="338" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" ht="14.25" customHeight="1">
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
     </row>
-    <row r="339" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" ht="14.25" customHeight="1">
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
     </row>
-    <row r="340" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" ht="14.25" customHeight="1">
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
     </row>
-    <row r="341" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" ht="14.25" customHeight="1">
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
     </row>
-    <row r="342" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" ht="14.25" customHeight="1">
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
     </row>
-    <row r="343" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" ht="14.25" customHeight="1">
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
     </row>
-    <row r="344" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" ht="14.25" customHeight="1">
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" ht="14.25" customHeight="1">
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
     </row>
-    <row r="346" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" ht="14.25" customHeight="1">
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
     </row>
-    <row r="347" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" ht="14.25" customHeight="1">
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
     </row>
-    <row r="348" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" ht="14.25" customHeight="1">
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
     </row>
-    <row r="349" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" ht="14.25" customHeight="1">
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
     </row>
-    <row r="350" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" ht="14.25" customHeight="1">
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
     </row>
-    <row r="351" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" ht="14.25" customHeight="1">
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
     </row>
-    <row r="352" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" ht="14.25" customHeight="1">
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
     </row>
-    <row r="353" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" ht="14.25" customHeight="1">
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
     </row>
-    <row r="354" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" ht="14.25" customHeight="1">
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
     </row>
-    <row r="355" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" ht="14.25" customHeight="1">
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
     </row>
-    <row r="356" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" ht="14.25" customHeight="1">
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
     </row>
-    <row r="357" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" ht="14.25" customHeight="1">
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
     </row>
-    <row r="358" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" ht="14.25" customHeight="1">
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
     </row>
-    <row r="359" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" ht="14.25" customHeight="1">
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
     </row>
-    <row r="360" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" ht="14.25" customHeight="1">
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
     </row>
-    <row r="361" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" ht="14.25" customHeight="1">
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
     </row>
-    <row r="362" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" ht="14.25" customHeight="1">
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
     </row>
-    <row r="363" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" ht="14.25" customHeight="1">
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
     </row>
-    <row r="364" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" ht="14.25" customHeight="1">
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
     </row>
-    <row r="365" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" ht="14.25" customHeight="1">
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
     </row>
-    <row r="366" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" ht="14.25" customHeight="1">
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
     </row>
-    <row r="367" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" ht="14.25" customHeight="1">
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
     </row>
-    <row r="368" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" ht="14.25" customHeight="1">
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
     </row>
-    <row r="369" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" ht="14.25" customHeight="1">
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
     </row>
-    <row r="370" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" ht="14.25" customHeight="1">
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
     </row>
-    <row r="371" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" ht="14.25" customHeight="1">
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
     </row>
-    <row r="372" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" ht="14.25" customHeight="1">
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
     </row>
-    <row r="373" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" ht="14.25" customHeight="1">
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
     </row>
-    <row r="374" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" ht="14.25" customHeight="1">
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" ht="14.25" customHeight="1">
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
     </row>
-    <row r="376" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" ht="14.25" customHeight="1">
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
     </row>
-    <row r="377" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" ht="14.25" customHeight="1">
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
     </row>
-    <row r="378" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" ht="14.25" customHeight="1">
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
     </row>
-    <row r="379" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" ht="14.25" customHeight="1">
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" ht="14.25" customHeight="1">
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
     </row>
-    <row r="381" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" ht="14.25" customHeight="1">
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
     </row>
-    <row r="382" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" ht="14.25" customHeight="1">
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
     </row>
-    <row r="383" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" ht="14.25" customHeight="1">
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
     </row>
-    <row r="384" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" ht="14.25" customHeight="1">
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
     </row>
-    <row r="385" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" ht="14.25" customHeight="1">
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
     </row>
-    <row r="386" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" ht="14.25" customHeight="1">
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
     </row>
-    <row r="387" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" ht="14.25" customHeight="1">
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
     </row>
-    <row r="388" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" ht="14.25" customHeight="1">
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
     </row>
-    <row r="389" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" ht="14.25" customHeight="1">
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
     </row>
-    <row r="390" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" ht="14.25" customHeight="1">
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
     </row>
-    <row r="391" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" ht="14.25" customHeight="1">
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
     </row>
-    <row r="392" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" ht="14.25" customHeight="1">
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
     </row>
-    <row r="393" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" ht="14.25" customHeight="1">
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
     </row>
-    <row r="394" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" ht="14.25" customHeight="1">
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
     </row>
-    <row r="395" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" ht="14.25" customHeight="1">
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
     </row>
-    <row r="396" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" ht="14.25" customHeight="1">
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" ht="14.25" customHeight="1">
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
     </row>
-    <row r="398" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" ht="14.25" customHeight="1">
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
     </row>
-    <row r="399" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" ht="14.25" customHeight="1">
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
     </row>
-    <row r="400" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" ht="14.25" customHeight="1">
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
     </row>
-    <row r="401" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" ht="14.25" customHeight="1">
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
     </row>
-    <row r="402" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" ht="14.25" customHeight="1">
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
     </row>
-    <row r="403" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" ht="14.25" customHeight="1">
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
     </row>
-    <row r="404" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" ht="14.25" customHeight="1">
       <c r="E404" s="7"/>
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
     </row>
-    <row r="405" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" ht="14.25" customHeight="1">
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
     </row>
-    <row r="406" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" ht="14.25" customHeight="1">
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
     </row>
-    <row r="407" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" ht="14.25" customHeight="1">
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
     </row>
-    <row r="408" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" ht="14.25" customHeight="1">
       <c r="E408" s="7"/>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
     </row>
-    <row r="409" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" ht="14.25" customHeight="1">
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
     </row>
-    <row r="410" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" ht="14.25" customHeight="1">
       <c r="E410" s="7"/>
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
     </row>
-    <row r="411" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" ht="14.25" customHeight="1">
       <c r="E411" s="7"/>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" ht="14.25" customHeight="1">
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
     </row>
-    <row r="413" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" ht="14.25" customHeight="1">
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
     </row>
-    <row r="414" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" ht="14.25" customHeight="1">
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
     </row>
-    <row r="415" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" ht="14.25" customHeight="1">
       <c r="E415" s="7"/>
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
     </row>
-    <row r="416" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" ht="14.25" customHeight="1">
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
     </row>
-    <row r="417" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" ht="14.25" customHeight="1">
       <c r="E417" s="7"/>
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
     </row>
-    <row r="418" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" ht="14.25" customHeight="1">
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
     </row>
-    <row r="419" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" ht="14.25" customHeight="1">
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
     </row>
-    <row r="420" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" ht="14.25" customHeight="1">
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
     </row>
-    <row r="421" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" ht="14.25" customHeight="1">
       <c r="E421" s="7"/>
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" ht="14.25" customHeight="1">
       <c r="E422" s="7"/>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" ht="14.25" customHeight="1">
       <c r="E423" s="7"/>
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" ht="14.25" customHeight="1">
       <c r="E424" s="7"/>
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" ht="14.25" customHeight="1">
       <c r="E425" s="7"/>
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" ht="14.25" customHeight="1">
       <c r="E426" s="7"/>
       <c r="F426" s="7"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" ht="14.25" customHeight="1">
       <c r="E427" s="7"/>
       <c r="F427" s="7"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" ht="14.25" customHeight="1">
       <c r="E428" s="7"/>
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" ht="14.25" customHeight="1">
       <c r="E429" s="7"/>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" ht="14.25" customHeight="1">
       <c r="E430" s="7"/>
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" ht="14.25" customHeight="1">
       <c r="E431" s="7"/>
       <c r="F431" s="7"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" ht="14.25" customHeight="1">
       <c r="E432" s="7"/>
       <c r="F432" s="7"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" ht="14.25" customHeight="1">
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
     </row>
-    <row r="434" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" ht="14.25" customHeight="1">
       <c r="E434" s="7"/>
       <c r="F434" s="7"/>
       <c r="G434" s="7"/>
     </row>
-    <row r="435" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" ht="14.25" customHeight="1">
       <c r="E435" s="7"/>
       <c r="F435" s="7"/>
       <c r="G435" s="7"/>
     </row>
-    <row r="436" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" ht="14.25" customHeight="1">
       <c r="E436" s="7"/>
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
     </row>
-    <row r="437" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" ht="14.25" customHeight="1">
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
     </row>
-    <row r="438" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" ht="14.25" customHeight="1">
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
     </row>
-    <row r="439" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" ht="14.25" customHeight="1">
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
       <c r="G439" s="7"/>
     </row>
-    <row r="440" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" ht="14.25" customHeight="1">
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
       <c r="G440" s="7"/>
     </row>
-    <row r="441" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" ht="14.25" customHeight="1">
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" ht="14.25" customHeight="1">
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
       <c r="G442" s="7"/>
     </row>
-    <row r="443" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" ht="14.25" customHeight="1">
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" ht="14.25" customHeight="1">
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" ht="14.25" customHeight="1">
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" ht="14.25" customHeight="1">
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" ht="14.25" customHeight="1">
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
       <c r="G447" s="7"/>
     </row>
-    <row r="448" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" ht="14.25" customHeight="1">
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" ht="14.25" customHeight="1">
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" ht="14.25" customHeight="1">
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
       <c r="G450" s="7"/>
     </row>
-    <row r="451" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" ht="14.25" customHeight="1">
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" ht="14.25" customHeight="1">
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
       <c r="G452" s="7"/>
     </row>
-    <row r="453" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" ht="14.25" customHeight="1">
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" ht="14.25" customHeight="1">
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" ht="14.25" customHeight="1">
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" ht="14.25" customHeight="1">
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
     </row>
-    <row r="457" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" ht="14.25" customHeight="1">
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
       <c r="G457" s="7"/>
     </row>
-    <row r="458" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" ht="14.25" customHeight="1">
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
       <c r="G458" s="7"/>
     </row>
-    <row r="459" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" ht="14.25" customHeight="1">
       <c r="E459" s="7"/>
       <c r="F459" s="7"/>
       <c r="G459" s="7"/>
     </row>
-    <row r="460" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" ht="14.25" customHeight="1">
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
       <c r="G460" s="7"/>
     </row>
-    <row r="461" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" ht="14.25" customHeight="1">
       <c r="E461" s="7"/>
       <c r="F461" s="7"/>
       <c r="G461" s="7"/>
     </row>
-    <row r="462" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" ht="14.25" customHeight="1">
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
       <c r="G462" s="7"/>
     </row>
-    <row r="463" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" ht="14.25" customHeight="1">
       <c r="E463" s="7"/>
       <c r="F463" s="7"/>
       <c r="G463" s="7"/>
     </row>
-    <row r="464" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" ht="14.25" customHeight="1">
       <c r="E464" s="7"/>
       <c r="F464" s="7"/>
       <c r="G464" s="7"/>
     </row>
-    <row r="465" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" ht="14.25" customHeight="1">
       <c r="E465" s="7"/>
       <c r="F465" s="7"/>
       <c r="G465" s="7"/>
     </row>
-    <row r="466" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" ht="14.25" customHeight="1">
       <c r="E466" s="7"/>
       <c r="F466" s="7"/>
       <c r="G466" s="7"/>
     </row>
-    <row r="467" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" ht="14.25" customHeight="1">
       <c r="E467" s="7"/>
       <c r="F467" s="7"/>
       <c r="G467" s="7"/>
     </row>
-    <row r="468" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" ht="14.25" customHeight="1">
       <c r="E468" s="7"/>
       <c r="F468" s="7"/>
       <c r="G468" s="7"/>
     </row>
-    <row r="469" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" ht="14.25" customHeight="1">
       <c r="E469" s="7"/>
       <c r="F469" s="7"/>
       <c r="G469" s="7"/>
     </row>
-    <row r="470" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" ht="14.25" customHeight="1">
       <c r="E470" s="7"/>
       <c r="F470" s="7"/>
       <c r="G470" s="7"/>
     </row>
-    <row r="471" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" ht="14.25" customHeight="1">
       <c r="E471" s="7"/>
       <c r="F471" s="7"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" ht="14.25" customHeight="1">
       <c r="E472" s="7"/>
       <c r="F472" s="7"/>
       <c r="G472" s="7"/>
     </row>
-    <row r="473" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" ht="14.25" customHeight="1">
       <c r="E473" s="7"/>
       <c r="F473" s="7"/>
       <c r="G473" s="7"/>
     </row>
-    <row r="474" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" ht="14.25" customHeight="1">
       <c r="E474" s="7"/>
       <c r="F474" s="7"/>
       <c r="G474" s="7"/>
     </row>
-    <row r="475" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" ht="14.25" customHeight="1">
       <c r="E475" s="7"/>
       <c r="F475" s="7"/>
       <c r="G475" s="7"/>
     </row>
-    <row r="476" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" ht="14.25" customHeight="1">
       <c r="E476" s="7"/>
       <c r="F476" s="7"/>
       <c r="G476" s="7"/>
     </row>
-    <row r="477" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" ht="14.25" customHeight="1">
       <c r="E477" s="7"/>
       <c r="F477" s="7"/>
       <c r="G477" s="7"/>
     </row>
-    <row r="478" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" ht="14.25" customHeight="1">
       <c r="E478" s="7"/>
       <c r="F478" s="7"/>
       <c r="G478" s="7"/>
     </row>
-    <row r="479" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" ht="14.25" customHeight="1">
       <c r="E479" s="7"/>
       <c r="F479" s="7"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" ht="14.25" customHeight="1">
       <c r="E480" s="7"/>
       <c r="F480" s="7"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" ht="14.25" customHeight="1">
       <c r="E481" s="7"/>
       <c r="F481" s="7"/>
       <c r="G481" s="7"/>
     </row>
-    <row r="482" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" ht="14.25" customHeight="1">
       <c r="E482" s="7"/>
       <c r="F482" s="7"/>
       <c r="G482" s="7"/>
     </row>
-    <row r="483" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" ht="14.25" customHeight="1">
       <c r="E483" s="7"/>
       <c r="F483" s="7"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" ht="14.25" customHeight="1">
       <c r="E484" s="7"/>
       <c r="F484" s="7"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" ht="14.25" customHeight="1">
       <c r="E485" s="7"/>
       <c r="F485" s="7"/>
       <c r="G485" s="7"/>
     </row>
-    <row r="486" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" ht="14.25" customHeight="1">
       <c r="E486" s="7"/>
       <c r="F486" s="7"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" ht="14.25" customHeight="1">
       <c r="E487" s="7"/>
       <c r="F487" s="7"/>
       <c r="G487" s="7"/>
     </row>
-    <row r="488" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" ht="14.25" customHeight="1">
       <c r="E488" s="7"/>
       <c r="F488" s="7"/>
       <c r="G488" s="7"/>
     </row>
-    <row r="489" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" ht="14.25" customHeight="1">
       <c r="E489" s="7"/>
       <c r="F489" s="7"/>
       <c r="G489" s="7"/>
     </row>
-    <row r="490" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" ht="14.25" customHeight="1">
       <c r="E490" s="7"/>
       <c r="F490" s="7"/>
       <c r="G490" s="7"/>
     </row>
-    <row r="491" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" ht="14.25" customHeight="1">
       <c r="E491" s="7"/>
       <c r="F491" s="7"/>
       <c r="G491" s="7"/>
     </row>
-    <row r="492" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" ht="14.25" customHeight="1">
       <c r="E492" s="7"/>
       <c r="F492" s="7"/>
       <c r="G492" s="7"/>
     </row>
-    <row r="493" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" ht="14.25" customHeight="1">
       <c r="E493" s="7"/>
       <c r="F493" s="7"/>
       <c r="G493" s="7"/>
     </row>
-    <row r="494" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" ht="14.25" customHeight="1">
       <c r="E494" s="7"/>
       <c r="F494" s="7"/>
       <c r="G494" s="7"/>
     </row>
-    <row r="495" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" ht="14.25" customHeight="1">
       <c r="E495" s="7"/>
       <c r="F495" s="7"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" ht="14.25" customHeight="1">
       <c r="E496" s="7"/>
       <c r="F496" s="7"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" ht="14.25" customHeight="1">
       <c r="E497" s="7"/>
       <c r="F497" s="7"/>
       <c r="G497" s="7"/>
     </row>
-    <row r="498" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" ht="14.25" customHeight="1">
       <c r="E498" s="7"/>
       <c r="F498" s="7"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" ht="14.25" customHeight="1">
       <c r="E499" s="7"/>
       <c r="F499" s="7"/>
       <c r="G499" s="7"/>
     </row>
-    <row r="500" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" ht="14.25" customHeight="1">
       <c r="E500" s="7"/>
       <c r="F500" s="7"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" ht="14.25" customHeight="1">
       <c r="E501" s="7"/>
       <c r="F501" s="7"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" ht="14.25" customHeight="1">
       <c r="E502" s="7"/>
       <c r="F502" s="7"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" ht="14.25" customHeight="1">
       <c r="E503" s="7"/>
       <c r="F503" s="7"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" ht="14.25" customHeight="1">
       <c r="E504" s="7"/>
       <c r="F504" s="7"/>
       <c r="G504" s="7"/>
     </row>
-    <row r="505" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" ht="14.25" customHeight="1">
       <c r="E505" s="7"/>
       <c r="F505" s="7"/>
       <c r="G505" s="7"/>
     </row>
-    <row r="506" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" ht="14.25" customHeight="1">
       <c r="E506" s="7"/>
       <c r="F506" s="7"/>
       <c r="G506" s="7"/>
     </row>
-    <row r="507" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" ht="14.25" customHeight="1">
       <c r="E507" s="7"/>
       <c r="F507" s="7"/>
       <c r="G507" s="7"/>
     </row>
-    <row r="508" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" ht="14.25" customHeight="1">
       <c r="E508" s="7"/>
       <c r="F508" s="7"/>
       <c r="G508" s="7"/>
     </row>
-    <row r="509" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" ht="14.25" customHeight="1">
       <c r="E509" s="7"/>
       <c r="F509" s="7"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" ht="14.25" customHeight="1">
       <c r="E510" s="7"/>
       <c r="F510" s="7"/>
       <c r="G510" s="7"/>
     </row>
-    <row r="511" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" ht="14.25" customHeight="1">
       <c r="E511" s="7"/>
       <c r="F511" s="7"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" ht="14.25" customHeight="1">
       <c r="E512" s="7"/>
       <c r="F512" s="7"/>
       <c r="G512" s="7"/>
     </row>
-    <row r="513" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" ht="14.25" customHeight="1">
       <c r="E513" s="7"/>
       <c r="F513" s="7"/>
       <c r="G513" s="7"/>
     </row>
-    <row r="514" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" ht="14.25" customHeight="1">
       <c r="E514" s="7"/>
       <c r="F514" s="7"/>
       <c r="G514" s="7"/>
     </row>
-    <row r="515" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" ht="14.25" customHeight="1">
       <c r="E515" s="7"/>
       <c r="F515" s="7"/>
       <c r="G515" s="7"/>
     </row>
-    <row r="516" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" ht="14.25" customHeight="1">
       <c r="E516" s="7"/>
       <c r="F516" s="7"/>
       <c r="G516" s="7"/>
     </row>
-    <row r="517" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" ht="14.25" customHeight="1">
       <c r="E517" s="7"/>
       <c r="F517" s="7"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" ht="14.25" customHeight="1">
       <c r="E518" s="7"/>
       <c r="F518" s="7"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" ht="14.25" customHeight="1">
       <c r="E519" s="7"/>
       <c r="F519" s="7"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" ht="14.25" customHeight="1">
       <c r="E520" s="7"/>
       <c r="F520" s="7"/>
       <c r="G520" s="7"/>
     </row>
-    <row r="521" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" ht="14.25" customHeight="1">
       <c r="E521" s="7"/>
       <c r="F521" s="7"/>
       <c r="G521" s="7"/>
     </row>
-    <row r="522" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" ht="14.25" customHeight="1">
       <c r="E522" s="7"/>
       <c r="F522" s="7"/>
       <c r="G522" s="7"/>
     </row>
-    <row r="523" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" ht="14.25" customHeight="1">
       <c r="E523" s="7"/>
       <c r="F523" s="7"/>
       <c r="G523" s="7"/>
     </row>
-    <row r="524" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" ht="14.25" customHeight="1">
       <c r="E524" s="7"/>
       <c r="F524" s="7"/>
       <c r="G524" s="7"/>
     </row>
-    <row r="525" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" ht="14.25" customHeight="1">
       <c r="E525" s="7"/>
       <c r="F525" s="7"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" ht="14.25" customHeight="1">
       <c r="E526" s="7"/>
       <c r="F526" s="7"/>
       <c r="G526" s="7"/>
     </row>
-    <row r="527" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" ht="14.25" customHeight="1">
       <c r="E527" s="7"/>
       <c r="F527" s="7"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" ht="14.25" customHeight="1">
       <c r="E528" s="7"/>
       <c r="F528" s="7"/>
       <c r="G528" s="7"/>
     </row>
-    <row r="529" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" ht="14.25" customHeight="1">
       <c r="E529" s="7"/>
       <c r="F529" s="7"/>
       <c r="G529" s="7"/>
     </row>
-    <row r="530" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" ht="14.25" customHeight="1">
       <c r="E530" s="7"/>
       <c r="F530" s="7"/>
       <c r="G530" s="7"/>
     </row>
-    <row r="531" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" ht="14.25" customHeight="1">
       <c r="E531" s="7"/>
       <c r="F531" s="7"/>
       <c r="G531" s="7"/>
     </row>
-    <row r="532" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" ht="14.25" customHeight="1">
       <c r="E532" s="7"/>
       <c r="F532" s="7"/>
       <c r="G532" s="7"/>
     </row>
-    <row r="533" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" ht="14.25" customHeight="1">
       <c r="E533" s="7"/>
       <c r="F533" s="7"/>
       <c r="G533" s="7"/>
     </row>
-    <row r="534" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" ht="14.25" customHeight="1">
       <c r="E534" s="7"/>
       <c r="F534" s="7"/>
       <c r="G534" s="7"/>
     </row>
-    <row r="535" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" ht="14.25" customHeight="1">
       <c r="E535" s="7"/>
       <c r="F535" s="7"/>
       <c r="G535" s="7"/>
     </row>
-    <row r="536" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" ht="14.25" customHeight="1">
       <c r="E536" s="7"/>
       <c r="F536" s="7"/>
       <c r="G536" s="7"/>
     </row>
-    <row r="537" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" ht="14.25" customHeight="1">
       <c r="E537" s="7"/>
       <c r="F537" s="7"/>
       <c r="G537" s="7"/>
     </row>
-    <row r="538" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" ht="14.25" customHeight="1">
       <c r="E538" s="7"/>
       <c r="F538" s="7"/>
       <c r="G538" s="7"/>
     </row>
-    <row r="539" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" ht="14.25" customHeight="1">
       <c r="E539" s="7"/>
       <c r="F539" s="7"/>
       <c r="G539" s="7"/>
     </row>
-    <row r="540" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" ht="14.25" customHeight="1">
       <c r="E540" s="7"/>
       <c r="F540" s="7"/>
       <c r="G540" s="7"/>
     </row>
-    <row r="541" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" ht="14.25" customHeight="1">
       <c r="E541" s="7"/>
       <c r="F541" s="7"/>
       <c r="G541" s="7"/>
     </row>
-    <row r="542" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" ht="14.25" customHeight="1">
       <c r="E542" s="7"/>
       <c r="F542" s="7"/>
       <c r="G542" s="7"/>
     </row>
-    <row r="543" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" ht="14.25" customHeight="1">
       <c r="E543" s="7"/>
       <c r="F543" s="7"/>
       <c r="G543" s="7"/>
     </row>
-    <row r="544" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" ht="14.25" customHeight="1">
       <c r="E544" s="7"/>
       <c r="F544" s="7"/>
       <c r="G544" s="7"/>
     </row>
-    <row r="545" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" ht="14.25" customHeight="1">
       <c r="E545" s="7"/>
       <c r="F545" s="7"/>
       <c r="G545" s="7"/>
     </row>
-    <row r="546" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" ht="14.25" customHeight="1">
       <c r="E546" s="7"/>
       <c r="F546" s="7"/>
       <c r="G546" s="7"/>
     </row>
-    <row r="547" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" ht="14.25" customHeight="1">
       <c r="E547" s="7"/>
       <c r="F547" s="7"/>
       <c r="G547" s="7"/>
     </row>
-    <row r="548" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" ht="14.25" customHeight="1">
       <c r="E548" s="7"/>
       <c r="F548" s="7"/>
       <c r="G548" s="7"/>
     </row>
-    <row r="549" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" ht="14.25" customHeight="1">
       <c r="E549" s="7"/>
       <c r="F549" s="7"/>
       <c r="G549" s="7"/>
     </row>
-    <row r="550" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" ht="14.25" customHeight="1">
       <c r="E550" s="7"/>
       <c r="F550" s="7"/>
       <c r="G550" s="7"/>
     </row>
-    <row r="551" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" ht="14.25" customHeight="1">
       <c r="E551" s="7"/>
       <c r="F551" s="7"/>
       <c r="G551" s="7"/>
     </row>
-    <row r="552" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" ht="14.25" customHeight="1">
       <c r="E552" s="7"/>
       <c r="F552" s="7"/>
       <c r="G552" s="7"/>
     </row>
-    <row r="553" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" ht="14.25" customHeight="1">
       <c r="E553" s="7"/>
       <c r="F553" s="7"/>
       <c r="G553" s="7"/>
     </row>
-    <row r="554" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" ht="14.25" customHeight="1">
       <c r="E554" s="7"/>
       <c r="F554" s="7"/>
       <c r="G554" s="7"/>
     </row>
-    <row r="555" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" ht="14.25" customHeight="1">
       <c r="E555" s="7"/>
       <c r="F555" s="7"/>
       <c r="G555" s="7"/>
     </row>
-    <row r="556" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" ht="14.25" customHeight="1">
       <c r="E556" s="7"/>
       <c r="F556" s="7"/>
       <c r="G556" s="7"/>
     </row>
-    <row r="557" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" ht="14.25" customHeight="1">
       <c r="E557" s="7"/>
       <c r="F557" s="7"/>
       <c r="G557" s="7"/>
     </row>
-    <row r="558" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" ht="14.25" customHeight="1">
       <c r="E558" s="7"/>
       <c r="F558" s="7"/>
       <c r="G558" s="7"/>
     </row>
-    <row r="559" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" ht="14.25" customHeight="1">
       <c r="E559" s="7"/>
       <c r="F559" s="7"/>
       <c r="G559" s="7"/>
     </row>
-    <row r="560" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" ht="14.25" customHeight="1">
       <c r="E560" s="7"/>
       <c r="F560" s="7"/>
       <c r="G560" s="7"/>
     </row>
-    <row r="561" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" ht="14.25" customHeight="1">
       <c r="E561" s="7"/>
       <c r="F561" s="7"/>
       <c r="G561" s="7"/>
     </row>
-    <row r="562" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" ht="14.25" customHeight="1">
       <c r="E562" s="7"/>
       <c r="F562" s="7"/>
       <c r="G562" s="7"/>
     </row>
-    <row r="563" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" ht="14.25" customHeight="1">
       <c r="E563" s="7"/>
       <c r="F563" s="7"/>
       <c r="G563" s="7"/>
     </row>
-    <row r="564" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" ht="14.25" customHeight="1">
       <c r="E564" s="7"/>
       <c r="F564" s="7"/>
       <c r="G564" s="7"/>
     </row>
-    <row r="565" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" ht="14.25" customHeight="1">
       <c r="E565" s="7"/>
       <c r="F565" s="7"/>
       <c r="G565" s="7"/>
     </row>
-    <row r="566" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" ht="14.25" customHeight="1">
       <c r="E566" s="7"/>
       <c r="F566" s="7"/>
       <c r="G566" s="7"/>
     </row>
-    <row r="567" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" ht="14.25" customHeight="1">
       <c r="E567" s="7"/>
       <c r="F567" s="7"/>
       <c r="G567" s="7"/>
     </row>
-    <row r="568" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" ht="14.25" customHeight="1">
       <c r="E568" s="7"/>
       <c r="F568" s="7"/>
       <c r="G568" s="7"/>
     </row>
-    <row r="569" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" ht="14.25" customHeight="1">
       <c r="E569" s="7"/>
       <c r="F569" s="7"/>
       <c r="G569" s="7"/>
     </row>
-    <row r="570" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" ht="14.25" customHeight="1">
       <c r="E570" s="7"/>
       <c r="F570" s="7"/>
       <c r="G570" s="7"/>
     </row>
-    <row r="571" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" ht="14.25" customHeight="1">
       <c r="E571" s="7"/>
       <c r="F571" s="7"/>
       <c r="G571" s="7"/>
     </row>
-    <row r="572" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" ht="14.25" customHeight="1">
       <c r="E572" s="7"/>
       <c r="F572" s="7"/>
       <c r="G572" s="7"/>
     </row>
-    <row r="573" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" ht="14.25" customHeight="1">
       <c r="E573" s="7"/>
       <c r="F573" s="7"/>
       <c r="G573" s="7"/>
     </row>
-    <row r="574" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" ht="14.25" customHeight="1">
       <c r="E574" s="7"/>
       <c r="F574" s="7"/>
       <c r="G574" s="7"/>
     </row>
-    <row r="575" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" ht="14.25" customHeight="1">
       <c r="E575" s="7"/>
       <c r="F575" s="7"/>
       <c r="G575" s="7"/>
     </row>
-    <row r="576" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" ht="14.25" customHeight="1">
       <c r="E576" s="7"/>
       <c r="F576" s="7"/>
       <c r="G576" s="7"/>
     </row>
-    <row r="577" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" ht="14.25" customHeight="1">
       <c r="E577" s="7"/>
       <c r="F577" s="7"/>
       <c r="G577" s="7"/>
     </row>
-    <row r="578" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" ht="14.25" customHeight="1">
       <c r="E578" s="7"/>
       <c r="F578" s="7"/>
       <c r="G578" s="7"/>
     </row>
-    <row r="579" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" ht="14.25" customHeight="1">
       <c r="E579" s="7"/>
       <c r="F579" s="7"/>
       <c r="G579" s="7"/>
     </row>
-    <row r="580" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" ht="14.25" customHeight="1">
       <c r="E580" s="7"/>
       <c r="F580" s="7"/>
       <c r="G580" s="7"/>
     </row>
-    <row r="581" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" ht="14.25" customHeight="1">
       <c r="E581" s="7"/>
       <c r="F581" s="7"/>
       <c r="G581" s="7"/>
     </row>
-    <row r="582" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" ht="14.25" customHeight="1">
       <c r="E582" s="7"/>
       <c r="F582" s="7"/>
       <c r="G582" s="7"/>
     </row>
-    <row r="583" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" ht="14.25" customHeight="1">
       <c r="E583" s="7"/>
       <c r="F583" s="7"/>
       <c r="G583" s="7"/>
     </row>
-    <row r="584" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" ht="14.25" customHeight="1">
       <c r="E584" s="7"/>
       <c r="F584" s="7"/>
       <c r="G584" s="7"/>
     </row>
-    <row r="585" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" ht="14.25" customHeight="1">
       <c r="E585" s="7"/>
       <c r="F585" s="7"/>
       <c r="G585" s="7"/>
     </row>
-    <row r="586" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" ht="14.25" customHeight="1">
       <c r="E586" s="7"/>
       <c r="F586" s="7"/>
       <c r="G586" s="7"/>
     </row>
-    <row r="587" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" ht="14.25" customHeight="1">
       <c r="E587" s="7"/>
       <c r="F587" s="7"/>
       <c r="G587" s="7"/>
     </row>
-    <row r="588" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" ht="14.25" customHeight="1">
       <c r="E588" s="7"/>
       <c r="F588" s="7"/>
       <c r="G588" s="7"/>
     </row>
-    <row r="589" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" ht="14.25" customHeight="1">
       <c r="E589" s="7"/>
       <c r="F589" s="7"/>
       <c r="G589" s="7"/>
     </row>
-    <row r="590" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" ht="14.25" customHeight="1">
       <c r="E590" s="7"/>
       <c r="F590" s="7"/>
       <c r="G590" s="7"/>
     </row>
-    <row r="591" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" ht="14.25" customHeight="1">
       <c r="E591" s="7"/>
       <c r="F591" s="7"/>
       <c r="G591" s="7"/>
     </row>
-    <row r="592" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" ht="14.25" customHeight="1">
       <c r="E592" s="7"/>
       <c r="F592" s="7"/>
       <c r="G592" s="7"/>
     </row>
-    <row r="593" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" ht="14.25" customHeight="1">
       <c r="E593" s="7"/>
       <c r="F593" s="7"/>
       <c r="G593" s="7"/>
     </row>
-    <row r="594" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" ht="14.25" customHeight="1">
       <c r="E594" s="7"/>
       <c r="F594" s="7"/>
       <c r="G594" s="7"/>
     </row>
-    <row r="595" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" ht="14.25" customHeight="1">
       <c r="E595" s="7"/>
       <c r="F595" s="7"/>
       <c r="G595" s="7"/>
     </row>
-    <row r="596" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" ht="14.25" customHeight="1">
       <c r="E596" s="7"/>
       <c r="F596" s="7"/>
       <c r="G596" s="7"/>
     </row>
-    <row r="597" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" ht="14.25" customHeight="1">
       <c r="E597" s="7"/>
       <c r="F597" s="7"/>
       <c r="G597" s="7"/>
     </row>
-    <row r="598" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" ht="14.25" customHeight="1">
       <c r="E598" s="7"/>
       <c r="F598" s="7"/>
       <c r="G598" s="7"/>
     </row>
-    <row r="599" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" ht="14.25" customHeight="1">
       <c r="E599" s="7"/>
       <c r="F599" s="7"/>
       <c r="G599" s="7"/>
     </row>
-    <row r="600" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" ht="14.25" customHeight="1">
       <c r="E600" s="7"/>
       <c r="F600" s="7"/>
       <c r="G600" s="7"/>
     </row>
-    <row r="601" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" ht="14.25" customHeight="1">
       <c r="E601" s="7"/>
       <c r="F601" s="7"/>
       <c r="G601" s="7"/>
     </row>
-    <row r="602" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" ht="14.25" customHeight="1">
       <c r="E602" s="7"/>
       <c r="F602" s="7"/>
       <c r="G602" s="7"/>
     </row>
-    <row r="603" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" ht="14.25" customHeight="1">
       <c r="E603" s="7"/>
       <c r="F603" s="7"/>
       <c r="G603" s="7"/>
     </row>
-    <row r="604" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" ht="14.25" customHeight="1">
       <c r="E604" s="7"/>
       <c r="F604" s="7"/>
       <c r="G604" s="7"/>
     </row>
-    <row r="605" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" ht="14.25" customHeight="1">
       <c r="E605" s="7"/>
       <c r="F605" s="7"/>
       <c r="G605" s="7"/>
     </row>
-    <row r="606" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" ht="14.25" customHeight="1">
       <c r="E606" s="7"/>
       <c r="F606" s="7"/>
       <c r="G606" s="7"/>
     </row>
-    <row r="607" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" ht="14.25" customHeight="1">
       <c r="E607" s="7"/>
       <c r="F607" s="7"/>
       <c r="G607" s="7"/>
     </row>
-    <row r="608" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" ht="14.25" customHeight="1">
       <c r="E608" s="7"/>
       <c r="F608" s="7"/>
       <c r="G608" s="7"/>
     </row>
-    <row r="609" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" ht="14.25" customHeight="1">
       <c r="E609" s="7"/>
       <c r="F609" s="7"/>
       <c r="G609" s="7"/>
     </row>
-    <row r="610" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" ht="14.25" customHeight="1">
       <c r="E610" s="7"/>
       <c r="F610" s="7"/>
       <c r="G610" s="7"/>
     </row>
-    <row r="611" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" ht="14.25" customHeight="1">
       <c r="E611" s="7"/>
       <c r="F611" s="7"/>
       <c r="G611" s="7"/>
     </row>
-    <row r="612" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" ht="14.25" customHeight="1">
       <c r="E612" s="7"/>
       <c r="F612" s="7"/>
       <c r="G612" s="7"/>
     </row>
-    <row r="613" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" ht="14.25" customHeight="1">
       <c r="E613" s="7"/>
       <c r="F613" s="7"/>
       <c r="G613" s="7"/>
     </row>
-    <row r="614" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" ht="14.25" customHeight="1">
       <c r="E614" s="7"/>
       <c r="F614" s="7"/>
       <c r="G614" s="7"/>
     </row>
-    <row r="615" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" ht="14.25" customHeight="1">
       <c r="E615" s="7"/>
       <c r="F615" s="7"/>
       <c r="G615" s="7"/>
     </row>
-    <row r="616" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" ht="14.25" customHeight="1">
       <c r="E616" s="7"/>
       <c r="F616" s="7"/>
       <c r="G616" s="7"/>
     </row>
-    <row r="617" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" ht="14.25" customHeight="1">
       <c r="E617" s="7"/>
       <c r="F617" s="7"/>
       <c r="G617" s="7"/>
     </row>
-    <row r="618" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" ht="14.25" customHeight="1">
       <c r="E618" s="7"/>
       <c r="F618" s="7"/>
       <c r="G618" s="7"/>
     </row>
-    <row r="619" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" ht="14.25" customHeight="1">
       <c r="E619" s="7"/>
       <c r="F619" s="7"/>
       <c r="G619" s="7"/>
     </row>
-    <row r="620" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" ht="14.25" customHeight="1">
       <c r="E620" s="7"/>
       <c r="F620" s="7"/>
       <c r="G620" s="7"/>
     </row>
-    <row r="621" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" ht="14.25" customHeight="1">
       <c r="E621" s="7"/>
       <c r="F621" s="7"/>
       <c r="G621" s="7"/>
     </row>
-    <row r="622" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" ht="14.25" customHeight="1">
       <c r="E622" s="7"/>
       <c r="F622" s="7"/>
       <c r="G622" s="7"/>
     </row>
-    <row r="623" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" ht="14.25" customHeight="1">
       <c r="E623" s="7"/>
       <c r="F623" s="7"/>
       <c r="G623" s="7"/>
     </row>
-    <row r="624" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" ht="14.25" customHeight="1">
       <c r="E624" s="7"/>
       <c r="F624" s="7"/>
       <c r="G624" s="7"/>
     </row>
-    <row r="625" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" ht="14.25" customHeight="1">
       <c r="E625" s="7"/>
       <c r="F625" s="7"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" ht="14.25" customHeight="1">
       <c r="E626" s="7"/>
       <c r="F626" s="7"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" ht="14.25" customHeight="1">
       <c r="E627" s="7"/>
       <c r="F627" s="7"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" ht="14.25" customHeight="1">
       <c r="E628" s="7"/>
       <c r="F628" s="7"/>
       <c r="G628" s="7"/>
     </row>
-    <row r="629" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" ht="14.25" customHeight="1">
       <c r="E629" s="7"/>
       <c r="F629" s="7"/>
       <c r="G629" s="7"/>
     </row>
-    <row r="630" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" ht="14.25" customHeight="1">
       <c r="E630" s="7"/>
       <c r="F630" s="7"/>
       <c r="G630" s="7"/>
     </row>
-    <row r="631" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" ht="14.25" customHeight="1">
       <c r="E631" s="7"/>
       <c r="F631" s="7"/>
       <c r="G631" s="7"/>
     </row>
-    <row r="632" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" ht="14.25" customHeight="1">
       <c r="E632" s="7"/>
       <c r="F632" s="7"/>
       <c r="G632" s="7"/>
     </row>
-    <row r="633" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" ht="14.25" customHeight="1">
       <c r="E633" s="7"/>
       <c r="F633" s="7"/>
       <c r="G633" s="7"/>
     </row>
-    <row r="634" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" ht="14.25" customHeight="1">
       <c r="E634" s="7"/>
       <c r="F634" s="7"/>
       <c r="G634" s="7"/>
     </row>
-    <row r="635" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" ht="14.25" customHeight="1">
       <c r="E635" s="7"/>
       <c r="F635" s="7"/>
       <c r="G635" s="7"/>
     </row>
-    <row r="636" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" ht="14.25" customHeight="1">
       <c r="E636" s="7"/>
       <c r="F636" s="7"/>
       <c r="G636" s="7"/>
     </row>
-    <row r="637" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" ht="14.25" customHeight="1">
       <c r="E637" s="7"/>
       <c r="F637" s="7"/>
       <c r="G637" s="7"/>
     </row>
-    <row r="638" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" ht="14.25" customHeight="1">
       <c r="E638" s="7"/>
       <c r="F638" s="7"/>
       <c r="G638" s="7"/>
     </row>
-    <row r="639" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" ht="14.25" customHeight="1">
       <c r="E639" s="7"/>
       <c r="F639" s="7"/>
       <c r="G639" s="7"/>
     </row>
-    <row r="640" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" ht="14.25" customHeight="1">
       <c r="E640" s="7"/>
       <c r="F640" s="7"/>
       <c r="G640" s="7"/>
     </row>
-    <row r="641" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" ht="14.25" customHeight="1">
       <c r="E641" s="7"/>
       <c r="F641" s="7"/>
       <c r="G641" s="7"/>
     </row>
-    <row r="642" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" ht="14.25" customHeight="1">
       <c r="E642" s="7"/>
       <c r="F642" s="7"/>
       <c r="G642" s="7"/>
     </row>
-    <row r="643" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" ht="14.25" customHeight="1">
       <c r="E643" s="7"/>
       <c r="F643" s="7"/>
       <c r="G643" s="7"/>
     </row>
-    <row r="644" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" ht="14.25" customHeight="1">
       <c r="E644" s="7"/>
       <c r="F644" s="7"/>
       <c r="G644" s="7"/>
     </row>
-    <row r="645" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" ht="14.25" customHeight="1">
       <c r="E645" s="7"/>
       <c r="F645" s="7"/>
       <c r="G645" s="7"/>
     </row>
-    <row r="646" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" ht="14.25" customHeight="1">
       <c r="E646" s="7"/>
       <c r="F646" s="7"/>
       <c r="G646" s="7"/>
     </row>
-    <row r="647" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" ht="14.25" customHeight="1">
       <c r="E647" s="7"/>
       <c r="F647" s="7"/>
       <c r="G647" s="7"/>
     </row>
-    <row r="648" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" ht="14.25" customHeight="1">
       <c r="E648" s="7"/>
       <c r="F648" s="7"/>
       <c r="G648" s="7"/>
     </row>
-    <row r="649" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" ht="14.25" customHeight="1">
       <c r="E649" s="7"/>
       <c r="F649" s="7"/>
       <c r="G649" s="7"/>
     </row>
-    <row r="650" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" ht="14.25" customHeight="1">
       <c r="E650" s="7"/>
       <c r="F650" s="7"/>
       <c r="G650" s="7"/>
     </row>
-    <row r="651" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" ht="14.25" customHeight="1">
       <c r="E651" s="7"/>
       <c r="F651" s="7"/>
       <c r="G651" s="7"/>
     </row>
-    <row r="652" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" ht="14.25" customHeight="1">
       <c r="E652" s="7"/>
       <c r="F652" s="7"/>
       <c r="G652" s="7"/>
     </row>
-    <row r="653" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" ht="14.25" customHeight="1">
       <c r="E653" s="7"/>
       <c r="F653" s="7"/>
       <c r="G653" s="7"/>
     </row>
-    <row r="654" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" ht="14.25" customHeight="1">
       <c r="E654" s="7"/>
       <c r="F654" s="7"/>
       <c r="G654" s="7"/>
     </row>
-    <row r="655" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" ht="14.25" customHeight="1">
       <c r="E655" s="7"/>
       <c r="F655" s="7"/>
       <c r="G655" s="7"/>
     </row>
-    <row r="656" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" ht="14.25" customHeight="1">
       <c r="E656" s="7"/>
       <c r="F656" s="7"/>
       <c r="G656" s="7"/>
     </row>
-    <row r="657" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" ht="14.25" customHeight="1">
       <c r="E657" s="7"/>
       <c r="F657" s="7"/>
       <c r="G657" s="7"/>
     </row>
-    <row r="658" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" ht="14.25" customHeight="1">
       <c r="E658" s="7"/>
       <c r="F658" s="7"/>
       <c r="G658" s="7"/>
     </row>
-    <row r="659" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" ht="14.25" customHeight="1">
       <c r="E659" s="7"/>
       <c r="F659" s="7"/>
       <c r="G659" s="7"/>
     </row>
-    <row r="660" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" ht="14.25" customHeight="1">
       <c r="E660" s="7"/>
       <c r="F660" s="7"/>
       <c r="G660" s="7"/>
     </row>
-    <row r="661" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" ht="14.25" customHeight="1">
       <c r="E661" s="7"/>
       <c r="F661" s="7"/>
       <c r="G661" s="7"/>
     </row>
-    <row r="662" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" ht="14.25" customHeight="1">
       <c r="E662" s="7"/>
       <c r="F662" s="7"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" ht="14.25" customHeight="1">
       <c r="E663" s="7"/>
       <c r="F663" s="7"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" ht="14.25" customHeight="1">
       <c r="E664" s="7"/>
       <c r="F664" s="7"/>
       <c r="G664" s="7"/>
     </row>
-    <row r="665" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" ht="14.25" customHeight="1">
       <c r="E665" s="7"/>
       <c r="F665" s="7"/>
       <c r="G665" s="7"/>
     </row>
-    <row r="666" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" ht="14.25" customHeight="1">
       <c r="E666" s="7"/>
       <c r="F666" s="7"/>
       <c r="G666" s="7"/>
     </row>
-    <row r="667" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" ht="14.25" customHeight="1">
       <c r="E667" s="7"/>
       <c r="F667" s="7"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" ht="14.25" customHeight="1">
       <c r="E668" s="7"/>
       <c r="F668" s="7"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" ht="14.25" customHeight="1">
       <c r="E669" s="7"/>
       <c r="F669" s="7"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" ht="14.25" customHeight="1">
       <c r="E670" s="7"/>
       <c r="F670" s="7"/>
       <c r="G670" s="7"/>
     </row>
-    <row r="671" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" ht="14.25" customHeight="1">
       <c r="E671" s="7"/>
       <c r="F671" s="7"/>
       <c r="G671" s="7"/>
     </row>
-    <row r="672" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" ht="14.25" customHeight="1">
       <c r="E672" s="7"/>
       <c r="F672" s="7"/>
       <c r="G672" s="7"/>
     </row>
-    <row r="673" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" ht="14.25" customHeight="1">
       <c r="E673" s="7"/>
       <c r="F673" s="7"/>
       <c r="G673" s="7"/>
     </row>
-    <row r="674" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" ht="14.25" customHeight="1">
       <c r="E674" s="7"/>
       <c r="F674" s="7"/>
       <c r="G674" s="7"/>
     </row>
-    <row r="675" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" ht="14.25" customHeight="1">
       <c r="E675" s="7"/>
       <c r="F675" s="7"/>
       <c r="G675" s="7"/>
     </row>
-    <row r="676" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" ht="14.25" customHeight="1">
       <c r="E676" s="7"/>
       <c r="F676" s="7"/>
       <c r="G676" s="7"/>
     </row>
-    <row r="677" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" ht="14.25" customHeight="1">
       <c r="E677" s="7"/>
       <c r="F677" s="7"/>
       <c r="G677" s="7"/>
     </row>
-    <row r="678" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" ht="14.25" customHeight="1">
       <c r="E678" s="7"/>
       <c r="F678" s="7"/>
       <c r="G678" s="7"/>
     </row>
-    <row r="679" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" ht="14.25" customHeight="1">
       <c r="E679" s="7"/>
       <c r="F679" s="7"/>
       <c r="G679" s="7"/>
     </row>
-    <row r="680" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" ht="14.25" customHeight="1">
       <c r="E680" s="7"/>
       <c r="F680" s="7"/>
       <c r="G680" s="7"/>
     </row>
-    <row r="681" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" ht="14.25" customHeight="1">
       <c r="E681" s="7"/>
       <c r="F681" s="7"/>
       <c r="G681" s="7"/>
     </row>
-    <row r="682" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" ht="14.25" customHeight="1">
       <c r="E682" s="7"/>
       <c r="F682" s="7"/>
       <c r="G682" s="7"/>
     </row>
-    <row r="683" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" ht="14.25" customHeight="1">
       <c r="E683" s="7"/>
       <c r="F683" s="7"/>
       <c r="G683" s="7"/>
     </row>
-    <row r="684" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" ht="14.25" customHeight="1">
       <c r="E684" s="7"/>
       <c r="F684" s="7"/>
       <c r="G684" s="7"/>
     </row>
-    <row r="685" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" ht="14.25" customHeight="1">
       <c r="E685" s="7"/>
       <c r="F685" s="7"/>
       <c r="G685" s="7"/>
     </row>
-    <row r="686" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" ht="14.25" customHeight="1">
       <c r="E686" s="7"/>
       <c r="F686" s="7"/>
       <c r="G686" s="7"/>
     </row>
-    <row r="687" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" ht="14.25" customHeight="1">
       <c r="E687" s="7"/>
       <c r="F687" s="7"/>
       <c r="G687" s="7"/>
     </row>
-    <row r="688" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" ht="14.25" customHeight="1">
       <c r="E688" s="7"/>
       <c r="F688" s="7"/>
       <c r="G688" s="7"/>
     </row>
-    <row r="689" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" ht="14.25" customHeight="1">
       <c r="E689" s="7"/>
       <c r="F689" s="7"/>
       <c r="G689" s="7"/>
     </row>
-    <row r="690" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" ht="14.25" customHeight="1">
       <c r="E690" s="7"/>
       <c r="F690" s="7"/>
       <c r="G690" s="7"/>
     </row>
-    <row r="691" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" ht="14.25" customHeight="1">
       <c r="E691" s="7"/>
       <c r="F691" s="7"/>
       <c r="G691" s="7"/>
     </row>
-    <row r="692" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" ht="14.25" customHeight="1">
       <c r="E692" s="7"/>
       <c r="F692" s="7"/>
       <c r="G692" s="7"/>
     </row>
-    <row r="693" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" ht="14.25" customHeight="1">
       <c r="E693" s="7"/>
       <c r="F693" s="7"/>
       <c r="G693" s="7"/>
     </row>
-    <row r="694" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" ht="14.25" customHeight="1">
       <c r="E694" s="7"/>
       <c r="F694" s="7"/>
       <c r="G694" s="7"/>
     </row>
-    <row r="695" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" ht="14.25" customHeight="1">
       <c r="E695" s="7"/>
       <c r="F695" s="7"/>
       <c r="G695" s="7"/>
     </row>
-    <row r="696" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" ht="14.25" customHeight="1">
       <c r="E696" s="7"/>
       <c r="F696" s="7"/>
       <c r="G696" s="7"/>
     </row>
-    <row r="697" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" ht="14.25" customHeight="1">
       <c r="E697" s="7"/>
       <c r="F697" s="7"/>
       <c r="G697" s="7"/>
     </row>
-    <row r="698" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" ht="14.25" customHeight="1">
       <c r="E698" s="7"/>
       <c r="F698" s="7"/>
       <c r="G698" s="7"/>
     </row>
-    <row r="699" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" ht="14.25" customHeight="1">
       <c r="E699" s="7"/>
       <c r="F699" s="7"/>
       <c r="G699" s="7"/>
     </row>
-    <row r="700" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" ht="14.25" customHeight="1">
       <c r="E700" s="7"/>
       <c r="F700" s="7"/>
       <c r="G700" s="7"/>
     </row>
-    <row r="701" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" ht="14.25" customHeight="1">
       <c r="E701" s="7"/>
       <c r="F701" s="7"/>
       <c r="G701" s="7"/>
     </row>
-    <row r="702" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" ht="14.25" customHeight="1">
       <c r="E702" s="7"/>
       <c r="F702" s="7"/>
       <c r="G702" s="7"/>
     </row>
-    <row r="703" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" ht="14.25" customHeight="1">
       <c r="E703" s="7"/>
       <c r="F703" s="7"/>
       <c r="G703" s="7"/>
     </row>
-    <row r="704" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" ht="14.25" customHeight="1">
       <c r="E704" s="7"/>
       <c r="F704" s="7"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" ht="14.25" customHeight="1">
       <c r="E705" s="7"/>
       <c r="F705" s="7"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" ht="14.25" customHeight="1">
       <c r="E706" s="7"/>
       <c r="F706" s="7"/>
       <c r="G706" s="7"/>
     </row>
-    <row r="707" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" ht="14.25" customHeight="1">
       <c r="E707" s="7"/>
       <c r="F707" s="7"/>
       <c r="G707" s="7"/>
     </row>
-    <row r="708" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" ht="14.25" customHeight="1">
       <c r="E708" s="7"/>
       <c r="F708" s="7"/>
       <c r="G708" s="7"/>
     </row>
-    <row r="709" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" ht="14.25" customHeight="1">
       <c r="E709" s="7"/>
       <c r="F709" s="7"/>
       <c r="G709" s="7"/>
     </row>
-    <row r="710" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" ht="14.25" customHeight="1">
       <c r="E710" s="7"/>
       <c r="F710" s="7"/>
       <c r="G710" s="7"/>
     </row>
-    <row r="711" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" ht="14.25" customHeight="1">
       <c r="E711" s="7"/>
       <c r="F711" s="7"/>
       <c r="G711" s="7"/>
     </row>
-    <row r="712" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" ht="14.25" customHeight="1">
       <c r="E712" s="7"/>
       <c r="F712" s="7"/>
       <c r="G712" s="7"/>
     </row>
-    <row r="713" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" ht="14.25" customHeight="1">
       <c r="E713" s="7"/>
       <c r="F713" s="7"/>
       <c r="G713" s="7"/>
     </row>
-    <row r="714" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" ht="14.25" customHeight="1">
       <c r="E714" s="7"/>
       <c r="F714" s="7"/>
       <c r="G714" s="7"/>
     </row>
-    <row r="715" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" ht="14.25" customHeight="1">
       <c r="E715" s="7"/>
       <c r="F715" s="7"/>
       <c r="G715" s="7"/>
     </row>
-    <row r="716" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" ht="14.25" customHeight="1">
       <c r="E716" s="7"/>
       <c r="F716" s="7"/>
       <c r="G716" s="7"/>
     </row>
-    <row r="717" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" ht="14.25" customHeight="1">
       <c r="E717" s="7"/>
       <c r="F717" s="7"/>
       <c r="G717" s="7"/>
     </row>
-    <row r="718" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" ht="14.25" customHeight="1">
       <c r="E718" s="7"/>
       <c r="F718" s="7"/>
       <c r="G718" s="7"/>
     </row>
-    <row r="719" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" ht="14.25" customHeight="1">
       <c r="E719" s="7"/>
       <c r="F719" s="7"/>
       <c r="G719" s="7"/>
     </row>
-    <row r="720" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" ht="14.25" customHeight="1">
       <c r="E720" s="7"/>
       <c r="F720" s="7"/>
       <c r="G720" s="7"/>
     </row>
-    <row r="721" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" ht="14.25" customHeight="1">
       <c r="E721" s="7"/>
       <c r="F721" s="7"/>
       <c r="G721" s="7"/>
     </row>
-    <row r="722" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" ht="14.25" customHeight="1">
       <c r="E722" s="7"/>
       <c r="F722" s="7"/>
       <c r="G722" s="7"/>
     </row>
-    <row r="723" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" ht="14.25" customHeight="1">
       <c r="E723" s="7"/>
       <c r="F723" s="7"/>
       <c r="G723" s="7"/>
     </row>
-    <row r="724" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" ht="14.25" customHeight="1">
       <c r="E724" s="7"/>
       <c r="F724" s="7"/>
       <c r="G724" s="7"/>
     </row>
-    <row r="725" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" ht="14.25" customHeight="1">
       <c r="E725" s="7"/>
       <c r="F725" s="7"/>
       <c r="G725" s="7"/>
     </row>
-    <row r="726" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" ht="14.25" customHeight="1">
       <c r="E726" s="7"/>
       <c r="F726" s="7"/>
       <c r="G726" s="7"/>
     </row>
-    <row r="727" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" ht="14.25" customHeight="1">
       <c r="E727" s="7"/>
       <c r="F727" s="7"/>
       <c r="G727" s="7"/>
     </row>
-    <row r="728" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" ht="14.25" customHeight="1">
       <c r="E728" s="7"/>
       <c r="F728" s="7"/>
       <c r="G728" s="7"/>
     </row>
-    <row r="729" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" ht="14.25" customHeight="1">
       <c r="E729" s="7"/>
       <c r="F729" s="7"/>
       <c r="G729" s="7"/>
     </row>
-    <row r="730" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" ht="14.25" customHeight="1">
       <c r="E730" s="7"/>
       <c r="F730" s="7"/>
       <c r="G730" s="7"/>
     </row>
-    <row r="731" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" ht="14.25" customHeight="1">
       <c r="E731" s="7"/>
       <c r="F731" s="7"/>
       <c r="G731" s="7"/>
     </row>
-    <row r="732" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" ht="14.25" customHeight="1">
       <c r="E732" s="7"/>
       <c r="F732" s="7"/>
       <c r="G732" s="7"/>
     </row>
-    <row r="733" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" ht="14.25" customHeight="1">
       <c r="E733" s="7"/>
       <c r="F733" s="7"/>
       <c r="G733" s="7"/>
     </row>
-    <row r="734" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" ht="14.25" customHeight="1">
       <c r="E734" s="7"/>
       <c r="F734" s="7"/>
       <c r="G734" s="7"/>
     </row>
-    <row r="735" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" ht="14.25" customHeight="1">
       <c r="E735" s="7"/>
       <c r="F735" s="7"/>
       <c r="G735" s="7"/>
     </row>
-    <row r="736" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" ht="14.25" customHeight="1">
       <c r="E736" s="7"/>
       <c r="F736" s="7"/>
       <c r="G736" s="7"/>
     </row>
-    <row r="737" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" ht="14.25" customHeight="1">
       <c r="E737" s="7"/>
       <c r="F737" s="7"/>
       <c r="G737" s="7"/>
     </row>
-    <row r="738" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" ht="14.25" customHeight="1">
       <c r="E738" s="7"/>
       <c r="F738" s="7"/>
       <c r="G738" s="7"/>
     </row>
-    <row r="739" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" ht="14.25" customHeight="1">
       <c r="E739" s="7"/>
       <c r="F739" s="7"/>
       <c r="G739" s="7"/>
     </row>
-    <row r="740" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" ht="14.25" customHeight="1">
       <c r="E740" s="7"/>
       <c r="F740" s="7"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" ht="14.25" customHeight="1">
       <c r="E741" s="7"/>
       <c r="F741" s="7"/>
       <c r="G741" s="7"/>
     </row>
-    <row r="742" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" ht="14.25" customHeight="1">
       <c r="E742" s="7"/>
       <c r="F742" s="7"/>
       <c r="G742" s="7"/>
     </row>
-    <row r="743" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" ht="14.25" customHeight="1">
       <c r="E743" s="7"/>
       <c r="F743" s="7"/>
       <c r="G743" s="7"/>
     </row>
-    <row r="744" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" ht="14.25" customHeight="1">
       <c r="E744" s="7"/>
       <c r="F744" s="7"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" ht="14.25" customHeight="1">
       <c r="E745" s="7"/>
       <c r="F745" s="7"/>
       <c r="G745" s="7"/>
     </row>
-    <row r="746" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" ht="14.25" customHeight="1">
       <c r="E746" s="7"/>
       <c r="F746" s="7"/>
       <c r="G746" s="7"/>
     </row>
-    <row r="747" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" ht="14.25" customHeight="1">
       <c r="E747" s="7"/>
       <c r="F747" s="7"/>
       <c r="G747" s="7"/>
     </row>
-    <row r="748" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" ht="14.25" customHeight="1">
       <c r="E748" s="7"/>
       <c r="F748" s="7"/>
       <c r="G748" s="7"/>
     </row>
-    <row r="749" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" ht="14.25" customHeight="1">
       <c r="E749" s="7"/>
       <c r="F749" s="7"/>
       <c r="G749" s="7"/>
     </row>
-    <row r="750" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" ht="14.25" customHeight="1">
       <c r="E750" s="7"/>
       <c r="F750" s="7"/>
       <c r="G750" s="7"/>
     </row>
-    <row r="751" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" ht="14.25" customHeight="1">
       <c r="E751" s="7"/>
       <c r="F751" s="7"/>
       <c r="G751" s="7"/>
     </row>
-    <row r="752" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" ht="14.25" customHeight="1">
       <c r="E752" s="7"/>
       <c r="F752" s="7"/>
       <c r="G752" s="7"/>
     </row>
-    <row r="753" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" ht="14.25" customHeight="1">
       <c r="E753" s="7"/>
       <c r="F753" s="7"/>
       <c r="G753" s="7"/>
     </row>
-    <row r="754" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" ht="14.25" customHeight="1">
       <c r="E754" s="7"/>
       <c r="F754" s="7"/>
       <c r="G754" s="7"/>
     </row>
-    <row r="755" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" ht="14.25" customHeight="1">
       <c r="E755" s="7"/>
       <c r="F755" s="7"/>
       <c r="G755" s="7"/>
     </row>
-    <row r="756" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" ht="14.25" customHeight="1">
       <c r="E756" s="7"/>
       <c r="F756" s="7"/>
       <c r="G756" s="7"/>
     </row>
-    <row r="757" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" ht="14.25" customHeight="1">
       <c r="E757" s="7"/>
       <c r="F757" s="7"/>
       <c r="G757" s="7"/>
     </row>
-    <row r="758" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" ht="14.25" customHeight="1">
       <c r="E758" s="7"/>
       <c r="F758" s="7"/>
       <c r="G758" s="7"/>
     </row>
-    <row r="759" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" ht="14.25" customHeight="1">
       <c r="E759" s="7"/>
       <c r="F759" s="7"/>
       <c r="G759" s="7"/>
     </row>
-    <row r="760" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" ht="14.25" customHeight="1">
       <c r="E760" s="7"/>
       <c r="F760" s="7"/>
       <c r="G760" s="7"/>
     </row>
-    <row r="761" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" ht="14.25" customHeight="1">
       <c r="E761" s="7"/>
       <c r="F761" s="7"/>
       <c r="G761" s="7"/>
     </row>
-    <row r="762" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" ht="14.25" customHeight="1">
       <c r="E762" s="7"/>
       <c r="F762" s="7"/>
       <c r="G762" s="7"/>
     </row>
-    <row r="763" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" ht="14.25" customHeight="1">
       <c r="E763" s="7"/>
       <c r="F763" s="7"/>
       <c r="G763" s="7"/>
     </row>
-    <row r="764" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" ht="14.25" customHeight="1">
       <c r="E764" s="7"/>
       <c r="F764" s="7"/>
       <c r="G764" s="7"/>
     </row>
-    <row r="765" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" ht="14.25" customHeight="1">
       <c r="E765" s="7"/>
       <c r="F765" s="7"/>
       <c r="G765" s="7"/>
     </row>
-    <row r="766" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" ht="14.25" customHeight="1">
       <c r="E766" s="7"/>
       <c r="F766" s="7"/>
       <c r="G766" s="7"/>
     </row>
-    <row r="767" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" ht="14.25" customHeight="1">
       <c r="E767" s="7"/>
       <c r="F767" s="7"/>
       <c r="G767" s="7"/>
     </row>
-    <row r="768" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" ht="14.25" customHeight="1">
       <c r="E768" s="7"/>
       <c r="F768" s="7"/>
       <c r="G768" s="7"/>
     </row>
-    <row r="769" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" ht="14.25" customHeight="1">
       <c r="E769" s="7"/>
       <c r="F769" s="7"/>
       <c r="G769" s="7"/>
     </row>
-    <row r="770" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" ht="14.25" customHeight="1">
       <c r="E770" s="7"/>
       <c r="F770" s="7"/>
       <c r="G770" s="7"/>
     </row>
-    <row r="771" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" ht="14.25" customHeight="1">
       <c r="E771" s="7"/>
       <c r="F771" s="7"/>
       <c r="G771" s="7"/>
     </row>
-    <row r="772" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" ht="14.25" customHeight="1">
       <c r="E772" s="7"/>
       <c r="F772" s="7"/>
       <c r="G772" s="7"/>
     </row>
-    <row r="773" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" ht="14.25" customHeight="1">
       <c r="E773" s="7"/>
       <c r="F773" s="7"/>
       <c r="G773" s="7"/>
     </row>
-    <row r="774" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" ht="14.25" customHeight="1">
       <c r="E774" s="7"/>
       <c r="F774" s="7"/>
       <c r="G774" s="7"/>
     </row>
-    <row r="775" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" ht="14.25" customHeight="1">
       <c r="E775" s="7"/>
       <c r="F775" s="7"/>
       <c r="G775" s="7"/>
     </row>
-    <row r="776" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" ht="14.25" customHeight="1">
       <c r="E776" s="7"/>
       <c r="F776" s="7"/>
       <c r="G776" s="7"/>
     </row>
-    <row r="777" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" ht="14.25" customHeight="1">
       <c r="E777" s="7"/>
       <c r="F777" s="7"/>
       <c r="G777" s="7"/>
     </row>
-    <row r="778" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" ht="14.25" customHeight="1">
       <c r="E778" s="7"/>
       <c r="F778" s="7"/>
       <c r="G778" s="7"/>
     </row>
-    <row r="779" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" ht="14.25" customHeight="1">
       <c r="E779" s="7"/>
       <c r="F779" s="7"/>
       <c r="G779" s="7"/>
     </row>
-    <row r="780" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" ht="14.25" customHeight="1">
       <c r="E780" s="7"/>
       <c r="F780" s="7"/>
       <c r="G780" s="7"/>
     </row>
-    <row r="781" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" ht="14.25" customHeight="1">
       <c r="E781" s="7"/>
       <c r="F781" s="7"/>
       <c r="G781" s="7"/>
     </row>
-    <row r="782" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" ht="14.25" customHeight="1">
       <c r="E782" s="7"/>
       <c r="F782" s="7"/>
       <c r="G782" s="7"/>
     </row>
-    <row r="783" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" ht="14.25" customHeight="1">
       <c r="E783" s="7"/>
       <c r="F783" s="7"/>
       <c r="G783" s="7"/>
     </row>
-    <row r="784" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" ht="14.25" customHeight="1">
       <c r="E784" s="7"/>
       <c r="F784" s="7"/>
       <c r="G784" s="7"/>
     </row>
-    <row r="785" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" ht="14.25" customHeight="1">
       <c r="E785" s="7"/>
       <c r="F785" s="7"/>
       <c r="G785" s="7"/>
     </row>
-    <row r="786" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" ht="14.25" customHeight="1">
       <c r="E786" s="7"/>
       <c r="F786" s="7"/>
       <c r="G786" s="7"/>
     </row>
-    <row r="787" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" ht="14.25" customHeight="1">
       <c r="E787" s="7"/>
       <c r="F787" s="7"/>
       <c r="G787" s="7"/>
     </row>
-    <row r="788" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" ht="14.25" customHeight="1">
       <c r="E788" s="7"/>
       <c r="F788" s="7"/>
       <c r="G788" s="7"/>
     </row>
-    <row r="789" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" ht="14.25" customHeight="1">
       <c r="E789" s="7"/>
       <c r="F789" s="7"/>
       <c r="G789" s="7"/>
     </row>
-    <row r="790" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" ht="14.25" customHeight="1">
       <c r="E790" s="7"/>
       <c r="F790" s="7"/>
       <c r="G790" s="7"/>
     </row>
-    <row r="791" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" ht="14.25" customHeight="1">
       <c r="E791" s="7"/>
       <c r="F791" s="7"/>
       <c r="G791" s="7"/>
     </row>
-    <row r="792" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" ht="14.25" customHeight="1">
       <c r="E792" s="7"/>
       <c r="F792" s="7"/>
       <c r="G792" s="7"/>
     </row>
-    <row r="793" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" ht="14.25" customHeight="1">
       <c r="E793" s="7"/>
       <c r="F793" s="7"/>
       <c r="G793" s="7"/>
     </row>
-    <row r="794" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" ht="14.25" customHeight="1">
       <c r="E794" s="7"/>
       <c r="F794" s="7"/>
       <c r="G794" s="7"/>
     </row>
-    <row r="795" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" ht="14.25" customHeight="1">
       <c r="E795" s="7"/>
       <c r="F795" s="7"/>
       <c r="G795" s="7"/>
     </row>
-    <row r="796" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" ht="14.25" customHeight="1">
       <c r="E796" s="7"/>
       <c r="F796" s="7"/>
       <c r="G796" s="7"/>
     </row>
-    <row r="797" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" ht="14.25" customHeight="1">
       <c r="E797" s="7"/>
       <c r="F797" s="7"/>
       <c r="G797" s="7"/>
     </row>
-    <row r="798" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" ht="14.25" customHeight="1">
       <c r="E798" s="7"/>
       <c r="F798" s="7"/>
       <c r="G798" s="7"/>
     </row>
-    <row r="799" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" ht="14.25" customHeight="1">
       <c r="E799" s="7"/>
       <c r="F799" s="7"/>
       <c r="G799" s="7"/>
     </row>
-    <row r="800" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" ht="14.25" customHeight="1">
       <c r="E800" s="7"/>
       <c r="F800" s="7"/>
       <c r="G800" s="7"/>
     </row>
-    <row r="801" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" ht="14.25" customHeight="1">
       <c r="E801" s="7"/>
       <c r="F801" s="7"/>
       <c r="G801" s="7"/>
     </row>
-    <row r="802" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" ht="14.25" customHeight="1">
       <c r="E802" s="7"/>
       <c r="F802" s="7"/>
       <c r="G802" s="7"/>
     </row>
-    <row r="803" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" ht="14.25" customHeight="1">
       <c r="E803" s="7"/>
       <c r="F803" s="7"/>
       <c r="G803" s="7"/>
     </row>
-    <row r="804" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" ht="14.25" customHeight="1">
       <c r="E804" s="7"/>
       <c r="F804" s="7"/>
       <c r="G804" s="7"/>
     </row>
-    <row r="805" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" ht="14.25" customHeight="1">
       <c r="E805" s="7"/>
       <c r="F805" s="7"/>
       <c r="G805" s="7"/>
     </row>
-    <row r="806" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" ht="14.25" customHeight="1">
       <c r="E806" s="7"/>
       <c r="F806" s="7"/>
       <c r="G806" s="7"/>
     </row>
-    <row r="807" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" ht="14.25" customHeight="1">
       <c r="E807" s="7"/>
       <c r="F807" s="7"/>
       <c r="G807" s="7"/>
     </row>
-    <row r="808" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" ht="14.25" customHeight="1">
       <c r="E808" s="7"/>
       <c r="F808" s="7"/>
       <c r="G808" s="7"/>
     </row>
-    <row r="809" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" ht="14.25" customHeight="1">
       <c r="E809" s="7"/>
       <c r="F809" s="7"/>
       <c r="G809" s="7"/>
     </row>
-    <row r="810" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" ht="14.25" customHeight="1">
       <c r="E810" s="7"/>
       <c r="F810" s="7"/>
       <c r="G810" s="7"/>
     </row>
-    <row r="811" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" ht="14.25" customHeight="1">
       <c r="E811" s="7"/>
       <c r="F811" s="7"/>
       <c r="G811" s="7"/>
     </row>
-    <row r="812" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" ht="14.25" customHeight="1">
       <c r="E812" s="7"/>
       <c r="F812" s="7"/>
       <c r="G812" s="7"/>
     </row>
-    <row r="813" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" ht="14.25" customHeight="1">
       <c r="E813" s="7"/>
       <c r="F813" s="7"/>
       <c r="G813" s="7"/>
     </row>
-    <row r="814" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" ht="14.25" customHeight="1">
       <c r="E814" s="7"/>
       <c r="F814" s="7"/>
       <c r="G814" s="7"/>
     </row>
-    <row r="815" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" ht="14.25" customHeight="1">
       <c r="E815" s="7"/>
       <c r="F815" s="7"/>
       <c r="G815" s="7"/>
     </row>
-    <row r="816" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" ht="14.25" customHeight="1">
       <c r="E816" s="7"/>
       <c r="F816" s="7"/>
       <c r="G816" s="7"/>
     </row>
-    <row r="817" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" ht="14.25" customHeight="1">
       <c r="E817" s="7"/>
       <c r="F817" s="7"/>
       <c r="G817" s="7"/>
     </row>
-    <row r="818" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" ht="14.25" customHeight="1">
       <c r="E818" s="7"/>
       <c r="F818" s="7"/>
       <c r="G818" s="7"/>
     </row>
-    <row r="819" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" ht="14.25" customHeight="1">
       <c r="E819" s="7"/>
       <c r="F819" s="7"/>
       <c r="G819" s="7"/>
     </row>
-    <row r="820" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" ht="14.25" customHeight="1">
       <c r="E820" s="7"/>
       <c r="F820" s="7"/>
       <c r="G820" s="7"/>
     </row>
-    <row r="821" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" ht="14.25" customHeight="1">
       <c r="E821" s="7"/>
       <c r="F821" s="7"/>
       <c r="G821" s="7"/>
     </row>
-    <row r="822" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" ht="14.25" customHeight="1">
       <c r="E822" s="7"/>
       <c r="F822" s="7"/>
       <c r="G822" s="7"/>
     </row>
-    <row r="823" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" ht="14.25" customHeight="1">
       <c r="E823" s="7"/>
       <c r="F823" s="7"/>
       <c r="G823" s="7"/>
     </row>
-    <row r="824" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" ht="14.25" customHeight="1">
       <c r="E824" s="7"/>
       <c r="F824" s="7"/>
       <c r="G824" s="7"/>
     </row>
-    <row r="825" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" ht="14.25" customHeight="1">
       <c r="E825" s="7"/>
       <c r="F825" s="7"/>
       <c r="G825" s="7"/>
     </row>
-    <row r="826" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" ht="14.25" customHeight="1">
       <c r="E826" s="7"/>
       <c r="F826" s="7"/>
       <c r="G826" s="7"/>
     </row>
-    <row r="827" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" ht="14.25" customHeight="1">
       <c r="E827" s="7"/>
       <c r="F827" s="7"/>
       <c r="G827" s="7"/>
     </row>
-    <row r="828" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" ht="14.25" customHeight="1">
       <c r="E828" s="7"/>
       <c r="F828" s="7"/>
       <c r="G828" s="7"/>
     </row>
-    <row r="829" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" ht="14.25" customHeight="1">
       <c r="E829" s="7"/>
       <c r="F829" s="7"/>
       <c r="G829" s="7"/>
     </row>
-    <row r="830" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" ht="14.25" customHeight="1">
       <c r="E830" s="7"/>
       <c r="F830" s="7"/>
       <c r="G830" s="7"/>
     </row>
-    <row r="831" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" ht="14.25" customHeight="1">
       <c r="E831" s="7"/>
       <c r="F831" s="7"/>
       <c r="G831" s="7"/>
     </row>
-    <row r="832" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" ht="14.25" customHeight="1">
       <c r="E832" s="7"/>
       <c r="F832" s="7"/>
       <c r="G832" s="7"/>
     </row>
-    <row r="833" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" ht="14.25" customHeight="1">
       <c r="E833" s="7"/>
       <c r="F833" s="7"/>
       <c r="G833" s="7"/>
     </row>
-    <row r="834" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" ht="14.25" customHeight="1">
       <c r="E834" s="7"/>
       <c r="F834" s="7"/>
       <c r="G834" s="7"/>
     </row>
-    <row r="835" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" ht="14.25" customHeight="1">
       <c r="E835" s="7"/>
       <c r="F835" s="7"/>
       <c r="G835" s="7"/>
     </row>
-    <row r="836" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" ht="14.25" customHeight="1">
       <c r="E836" s="7"/>
       <c r="F836" s="7"/>
       <c r="G836" s="7"/>
     </row>
-    <row r="837" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" ht="14.25" customHeight="1">
       <c r="E837" s="7"/>
       <c r="F837" s="7"/>
       <c r="G837" s="7"/>
     </row>
-    <row r="838" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" ht="14.25" customHeight="1">
       <c r="E838" s="7"/>
       <c r="F838" s="7"/>
       <c r="G838" s="7"/>
     </row>
-    <row r="839" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" ht="14.25" customHeight="1">
       <c r="E839" s="7"/>
       <c r="F839" s="7"/>
       <c r="G839" s="7"/>
     </row>
-    <row r="840" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" ht="14.25" customHeight="1">
       <c r="E840" s="7"/>
       <c r="F840" s="7"/>
       <c r="G840" s="7"/>
     </row>
-    <row r="841" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" ht="14.25" customHeight="1">
       <c r="E841" s="7"/>
       <c r="F841" s="7"/>
       <c r="G841" s="7"/>
     </row>
-    <row r="842" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" ht="14.25" customHeight="1">
       <c r="E842" s="7"/>
       <c r="F842" s="7"/>
       <c r="G842" s="7"/>
     </row>
-    <row r="843" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" ht="14.25" customHeight="1">
       <c r="E843" s="7"/>
       <c r="F843" s="7"/>
       <c r="G843" s="7"/>
     </row>
-    <row r="844" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" ht="14.25" customHeight="1">
       <c r="E844" s="7"/>
       <c r="F844" s="7"/>
       <c r="G844" s="7"/>
     </row>
-    <row r="845" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" ht="14.25" customHeight="1">
       <c r="E845" s="7"/>
       <c r="F845" s="7"/>
       <c r="G845" s="7"/>
     </row>
-    <row r="846" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" ht="14.25" customHeight="1">
       <c r="E846" s="7"/>
       <c r="F846" s="7"/>
       <c r="G846" s="7"/>
     </row>
-    <row r="847" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" ht="14.25" customHeight="1">
       <c r="E847" s="7"/>
       <c r="F847" s="7"/>
       <c r="G847" s="7"/>
     </row>
-    <row r="848" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" ht="14.25" customHeight="1">
       <c r="E848" s="7"/>
       <c r="F848" s="7"/>
       <c r="G848" s="7"/>
     </row>
-    <row r="849" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" ht="14.25" customHeight="1">
       <c r="E849" s="7"/>
       <c r="F849" s="7"/>
       <c r="G849" s="7"/>
     </row>
-    <row r="850" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" ht="14.25" customHeight="1">
       <c r="E850" s="7"/>
       <c r="F850" s="7"/>
       <c r="G850" s="7"/>
     </row>
-    <row r="851" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" ht="14.25" customHeight="1">
       <c r="E851" s="7"/>
       <c r="F851" s="7"/>
       <c r="G851" s="7"/>
     </row>
-    <row r="852" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" ht="14.25" customHeight="1">
       <c r="E852" s="7"/>
       <c r="F852" s="7"/>
       <c r="G852" s="7"/>
     </row>
-    <row r="853" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" ht="14.25" customHeight="1">
       <c r="E853" s="7"/>
       <c r="F853" s="7"/>
       <c r="G853" s="7"/>
     </row>
-    <row r="854" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" ht="14.25" customHeight="1">
       <c r="E854" s="7"/>
       <c r="F854" s="7"/>
       <c r="G854" s="7"/>
     </row>
-    <row r="855" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" ht="14.25" customHeight="1">
       <c r="E855" s="7"/>
       <c r="F855" s="7"/>
       <c r="G855" s="7"/>
     </row>
-    <row r="856" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" ht="14.25" customHeight="1">
       <c r="E856" s="7"/>
       <c r="F856" s="7"/>
       <c r="G856" s="7"/>
     </row>
-    <row r="857" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" ht="14.25" customHeight="1">
       <c r="E857" s="7"/>
       <c r="F857" s="7"/>
       <c r="G857" s="7"/>
     </row>
-    <row r="858" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" ht="14.25" customHeight="1">
       <c r="E858" s="7"/>
       <c r="F858" s="7"/>
       <c r="G858" s="7"/>
     </row>
-    <row r="859" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" ht="14.25" customHeight="1">
       <c r="E859" s="7"/>
       <c r="F859" s="7"/>
       <c r="G859" s="7"/>
     </row>
-    <row r="860" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" ht="14.25" customHeight="1">
       <c r="E860" s="7"/>
       <c r="F860" s="7"/>
       <c r="G860" s="7"/>
     </row>
-    <row r="861" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" ht="14.25" customHeight="1">
       <c r="E861" s="7"/>
       <c r="F861" s="7"/>
       <c r="G861" s="7"/>
     </row>
-    <row r="862" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" ht="14.25" customHeight="1">
       <c r="E862" s="7"/>
       <c r="F862" s="7"/>
       <c r="G862" s="7"/>
     </row>
-    <row r="863" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" ht="14.25" customHeight="1">
       <c r="E863" s="7"/>
       <c r="F863" s="7"/>
       <c r="G863" s="7"/>
     </row>
-    <row r="864" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" ht="14.25" customHeight="1">
       <c r="E864" s="7"/>
       <c r="F864" s="7"/>
       <c r="G864" s="7"/>
     </row>
-    <row r="865" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" ht="14.25" customHeight="1">
       <c r="E865" s="7"/>
       <c r="F865" s="7"/>
       <c r="G865" s="7"/>
     </row>
-    <row r="866" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" ht="14.25" customHeight="1">
       <c r="E866" s="7"/>
       <c r="F866" s="7"/>
       <c r="G866" s="7"/>
     </row>
-    <row r="867" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" ht="14.25" customHeight="1">
       <c r="E867" s="7"/>
       <c r="F867" s="7"/>
       <c r="G867" s="7"/>
     </row>
-    <row r="868" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" ht="14.25" customHeight="1">
       <c r="E868" s="7"/>
       <c r="F868" s="7"/>
       <c r="G868" s="7"/>
     </row>
-    <row r="869" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" ht="14.25" customHeight="1">
       <c r="E869" s="7"/>
       <c r="F869" s="7"/>
       <c r="G869" s="7"/>
     </row>
-    <row r="870" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" ht="14.25" customHeight="1">
       <c r="E870" s="7"/>
       <c r="F870" s="7"/>
       <c r="G870" s="7"/>
     </row>
-    <row r="871" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" ht="14.25" customHeight="1">
       <c r="E871" s="7"/>
       <c r="F871" s="7"/>
       <c r="G871" s="7"/>
     </row>
-    <row r="872" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" ht="14.25" customHeight="1">
       <c r="E872" s="7"/>
       <c r="F872" s="7"/>
       <c r="G872" s="7"/>
     </row>
-    <row r="873" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" ht="14.25" customHeight="1">
       <c r="E873" s="7"/>
       <c r="F873" s="7"/>
       <c r="G873" s="7"/>
     </row>
-    <row r="874" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" ht="14.25" customHeight="1">
       <c r="E874" s="7"/>
       <c r="F874" s="7"/>
       <c r="G874" s="7"/>
     </row>
-    <row r="875" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" ht="14.25" customHeight="1">
       <c r="E875" s="7"/>
       <c r="F875" s="7"/>
       <c r="G875" s="7"/>
     </row>
-    <row r="876" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" ht="14.25" customHeight="1">
       <c r="E876" s="7"/>
       <c r="F876" s="7"/>
       <c r="G876" s="7"/>
     </row>
-    <row r="877" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" ht="14.25" customHeight="1">
       <c r="E877" s="7"/>
       <c r="F877" s="7"/>
       <c r="G877" s="7"/>
     </row>
-    <row r="878" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" ht="14.25" customHeight="1">
       <c r="E878" s="7"/>
       <c r="F878" s="7"/>
       <c r="G878" s="7"/>
     </row>
-    <row r="879" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" ht="14.25" customHeight="1">
       <c r="E879" s="7"/>
       <c r="F879" s="7"/>
       <c r="G879" s="7"/>
     </row>
-    <row r="880" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" ht="14.25" customHeight="1">
       <c r="E880" s="7"/>
       <c r="F880" s="7"/>
       <c r="G880" s="7"/>
     </row>
-    <row r="881" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" ht="14.25" customHeight="1">
       <c r="E881" s="7"/>
       <c r="F881" s="7"/>
       <c r="G881" s="7"/>
     </row>
-    <row r="882" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" ht="14.25" customHeight="1">
       <c r="E882" s="7"/>
       <c r="F882" s="7"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" ht="14.25" customHeight="1">
       <c r="E883" s="7"/>
       <c r="F883" s="7"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" ht="14.25" customHeight="1">
       <c r="E884" s="7"/>
       <c r="F884" s="7"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" ht="14.25" customHeight="1">
       <c r="E885" s="7"/>
       <c r="F885" s="7"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" ht="14.25" customHeight="1">
       <c r="E886" s="7"/>
       <c r="F886" s="7"/>
       <c r="G886" s="7"/>
     </row>
-    <row r="887" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" ht="14.25" customHeight="1">
       <c r="E887" s="7"/>
       <c r="F887" s="7"/>
       <c r="G887" s="7"/>
     </row>
-    <row r="888" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" ht="14.25" customHeight="1">
       <c r="E888" s="7"/>
       <c r="F888" s="7"/>
       <c r="G888" s="7"/>
     </row>
-    <row r="889" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" ht="14.25" customHeight="1">
       <c r="E889" s="7"/>
       <c r="F889" s="7"/>
       <c r="G889" s="7"/>
     </row>
-    <row r="890" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" ht="14.25" customHeight="1">
       <c r="E890" s="7"/>
       <c r="F890" s="7"/>
       <c r="G890" s="7"/>
     </row>
-    <row r="891" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" ht="14.25" customHeight="1">
       <c r="E891" s="7"/>
       <c r="F891" s="7"/>
       <c r="G891" s="7"/>
     </row>
-    <row r="892" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" ht="14.25" customHeight="1">
       <c r="E892" s="7"/>
       <c r="F892" s="7"/>
       <c r="G892" s="7"/>
     </row>
-    <row r="893" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" ht="14.25" customHeight="1">
       <c r="E893" s="7"/>
       <c r="F893" s="7"/>
       <c r="G893" s="7"/>
     </row>
-    <row r="894" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" ht="14.25" customHeight="1">
       <c r="E894" s="7"/>
       <c r="F894" s="7"/>
       <c r="G894" s="7"/>
     </row>
-    <row r="895" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" ht="14.25" customHeight="1">
       <c r="E895" s="7"/>
       <c r="F895" s="7"/>
       <c r="G895" s="7"/>
     </row>
-    <row r="896" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" ht="14.25" customHeight="1">
       <c r="E896" s="7"/>
       <c r="F896" s="7"/>
       <c r="G896" s="7"/>
     </row>
-    <row r="897" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" ht="14.25" customHeight="1">
       <c r="E897" s="7"/>
       <c r="F897" s="7"/>
       <c r="G897" s="7"/>
     </row>
-    <row r="898" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" ht="14.25" customHeight="1">
       <c r="E898" s="7"/>
       <c r="F898" s="7"/>
       <c r="G898" s="7"/>
     </row>
-    <row r="899" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" ht="14.25" customHeight="1">
       <c r="E899" s="7"/>
       <c r="F899" s="7"/>
       <c r="G899" s="7"/>
     </row>
-    <row r="900" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" ht="14.25" customHeight="1">
       <c r="E900" s="7"/>
       <c r="F900" s="7"/>
       <c r="G900" s="7"/>
     </row>
-    <row r="901" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" ht="14.25" customHeight="1">
       <c r="E901" s="7"/>
       <c r="F901" s="7"/>
       <c r="G901" s="7"/>
     </row>
-    <row r="902" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" ht="14.25" customHeight="1">
       <c r="E902" s="7"/>
       <c r="F902" s="7"/>
       <c r="G902" s="7"/>
     </row>
-    <row r="903" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" ht="14.25" customHeight="1">
       <c r="E903" s="7"/>
       <c r="F903" s="7"/>
       <c r="G903" s="7"/>
     </row>
-    <row r="904" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" ht="14.25" customHeight="1">
       <c r="E904" s="7"/>
       <c r="F904" s="7"/>
       <c r="G904" s="7"/>
     </row>
-    <row r="905" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" ht="14.25" customHeight="1">
       <c r="E905" s="7"/>
       <c r="F905" s="7"/>
       <c r="G905" s="7"/>
     </row>
-    <row r="906" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" ht="14.25" customHeight="1">
       <c r="E906" s="7"/>
       <c r="F906" s="7"/>
       <c r="G906" s="7"/>
     </row>
-    <row r="907" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" ht="14.25" customHeight="1">
       <c r="E907" s="7"/>
       <c r="F907" s="7"/>
       <c r="G907" s="7"/>
     </row>
-    <row r="908" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" ht="14.25" customHeight="1">
       <c r="E908" s="7"/>
       <c r="F908" s="7"/>
       <c r="G908" s="7"/>
     </row>
-    <row r="909" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" ht="14.25" customHeight="1">
       <c r="E909" s="7"/>
       <c r="F909" s="7"/>
       <c r="G909" s="7"/>
     </row>
-    <row r="910" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" ht="14.25" customHeight="1">
       <c r="E910" s="7"/>
       <c r="F910" s="7"/>
       <c r="G910" s="7"/>
     </row>
-    <row r="911" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" ht="14.25" customHeight="1">
       <c r="E911" s="7"/>
       <c r="F911" s="7"/>
       <c r="G911" s="7"/>
     </row>
-    <row r="912" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" ht="14.25" customHeight="1">
       <c r="E912" s="7"/>
       <c r="F912" s="7"/>
       <c r="G912" s="7"/>
     </row>
-    <row r="913" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" ht="14.25" customHeight="1">
       <c r="E913" s="7"/>
       <c r="F913" s="7"/>
       <c r="G913" s="7"/>
     </row>
-    <row r="914" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" ht="14.25" customHeight="1">
       <c r="E914" s="7"/>
       <c r="F914" s="7"/>
       <c r="G914" s="7"/>
     </row>
-    <row r="915" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" ht="14.25" customHeight="1">
       <c r="E915" s="7"/>
       <c r="F915" s="7"/>
       <c r="G915" s="7"/>
     </row>
-    <row r="916" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" ht="14.25" customHeight="1">
       <c r="E916" s="7"/>
       <c r="F916" s="7"/>
       <c r="G916" s="7"/>
     </row>
-    <row r="917" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" ht="14.25" customHeight="1">
       <c r="E917" s="7"/>
       <c r="F917" s="7"/>
       <c r="G917" s="7"/>
     </row>
-    <row r="918" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" ht="14.25" customHeight="1">
       <c r="E918" s="7"/>
       <c r="F918" s="7"/>
       <c r="G918" s="7"/>
     </row>
-    <row r="919" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" ht="14.25" customHeight="1">
       <c r="E919" s="7"/>
       <c r="F919" s="7"/>
       <c r="G919" s="7"/>
     </row>
-    <row r="920" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" ht="14.25" customHeight="1">
       <c r="E920" s="7"/>
       <c r="F920" s="7"/>
       <c r="G920" s="7"/>
     </row>
-    <row r="921" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" ht="14.25" customHeight="1">
       <c r="E921" s="7"/>
       <c r="F921" s="7"/>
       <c r="G921" s="7"/>
     </row>
-    <row r="922" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" ht="14.25" customHeight="1">
       <c r="E922" s="7"/>
       <c r="F922" s="7"/>
       <c r="G922" s="7"/>
     </row>
-    <row r="923" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" ht="14.25" customHeight="1">
       <c r="E923" s="7"/>
       <c r="F923" s="7"/>
       <c r="G923" s="7"/>
     </row>
-    <row r="924" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" ht="14.25" customHeight="1">
       <c r="E924" s="7"/>
       <c r="F924" s="7"/>
       <c r="G924" s="7"/>
     </row>
-    <row r="925" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" ht="14.25" customHeight="1">
       <c r="E925" s="7"/>
       <c r="F925" s="7"/>
       <c r="G925" s="7"/>
     </row>
-    <row r="926" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" ht="14.25" customHeight="1">
       <c r="E926" s="7"/>
       <c r="F926" s="7"/>
       <c r="G926" s="7"/>
     </row>
-    <row r="927" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" ht="14.25" customHeight="1">
       <c r="E927" s="7"/>
       <c r="F927" s="7"/>
       <c r="G927" s="7"/>
     </row>
-    <row r="928" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" ht="14.25" customHeight="1">
       <c r="E928" s="7"/>
       <c r="F928" s="7"/>
       <c r="G928" s="7"/>
     </row>
-    <row r="929" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" ht="14.25" customHeight="1">
       <c r="E929" s="7"/>
       <c r="F929" s="7"/>
       <c r="G929" s="7"/>
     </row>
-    <row r="930" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" ht="14.25" customHeight="1">
       <c r="E930" s="7"/>
       <c r="F930" s="7"/>
       <c r="G930" s="7"/>
     </row>
-    <row r="931" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" ht="14.25" customHeight="1">
       <c r="E931" s="7"/>
       <c r="F931" s="7"/>
       <c r="G931" s="7"/>
     </row>
-    <row r="932" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" ht="14.25" customHeight="1">
       <c r="E932" s="7"/>
       <c r="F932" s="7"/>
       <c r="G932" s="7"/>
     </row>
-    <row r="933" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" ht="14.25" customHeight="1">
       <c r="E933" s="7"/>
       <c r="F933" s="7"/>
       <c r="G933" s="7"/>
     </row>
-    <row r="934" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" ht="14.25" customHeight="1">
       <c r="E934" s="7"/>
       <c r="F934" s="7"/>
       <c r="G934" s="7"/>
     </row>
-    <row r="935" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" ht="14.25" customHeight="1">
       <c r="E935" s="7"/>
       <c r="F935" s="7"/>
       <c r="G935" s="7"/>
     </row>
-    <row r="936" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" ht="14.25" customHeight="1">
       <c r="E936" s="7"/>
       <c r="F936" s="7"/>
       <c r="G936" s="7"/>
     </row>
-    <row r="937" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" ht="14.25" customHeight="1">
       <c r="E937" s="7"/>
       <c r="F937" s="7"/>
       <c r="G937" s="7"/>
     </row>
-    <row r="938" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" ht="14.25" customHeight="1">
       <c r="E938" s="7"/>
       <c r="F938" s="7"/>
       <c r="G938" s="7"/>
     </row>
-    <row r="939" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" ht="14.25" customHeight="1">
       <c r="E939" s="7"/>
       <c r="F939" s="7"/>
       <c r="G939" s="7"/>
     </row>
-    <row r="940" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" ht="14.25" customHeight="1">
       <c r="E940" s="7"/>
       <c r="F940" s="7"/>
       <c r="G940" s="7"/>
     </row>
-    <row r="941" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" ht="14.25" customHeight="1">
       <c r="E941" s="7"/>
       <c r="F941" s="7"/>
       <c r="G941" s="7"/>
     </row>
-    <row r="942" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" ht="14.25" customHeight="1">
       <c r="E942" s="7"/>
       <c r="F942" s="7"/>
       <c r="G942" s="7"/>
     </row>
-    <row r="943" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" ht="14.25" customHeight="1">
       <c r="E943" s="7"/>
       <c r="F943" s="7"/>
       <c r="G943" s="7"/>
     </row>
-    <row r="944" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" ht="14.25" customHeight="1">
       <c r="E944" s="7"/>
       <c r="F944" s="7"/>
       <c r="G944" s="7"/>
     </row>
-    <row r="945" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" ht="14.25" customHeight="1">
       <c r="E945" s="7"/>
       <c r="F945" s="7"/>
       <c r="G945" s="7"/>
     </row>
-    <row r="946" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" ht="14.25" customHeight="1">
       <c r="E946" s="7"/>
       <c r="F946" s="7"/>
       <c r="G946" s="7"/>
     </row>
-    <row r="947" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" ht="14.25" customHeight="1">
       <c r="E947" s="7"/>
       <c r="F947" s="7"/>
       <c r="G947" s="7"/>
     </row>
-    <row r="948" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" ht="14.25" customHeight="1">
       <c r="E948" s="7"/>
       <c r="F948" s="7"/>
       <c r="G948" s="7"/>
     </row>
-    <row r="949" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" ht="14.25" customHeight="1">
       <c r="E949" s="7"/>
       <c r="F949" s="7"/>
       <c r="G949" s="7"/>
     </row>
-    <row r="950" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" ht="14.25" customHeight="1">
       <c r="E950" s="7"/>
       <c r="F950" s="7"/>
       <c r="G950" s="7"/>
     </row>
-    <row r="951" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" ht="14.25" customHeight="1">
       <c r="E951" s="7"/>
       <c r="F951" s="7"/>
       <c r="G951" s="7"/>
     </row>
-    <row r="952" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" ht="14.25" customHeight="1">
       <c r="E952" s="7"/>
       <c r="F952" s="7"/>
       <c r="G952" s="7"/>
     </row>
-    <row r="953" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" ht="14.25" customHeight="1">
       <c r="E953" s="7"/>
       <c r="F953" s="7"/>
       <c r="G953" s="7"/>
     </row>
-    <row r="954" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" ht="14.25" customHeight="1">
       <c r="E954" s="7"/>
       <c r="F954" s="7"/>
       <c r="G954" s="7"/>
     </row>
-    <row r="955" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" ht="14.25" customHeight="1">
       <c r="E955" s="7"/>
       <c r="F955" s="7"/>
       <c r="G955" s="7"/>
     </row>
-    <row r="956" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" ht="14.25" customHeight="1">
       <c r="E956" s="7"/>
       <c r="F956" s="7"/>
       <c r="G956" s="7"/>
     </row>
-    <row r="957" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" ht="14.25" customHeight="1">
       <c r="E957" s="7"/>
       <c r="F957" s="7"/>
       <c r="G957" s="7"/>
     </row>
-    <row r="958" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" ht="14.25" customHeight="1">
       <c r="E958" s="7"/>
       <c r="F958" s="7"/>
       <c r="G958" s="7"/>
     </row>
-    <row r="959" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" ht="14.25" customHeight="1">
       <c r="E959" s="7"/>
       <c r="F959" s="7"/>
       <c r="G959" s="7"/>
     </row>
-    <row r="960" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" ht="14.25" customHeight="1">
       <c r="E960" s="7"/>
       <c r="F960" s="7"/>
       <c r="G960" s="7"/>
     </row>
-    <row r="961" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" ht="14.25" customHeight="1">
       <c r="E961" s="7"/>
       <c r="F961" s="7"/>
       <c r="G961" s="7"/>
     </row>
-    <row r="962" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" ht="14.25" customHeight="1">
       <c r="E962" s="7"/>
       <c r="F962" s="7"/>
       <c r="G962" s="7"/>
     </row>
-    <row r="963" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" ht="14.25" customHeight="1">
       <c r="E963" s="7"/>
       <c r="F963" s="7"/>
       <c r="G963" s="7"/>
     </row>
-    <row r="964" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" ht="14.25" customHeight="1">
       <c r="E964" s="7"/>
       <c r="F964" s="7"/>
       <c r="G964" s="7"/>
     </row>
-    <row r="965" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" ht="14.25" customHeight="1">
       <c r="E965" s="7"/>
       <c r="F965" s="7"/>
       <c r="G965" s="7"/>
     </row>
-    <row r="966" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" ht="14.25" customHeight="1">
       <c r="E966" s="7"/>
       <c r="F966" s="7"/>
       <c r="G966" s="7"/>
     </row>
-    <row r="967" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" ht="14.25" customHeight="1">
       <c r="E967" s="7"/>
       <c r="F967" s="7"/>
       <c r="G967" s="7"/>
     </row>
-    <row r="968" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" ht="14.25" customHeight="1">
       <c r="E968" s="7"/>
       <c r="F968" s="7"/>
       <c r="G968" s="7"/>
     </row>
-    <row r="969" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" ht="14.25" customHeight="1">
       <c r="E969" s="7"/>
       <c r="F969" s="7"/>
       <c r="G969" s="7"/>
     </row>
-    <row r="970" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" ht="14.25" customHeight="1">
       <c r="E970" s="7"/>
       <c r="F970" s="7"/>
       <c r="G970" s="7"/>
     </row>
-    <row r="971" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" ht="14.25" customHeight="1">
       <c r="E971" s="7"/>
       <c r="F971" s="7"/>
       <c r="G971" s="7"/>
     </row>
-    <row r="972" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" ht="14.25" customHeight="1">
       <c r="E972" s="7"/>
       <c r="F972" s="7"/>
       <c r="G972" s="7"/>
     </row>
-    <row r="973" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" ht="14.25" customHeight="1">
       <c r="E973" s="7"/>
       <c r="F973" s="7"/>
       <c r="G973" s="7"/>
     </row>
-    <row r="974" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" ht="14.25" customHeight="1">
       <c r="E974" s="7"/>
       <c r="F974" s="7"/>
       <c r="G974" s="7"/>
     </row>
-    <row r="975" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" ht="14.25" customHeight="1">
       <c r="E975" s="7"/>
       <c r="F975" s="7"/>
       <c r="G975" s="7"/>
     </row>
-    <row r="976" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" ht="14.25" customHeight="1">
       <c r="E976" s="7"/>
       <c r="F976" s="7"/>
       <c r="G976" s="7"/>
     </row>
-    <row r="977" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" ht="14.25" customHeight="1">
       <c r="E977" s="7"/>
       <c r="F977" s="7"/>
       <c r="G977" s="7"/>
     </row>
-    <row r="978" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" ht="14.25" customHeight="1">
       <c r="E978" s="7"/>
       <c r="F978" s="7"/>
       <c r="G978" s="7"/>
     </row>
-    <row r="979" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" ht="14.25" customHeight="1">
       <c r="E979" s="7"/>
       <c r="F979" s="7"/>
       <c r="G979" s="7"/>
     </row>
-    <row r="980" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" ht="14.25" customHeight="1">
       <c r="E980" s="7"/>
       <c r="F980" s="7"/>
       <c r="G980" s="7"/>
     </row>
-    <row r="981" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" ht="14.25" customHeight="1">
       <c r="E981" s="7"/>
       <c r="F981" s="7"/>
       <c r="G981" s="7"/>
     </row>
-    <row r="982" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" ht="14.25" customHeight="1">
       <c r="E982" s="7"/>
       <c r="F982" s="7"/>
       <c r="G982" s="7"/>
     </row>
-    <row r="983" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" ht="14.25" customHeight="1">
       <c r="E983" s="7"/>
       <c r="F983" s="7"/>
       <c r="G983" s="7"/>
     </row>
-    <row r="984" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" ht="14.25" customHeight="1">
       <c r="E984" s="7"/>
       <c r="F984" s="7"/>
       <c r="G984" s="7"/>
     </row>
-    <row r="985" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" ht="14.25" customHeight="1">
       <c r="E985" s="7"/>
       <c r="F985" s="7"/>
       <c r="G985" s="7"/>
     </row>
-    <row r="986" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" ht="14.25" customHeight="1">
       <c r="E986" s="7"/>
       <c r="F986" s="7"/>
       <c r="G986" s="7"/>
     </row>
-    <row r="987" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" ht="14.25" customHeight="1">
       <c r="E987" s="7"/>
       <c r="F987" s="7"/>
       <c r="G987" s="7"/>
     </row>
-    <row r="988" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" ht="14.25" customHeight="1">
       <c r="E988" s="7"/>
       <c r="F988" s="7"/>
       <c r="G988" s="7"/>
     </row>
-    <row r="989" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" ht="14.25" customHeight="1">
       <c r="E989" s="7"/>
       <c r="F989" s="7"/>
       <c r="G989" s="7"/>
     </row>
-    <row r="990" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" ht="14.25" customHeight="1">
       <c r="E990" s="7"/>
       <c r="F990" s="7"/>
       <c r="G990" s="7"/>
     </row>
-    <row r="991" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" ht="14.25" customHeight="1">
       <c r="E991" s="7"/>
       <c r="F991" s="7"/>
       <c r="G991" s="7"/>
     </row>
-    <row r="992" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" ht="14.25" customHeight="1">
       <c r="E992" s="7"/>
       <c r="F992" s="7"/>
       <c r="G992" s="7"/>
     </row>
-    <row r="993" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" ht="14.25" customHeight="1">
       <c r="E993" s="7"/>
       <c r="F993" s="7"/>
       <c r="G993" s="7"/>
     </row>
-    <row r="994" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" ht="14.25" customHeight="1">
       <c r="E994" s="7"/>
       <c r="F994" s="7"/>
       <c r="G994" s="7"/>
     </row>
-    <row r="995" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" ht="14.25" customHeight="1">
       <c r="E995" s="7"/>
       <c r="F995" s="7"/>
       <c r="G995" s="7"/>
     </row>
-    <row r="996" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" ht="14.25" customHeight="1">
       <c r="E996" s="7"/>
       <c r="F996" s="7"/>
       <c r="G996" s="7"/>
     </row>
-    <row r="997" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" ht="14.25" customHeight="1">
       <c r="E997" s="7"/>
       <c r="F997" s="7"/>
       <c r="G997" s="7"/>
     </row>
-    <row r="998" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" ht="14.25" customHeight="1">
       <c r="E998" s="7"/>
       <c r="F998" s="7"/>
       <c r="G998" s="7"/>
     </row>
-    <row r="999" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" ht="14.25" customHeight="1">
       <c r="E999" s="7"/>
       <c r="F999" s="7"/>
       <c r="G999" s="7"/>
     </row>
-    <row r="1000" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" ht="14.25" customHeight="1">
       <c r="E1000" s="7"/>
       <c r="F1000" s="7"/>
       <c r="G1000" s="7"/>
     </row>
-    <row r="1001" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" ht="14.25" customHeight="1">
       <c r="E1001" s="7"/>
       <c r="F1001" s="7"/>
       <c r="G1001" s="7"/>
     </row>
-    <row r="1002" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" ht="14.25" customHeight="1">
       <c r="E1002" s="7"/>
       <c r="F1002" s="7"/>
       <c r="G1002" s="7"/>
     </row>
-    <row r="1003" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" ht="14.25" customHeight="1">
       <c r="E1003" s="7"/>
       <c r="F1003" s="7"/>
       <c r="G1003" s="7"/>
     </row>
-    <row r="1004" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" ht="14.25" customHeight="1">
       <c r="E1004" s="7"/>
       <c r="F1004" s="7"/>
       <c r="G1004" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="$A$1:$AA$1006"/>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="F33"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/CTV ClinicalTrial File.xlsx
+++ b/doc/CTV ClinicalTrial File.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elias/Projects/CRAN-task-view-ClinicalTrials/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83FDEBA-7EDE-1948-99AE-F672B6FF41D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$AA$1006</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$1006</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="X95rdQG9/co8Q875krGCtziDwFFKYvjmKiZ3CcgsESw="/>
@@ -18,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="274">
   <si>
     <t>Package Name</t>
   </si>
@@ -837,60 +847,70 @@
   </si>
   <si>
     <t>`r pkg("MatchIt")` is an R package that selects matched samples of the original treated and control groups with similar covariate distributions.  It can be used to match exactly on covariates, to match on propensity scores, or perform a variety of other matching procedures.   The package also implements a series of recommendations offered in Ho, Imai, King, and Stuart (2007) &lt;doi:10.1093/pan/mpl013&gt;.   After appropriately preprocessing with MatchIt, researchers can use whatever parametric model they would have used without MatchIt and produce inferences that are more robust and less sensitive to modeling assumptions. Matching methods, assessing balance, and estimating effects after balance is described in the vignettes.</t>
+  </si>
+  <si>
+    <t>Not yet on CRAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF729FCF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF5B9BD5"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF729FCF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -898,7 +918,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -914,74 +934,79 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1171,30 +1196,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F68" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.86"/>
-    <col customWidth="1" min="3" max="3" width="11.86"/>
-    <col customWidth="1" min="4" max="4" width="24.14"/>
-    <col customWidth="1" min="5" max="5" width="26.43"/>
-    <col customWidth="1" min="6" max="6" width="171.86"/>
-    <col customWidth="1" min="7" max="7" width="116.43"/>
-    <col customWidth="1" min="8" max="8" width="17.43"/>
-    <col customWidth="1" min="9" max="26" width="8.43"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="171.83203125" customWidth="1"/>
+    <col min="7" max="7" width="116.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1265,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1284,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1302,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1293,7 +1320,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1309,7 +1336,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1352,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1368,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1384,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1373,7 +1400,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1392,7 +1419,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1410,7 +1437,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1429,7 +1456,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1475,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -1467,7 +1494,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -1485,7 +1512,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -1504,7 +1531,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -1522,7 +1549,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -1540,7 +1567,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -1556,7 +1583,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>55</v>
       </c>
@@ -1594,7 +1621,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
@@ -1613,7 +1640,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
@@ -1631,7 +1658,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -1647,7 +1674,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
@@ -1663,7 +1690,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -1679,7 +1706,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
@@ -1698,7 +1725,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -1715,7 +1742,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
@@ -1732,7 +1759,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -1750,7 +1777,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>78</v>
       </c>
@@ -1769,7 +1796,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>80</v>
       </c>
@@ -1787,7 +1814,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>82</v>
       </c>
@@ -1803,7 +1830,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -1820,7 +1847,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>86</v>
       </c>
@@ -1858,7 +1885,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>90</v>
       </c>
@@ -1877,7 +1904,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>94</v>
       </c>
@@ -1896,7 +1923,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
@@ -1915,7 +1942,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -1934,7 +1961,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
@@ -1953,7 +1980,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>104</v>
       </c>
@@ -1972,7 +1999,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>106</v>
       </c>
@@ -1991,7 +2018,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>108</v>
       </c>
@@ -2010,7 +2037,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>111</v>
       </c>
@@ -2029,7 +2056,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>113</v>
       </c>
@@ -2048,7 +2075,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>116</v>
       </c>
@@ -2067,7 +2094,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
@@ -2086,7 +2113,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -2105,7 +2132,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>124</v>
       </c>
@@ -2124,7 +2151,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>126</v>
       </c>
@@ -2143,7 +2170,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>128</v>
       </c>
@@ -2162,7 +2189,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>130</v>
       </c>
@@ -2181,7 +2208,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>132</v>
       </c>
@@ -2200,7 +2227,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>134</v>
       </c>
@@ -2218,7 +2245,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -2236,7 +2263,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>139</v>
       </c>
@@ -2255,7 +2282,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>142</v>
       </c>
@@ -2274,7 +2301,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>144</v>
       </c>
@@ -2292,7 +2319,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>146</v>
       </c>
@@ -2310,7 +2337,7 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>148</v>
       </c>
@@ -2328,7 +2355,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>150</v>
       </c>
@@ -2346,7 +2373,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>152</v>
       </c>
@@ -2365,7 +2392,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>154</v>
       </c>
@@ -2384,7 +2411,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>156</v>
       </c>
@@ -2402,7 +2429,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>159</v>
       </c>
@@ -2420,7 +2447,7 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
@@ -2438,7 +2465,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>164</v>
       </c>
@@ -2459,7 +2486,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>168</v>
       </c>
@@ -2478,7 +2505,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>170</v>
       </c>
@@ -2497,7 +2524,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>172</v>
       </c>
@@ -2515,7 +2542,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>174</v>
       </c>
@@ -2534,7 +2561,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>177</v>
       </c>
@@ -2552,7 +2579,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>181</v>
       </c>
@@ -2571,7 +2598,7 @@
       <c r="G72" s="7"/>
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>184</v>
       </c>
@@ -2589,7 +2616,7 @@
       </c>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>186</v>
       </c>
@@ -2607,7 +2634,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>188</v>
       </c>
@@ -2625,7 +2652,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>190</v>
       </c>
@@ -2645,7 +2672,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>194</v>
       </c>
@@ -2663,7 +2690,7 @@
       </c>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>196</v>
       </c>
@@ -2681,7 +2708,7 @@
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>68</v>
       </c>
@@ -2704,7 +2731,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>201</v>
       </c>
@@ -2722,7 +2749,7 @@
       </c>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>204</v>
       </c>
@@ -2740,7 +2767,7 @@
       </c>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>206</v>
       </c>
@@ -2758,7 +2785,7 @@
       </c>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>209</v>
       </c>
@@ -2776,7 +2803,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>211</v>
       </c>
@@ -2794,7 +2821,7 @@
       </c>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>213</v>
       </c>
@@ -2812,7 +2839,7 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>215</v>
       </c>
@@ -2830,7 +2857,7 @@
       </c>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>217</v>
       </c>
@@ -2848,7 +2875,7 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>219</v>
       </c>
@@ -2866,7 +2893,7 @@
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>221</v>
       </c>
@@ -2884,7 +2911,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>224</v>
       </c>
@@ -2902,7 +2929,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>226</v>
       </c>
@@ -2920,7 +2947,7 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>228</v>
       </c>
@@ -2938,7 +2965,7 @@
       </c>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>230</v>
       </c>
@@ -2956,7 +2983,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>232</v>
       </c>
@@ -2974,7 +3001,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>234</v>
       </c>
@@ -2992,7 +3019,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>236</v>
       </c>
@@ -3010,7 +3037,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>239</v>
       </c>
@@ -3028,7 +3055,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>241</v>
       </c>
@@ -3049,7 +3076,7 @@
       </c>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>244</v>
       </c>
@@ -3067,7 +3094,7 @@
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>246</v>
       </c>
@@ -3085,7 +3112,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>248</v>
       </c>
@@ -3101,7 +3128,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>251</v>
       </c>
@@ -3117,7 +3144,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>253</v>
       </c>
@@ -3133,7 +3160,7 @@
       </c>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>255</v>
       </c>
@@ -3149,7 +3176,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>257</v>
       </c>
@@ -3165,7 +3192,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>259</v>
       </c>
@@ -3183,7 +3210,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>261</v>
       </c>
@@ -3201,7 +3228,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>263</v>
       </c>
@@ -3219,7 +3246,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>265</v>
       </c>
@@ -3237,7 +3264,7 @@
       </c>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>267</v>
       </c>
@@ -3254,8 +3281,11 @@
         <v>268</v>
       </c>
       <c r="G110" s="7"/>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
+      <c r="H110" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>269</v>
       </c>
@@ -3273,4492 +3303,4490 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="17" t="s">
+      <c r="F112" s="7" t="s">
         <v>272</v>
       </c>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E404" s="7"/>
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E408" s="7"/>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E410" s="7"/>
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E411" s="7"/>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E415" s="7"/>
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E417" s="7"/>
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E421" s="7"/>
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E422" s="7"/>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E423" s="7"/>
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E424" s="7"/>
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E425" s="7"/>
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E426" s="7"/>
       <c r="F426" s="7"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E427" s="7"/>
       <c r="F427" s="7"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E428" s="7"/>
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E429" s="7"/>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E430" s="7"/>
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E431" s="7"/>
       <c r="F431" s="7"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E432" s="7"/>
       <c r="F432" s="7"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E434" s="7"/>
       <c r="F434" s="7"/>
       <c r="G434" s="7"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E435" s="7"/>
       <c r="F435" s="7"/>
       <c r="G435" s="7"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E436" s="7"/>
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
       <c r="G439" s="7"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
       <c r="G440" s="7"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
       <c r="G442" s="7"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
       <c r="G447" s="7"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
       <c r="G450" s="7"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
       <c r="G452" s="7"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
       <c r="G457" s="7"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
       <c r="G458" s="7"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E459" s="7"/>
       <c r="F459" s="7"/>
       <c r="G459" s="7"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
       <c r="G460" s="7"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E461" s="7"/>
       <c r="F461" s="7"/>
       <c r="G461" s="7"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
       <c r="G462" s="7"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E463" s="7"/>
       <c r="F463" s="7"/>
       <c r="G463" s="7"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E464" s="7"/>
       <c r="F464" s="7"/>
       <c r="G464" s="7"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E465" s="7"/>
       <c r="F465" s="7"/>
       <c r="G465" s="7"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E466" s="7"/>
       <c r="F466" s="7"/>
       <c r="G466" s="7"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E467" s="7"/>
       <c r="F467" s="7"/>
       <c r="G467" s="7"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E468" s="7"/>
       <c r="F468" s="7"/>
       <c r="G468" s="7"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E469" s="7"/>
       <c r="F469" s="7"/>
       <c r="G469" s="7"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E470" s="7"/>
       <c r="F470" s="7"/>
       <c r="G470" s="7"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E471" s="7"/>
       <c r="F471" s="7"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E472" s="7"/>
       <c r="F472" s="7"/>
       <c r="G472" s="7"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E473" s="7"/>
       <c r="F473" s="7"/>
       <c r="G473" s="7"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E474" s="7"/>
       <c r="F474" s="7"/>
       <c r="G474" s="7"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E475" s="7"/>
       <c r="F475" s="7"/>
       <c r="G475" s="7"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E476" s="7"/>
       <c r="F476" s="7"/>
       <c r="G476" s="7"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E477" s="7"/>
       <c r="F477" s="7"/>
       <c r="G477" s="7"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E478" s="7"/>
       <c r="F478" s="7"/>
       <c r="G478" s="7"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E479" s="7"/>
       <c r="F479" s="7"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E480" s="7"/>
       <c r="F480" s="7"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E481" s="7"/>
       <c r="F481" s="7"/>
       <c r="G481" s="7"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E482" s="7"/>
       <c r="F482" s="7"/>
       <c r="G482" s="7"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E483" s="7"/>
       <c r="F483" s="7"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E484" s="7"/>
       <c r="F484" s="7"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E485" s="7"/>
       <c r="F485" s="7"/>
       <c r="G485" s="7"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E486" s="7"/>
       <c r="F486" s="7"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E487" s="7"/>
       <c r="F487" s="7"/>
       <c r="G487" s="7"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E488" s="7"/>
       <c r="F488" s="7"/>
       <c r="G488" s="7"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E489" s="7"/>
       <c r="F489" s="7"/>
       <c r="G489" s="7"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E490" s="7"/>
       <c r="F490" s="7"/>
       <c r="G490" s="7"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E491" s="7"/>
       <c r="F491" s="7"/>
       <c r="G491" s="7"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E492" s="7"/>
       <c r="F492" s="7"/>
       <c r="G492" s="7"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E493" s="7"/>
       <c r="F493" s="7"/>
       <c r="G493" s="7"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E494" s="7"/>
       <c r="F494" s="7"/>
       <c r="G494" s="7"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E495" s="7"/>
       <c r="F495" s="7"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E496" s="7"/>
       <c r="F496" s="7"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E497" s="7"/>
       <c r="F497" s="7"/>
       <c r="G497" s="7"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E498" s="7"/>
       <c r="F498" s="7"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E499" s="7"/>
       <c r="F499" s="7"/>
       <c r="G499" s="7"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E500" s="7"/>
       <c r="F500" s="7"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E501" s="7"/>
       <c r="F501" s="7"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E502" s="7"/>
       <c r="F502" s="7"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E503" s="7"/>
       <c r="F503" s="7"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E504" s="7"/>
       <c r="F504" s="7"/>
       <c r="G504" s="7"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E505" s="7"/>
       <c r="F505" s="7"/>
       <c r="G505" s="7"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E506" s="7"/>
       <c r="F506" s="7"/>
       <c r="G506" s="7"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E507" s="7"/>
       <c r="F507" s="7"/>
       <c r="G507" s="7"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E508" s="7"/>
       <c r="F508" s="7"/>
       <c r="G508" s="7"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E509" s="7"/>
       <c r="F509" s="7"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E510" s="7"/>
       <c r="F510" s="7"/>
       <c r="G510" s="7"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E511" s="7"/>
       <c r="F511" s="7"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E512" s="7"/>
       <c r="F512" s="7"/>
       <c r="G512" s="7"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E513" s="7"/>
       <c r="F513" s="7"/>
       <c r="G513" s="7"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E514" s="7"/>
       <c r="F514" s="7"/>
       <c r="G514" s="7"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E515" s="7"/>
       <c r="F515" s="7"/>
       <c r="G515" s="7"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E516" s="7"/>
       <c r="F516" s="7"/>
       <c r="G516" s="7"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E517" s="7"/>
       <c r="F517" s="7"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E518" s="7"/>
       <c r="F518" s="7"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E519" s="7"/>
       <c r="F519" s="7"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E520" s="7"/>
       <c r="F520" s="7"/>
       <c r="G520" s="7"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E521" s="7"/>
       <c r="F521" s="7"/>
       <c r="G521" s="7"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E522" s="7"/>
       <c r="F522" s="7"/>
       <c r="G522" s="7"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E523" s="7"/>
       <c r="F523" s="7"/>
       <c r="G523" s="7"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E524" s="7"/>
       <c r="F524" s="7"/>
       <c r="G524" s="7"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E525" s="7"/>
       <c r="F525" s="7"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E526" s="7"/>
       <c r="F526" s="7"/>
       <c r="G526" s="7"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E527" s="7"/>
       <c r="F527" s="7"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E528" s="7"/>
       <c r="F528" s="7"/>
       <c r="G528" s="7"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E529" s="7"/>
       <c r="F529" s="7"/>
       <c r="G529" s="7"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E530" s="7"/>
       <c r="F530" s="7"/>
       <c r="G530" s="7"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E531" s="7"/>
       <c r="F531" s="7"/>
       <c r="G531" s="7"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E532" s="7"/>
       <c r="F532" s="7"/>
       <c r="G532" s="7"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E533" s="7"/>
       <c r="F533" s="7"/>
       <c r="G533" s="7"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E534" s="7"/>
       <c r="F534" s="7"/>
       <c r="G534" s="7"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E535" s="7"/>
       <c r="F535" s="7"/>
       <c r="G535" s="7"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E536" s="7"/>
       <c r="F536" s="7"/>
       <c r="G536" s="7"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E537" s="7"/>
       <c r="F537" s="7"/>
       <c r="G537" s="7"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E538" s="7"/>
       <c r="F538" s="7"/>
       <c r="G538" s="7"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E539" s="7"/>
       <c r="F539" s="7"/>
       <c r="G539" s="7"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E540" s="7"/>
       <c r="F540" s="7"/>
       <c r="G540" s="7"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E541" s="7"/>
       <c r="F541" s="7"/>
       <c r="G541" s="7"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E542" s="7"/>
       <c r="F542" s="7"/>
       <c r="G542" s="7"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E543" s="7"/>
       <c r="F543" s="7"/>
       <c r="G543" s="7"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E544" s="7"/>
       <c r="F544" s="7"/>
       <c r="G544" s="7"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E545" s="7"/>
       <c r="F545" s="7"/>
       <c r="G545" s="7"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E546" s="7"/>
       <c r="F546" s="7"/>
       <c r="G546" s="7"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E547" s="7"/>
       <c r="F547" s="7"/>
       <c r="G547" s="7"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E548" s="7"/>
       <c r="F548" s="7"/>
       <c r="G548" s="7"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E549" s="7"/>
       <c r="F549" s="7"/>
       <c r="G549" s="7"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E550" s="7"/>
       <c r="F550" s="7"/>
       <c r="G550" s="7"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E551" s="7"/>
       <c r="F551" s="7"/>
       <c r="G551" s="7"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E552" s="7"/>
       <c r="F552" s="7"/>
       <c r="G552" s="7"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E553" s="7"/>
       <c r="F553" s="7"/>
       <c r="G553" s="7"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E554" s="7"/>
       <c r="F554" s="7"/>
       <c r="G554" s="7"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E555" s="7"/>
       <c r="F555" s="7"/>
       <c r="G555" s="7"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E556" s="7"/>
       <c r="F556" s="7"/>
       <c r="G556" s="7"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E557" s="7"/>
       <c r="F557" s="7"/>
       <c r="G557" s="7"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E558" s="7"/>
       <c r="F558" s="7"/>
       <c r="G558" s="7"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E559" s="7"/>
       <c r="F559" s="7"/>
       <c r="G559" s="7"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E560" s="7"/>
       <c r="F560" s="7"/>
       <c r="G560" s="7"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E561" s="7"/>
       <c r="F561" s="7"/>
       <c r="G561" s="7"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E562" s="7"/>
       <c r="F562" s="7"/>
       <c r="G562" s="7"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E563" s="7"/>
       <c r="F563" s="7"/>
       <c r="G563" s="7"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E564" s="7"/>
       <c r="F564" s="7"/>
       <c r="G564" s="7"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E565" s="7"/>
       <c r="F565" s="7"/>
       <c r="G565" s="7"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E566" s="7"/>
       <c r="F566" s="7"/>
       <c r="G566" s="7"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E567" s="7"/>
       <c r="F567" s="7"/>
       <c r="G567" s="7"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E568" s="7"/>
       <c r="F568" s="7"/>
       <c r="G568" s="7"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E569" s="7"/>
       <c r="F569" s="7"/>
       <c r="G569" s="7"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E570" s="7"/>
       <c r="F570" s="7"/>
       <c r="G570" s="7"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E571" s="7"/>
       <c r="F571" s="7"/>
       <c r="G571" s="7"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E572" s="7"/>
       <c r="F572" s="7"/>
       <c r="G572" s="7"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E573" s="7"/>
       <c r="F573" s="7"/>
       <c r="G573" s="7"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E574" s="7"/>
       <c r="F574" s="7"/>
       <c r="G574" s="7"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E575" s="7"/>
       <c r="F575" s="7"/>
       <c r="G575" s="7"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E576" s="7"/>
       <c r="F576" s="7"/>
       <c r="G576" s="7"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E577" s="7"/>
       <c r="F577" s="7"/>
       <c r="G577" s="7"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E578" s="7"/>
       <c r="F578" s="7"/>
       <c r="G578" s="7"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E579" s="7"/>
       <c r="F579" s="7"/>
       <c r="G579" s="7"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E580" s="7"/>
       <c r="F580" s="7"/>
       <c r="G580" s="7"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E581" s="7"/>
       <c r="F581" s="7"/>
       <c r="G581" s="7"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E582" s="7"/>
       <c r="F582" s="7"/>
       <c r="G582" s="7"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E583" s="7"/>
       <c r="F583" s="7"/>
       <c r="G583" s="7"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E584" s="7"/>
       <c r="F584" s="7"/>
       <c r="G584" s="7"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E585" s="7"/>
       <c r="F585" s="7"/>
       <c r="G585" s="7"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E586" s="7"/>
       <c r="F586" s="7"/>
       <c r="G586" s="7"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E587" s="7"/>
       <c r="F587" s="7"/>
       <c r="G587" s="7"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E588" s="7"/>
       <c r="F588" s="7"/>
       <c r="G588" s="7"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E589" s="7"/>
       <c r="F589" s="7"/>
       <c r="G589" s="7"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E590" s="7"/>
       <c r="F590" s="7"/>
       <c r="G590" s="7"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E591" s="7"/>
       <c r="F591" s="7"/>
       <c r="G591" s="7"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E592" s="7"/>
       <c r="F592" s="7"/>
       <c r="G592" s="7"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E593" s="7"/>
       <c r="F593" s="7"/>
       <c r="G593" s="7"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E594" s="7"/>
       <c r="F594" s="7"/>
       <c r="G594" s="7"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E595" s="7"/>
       <c r="F595" s="7"/>
       <c r="G595" s="7"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E596" s="7"/>
       <c r="F596" s="7"/>
       <c r="G596" s="7"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E597" s="7"/>
       <c r="F597" s="7"/>
       <c r="G597" s="7"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E598" s="7"/>
       <c r="F598" s="7"/>
       <c r="G598" s="7"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E599" s="7"/>
       <c r="F599" s="7"/>
       <c r="G599" s="7"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E600" s="7"/>
       <c r="F600" s="7"/>
       <c r="G600" s="7"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E601" s="7"/>
       <c r="F601" s="7"/>
       <c r="G601" s="7"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E602" s="7"/>
       <c r="F602" s="7"/>
       <c r="G602" s="7"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E603" s="7"/>
       <c r="F603" s="7"/>
       <c r="G603" s="7"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E604" s="7"/>
       <c r="F604" s="7"/>
       <c r="G604" s="7"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E605" s="7"/>
       <c r="F605" s="7"/>
       <c r="G605" s="7"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E606" s="7"/>
       <c r="F606" s="7"/>
       <c r="G606" s="7"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E607" s="7"/>
       <c r="F607" s="7"/>
       <c r="G607" s="7"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E608" s="7"/>
       <c r="F608" s="7"/>
       <c r="G608" s="7"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E609" s="7"/>
       <c r="F609" s="7"/>
       <c r="G609" s="7"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E610" s="7"/>
       <c r="F610" s="7"/>
       <c r="G610" s="7"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E611" s="7"/>
       <c r="F611" s="7"/>
       <c r="G611" s="7"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E612" s="7"/>
       <c r="F612" s="7"/>
       <c r="G612" s="7"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E613" s="7"/>
       <c r="F613" s="7"/>
       <c r="G613" s="7"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E614" s="7"/>
       <c r="F614" s="7"/>
       <c r="G614" s="7"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E615" s="7"/>
       <c r="F615" s="7"/>
       <c r="G615" s="7"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E616" s="7"/>
       <c r="F616" s="7"/>
       <c r="G616" s="7"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E617" s="7"/>
       <c r="F617" s="7"/>
       <c r="G617" s="7"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E618" s="7"/>
       <c r="F618" s="7"/>
       <c r="G618" s="7"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E619" s="7"/>
       <c r="F619" s="7"/>
       <c r="G619" s="7"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E620" s="7"/>
       <c r="F620" s="7"/>
       <c r="G620" s="7"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E621" s="7"/>
       <c r="F621" s="7"/>
       <c r="G621" s="7"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E622" s="7"/>
       <c r="F622" s="7"/>
       <c r="G622" s="7"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E623" s="7"/>
       <c r="F623" s="7"/>
       <c r="G623" s="7"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E624" s="7"/>
       <c r="F624" s="7"/>
       <c r="G624" s="7"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E625" s="7"/>
       <c r="F625" s="7"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E626" s="7"/>
       <c r="F626" s="7"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E627" s="7"/>
       <c r="F627" s="7"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E628" s="7"/>
       <c r="F628" s="7"/>
       <c r="G628" s="7"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E629" s="7"/>
       <c r="F629" s="7"/>
       <c r="G629" s="7"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E630" s="7"/>
       <c r="F630" s="7"/>
       <c r="G630" s="7"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E631" s="7"/>
       <c r="F631" s="7"/>
       <c r="G631" s="7"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E632" s="7"/>
       <c r="F632" s="7"/>
       <c r="G632" s="7"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E633" s="7"/>
       <c r="F633" s="7"/>
       <c r="G633" s="7"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E634" s="7"/>
       <c r="F634" s="7"/>
       <c r="G634" s="7"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E635" s="7"/>
       <c r="F635" s="7"/>
       <c r="G635" s="7"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E636" s="7"/>
       <c r="F636" s="7"/>
       <c r="G636" s="7"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E637" s="7"/>
       <c r="F637" s="7"/>
       <c r="G637" s="7"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E638" s="7"/>
       <c r="F638" s="7"/>
       <c r="G638" s="7"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E639" s="7"/>
       <c r="F639" s="7"/>
       <c r="G639" s="7"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E640" s="7"/>
       <c r="F640" s="7"/>
       <c r="G640" s="7"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E641" s="7"/>
       <c r="F641" s="7"/>
       <c r="G641" s="7"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E642" s="7"/>
       <c r="F642" s="7"/>
       <c r="G642" s="7"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E643" s="7"/>
       <c r="F643" s="7"/>
       <c r="G643" s="7"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E644" s="7"/>
       <c r="F644" s="7"/>
       <c r="G644" s="7"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E645" s="7"/>
       <c r="F645" s="7"/>
       <c r="G645" s="7"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E646" s="7"/>
       <c r="F646" s="7"/>
       <c r="G646" s="7"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E647" s="7"/>
       <c r="F647" s="7"/>
       <c r="G647" s="7"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E648" s="7"/>
       <c r="F648" s="7"/>
       <c r="G648" s="7"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E649" s="7"/>
       <c r="F649" s="7"/>
       <c r="G649" s="7"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E650" s="7"/>
       <c r="F650" s="7"/>
       <c r="G650" s="7"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E651" s="7"/>
       <c r="F651" s="7"/>
       <c r="G651" s="7"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E652" s="7"/>
       <c r="F652" s="7"/>
       <c r="G652" s="7"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E653" s="7"/>
       <c r="F653" s="7"/>
       <c r="G653" s="7"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E654" s="7"/>
       <c r="F654" s="7"/>
       <c r="G654" s="7"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E655" s="7"/>
       <c r="F655" s="7"/>
       <c r="G655" s="7"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E656" s="7"/>
       <c r="F656" s="7"/>
       <c r="G656" s="7"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E657" s="7"/>
       <c r="F657" s="7"/>
       <c r="G657" s="7"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E658" s="7"/>
       <c r="F658" s="7"/>
       <c r="G658" s="7"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E659" s="7"/>
       <c r="F659" s="7"/>
       <c r="G659" s="7"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E660" s="7"/>
       <c r="F660" s="7"/>
       <c r="G660" s="7"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E661" s="7"/>
       <c r="F661" s="7"/>
       <c r="G661" s="7"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E662" s="7"/>
       <c r="F662" s="7"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E663" s="7"/>
       <c r="F663" s="7"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E664" s="7"/>
       <c r="F664" s="7"/>
       <c r="G664" s="7"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E665" s="7"/>
       <c r="F665" s="7"/>
       <c r="G665" s="7"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E666" s="7"/>
       <c r="F666" s="7"/>
       <c r="G666" s="7"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E667" s="7"/>
       <c r="F667" s="7"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E668" s="7"/>
       <c r="F668" s="7"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E669" s="7"/>
       <c r="F669" s="7"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E670" s="7"/>
       <c r="F670" s="7"/>
       <c r="G670" s="7"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E671" s="7"/>
       <c r="F671" s="7"/>
       <c r="G671" s="7"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E672" s="7"/>
       <c r="F672" s="7"/>
       <c r="G672" s="7"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E673" s="7"/>
       <c r="F673" s="7"/>
       <c r="G673" s="7"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E674" s="7"/>
       <c r="F674" s="7"/>
       <c r="G674" s="7"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E675" s="7"/>
       <c r="F675" s="7"/>
       <c r="G675" s="7"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E676" s="7"/>
       <c r="F676" s="7"/>
       <c r="G676" s="7"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E677" s="7"/>
       <c r="F677" s="7"/>
       <c r="G677" s="7"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E678" s="7"/>
       <c r="F678" s="7"/>
       <c r="G678" s="7"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E679" s="7"/>
       <c r="F679" s="7"/>
       <c r="G679" s="7"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E680" s="7"/>
       <c r="F680" s="7"/>
       <c r="G680" s="7"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E681" s="7"/>
       <c r="F681" s="7"/>
       <c r="G681" s="7"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E682" s="7"/>
       <c r="F682" s="7"/>
       <c r="G682" s="7"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E683" s="7"/>
       <c r="F683" s="7"/>
       <c r="G683" s="7"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E684" s="7"/>
       <c r="F684" s="7"/>
       <c r="G684" s="7"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E685" s="7"/>
       <c r="F685" s="7"/>
       <c r="G685" s="7"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E686" s="7"/>
       <c r="F686" s="7"/>
       <c r="G686" s="7"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E687" s="7"/>
       <c r="F687" s="7"/>
       <c r="G687" s="7"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E688" s="7"/>
       <c r="F688" s="7"/>
       <c r="G688" s="7"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E689" s="7"/>
       <c r="F689" s="7"/>
       <c r="G689" s="7"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E690" s="7"/>
       <c r="F690" s="7"/>
       <c r="G690" s="7"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E691" s="7"/>
       <c r="F691" s="7"/>
       <c r="G691" s="7"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E692" s="7"/>
       <c r="F692" s="7"/>
       <c r="G692" s="7"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E693" s="7"/>
       <c r="F693" s="7"/>
       <c r="G693" s="7"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E694" s="7"/>
       <c r="F694" s="7"/>
       <c r="G694" s="7"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E695" s="7"/>
       <c r="F695" s="7"/>
       <c r="G695" s="7"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E696" s="7"/>
       <c r="F696" s="7"/>
       <c r="G696" s="7"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E697" s="7"/>
       <c r="F697" s="7"/>
       <c r="G697" s="7"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E698" s="7"/>
       <c r="F698" s="7"/>
       <c r="G698" s="7"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E699" s="7"/>
       <c r="F699" s="7"/>
       <c r="G699" s="7"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E700" s="7"/>
       <c r="F700" s="7"/>
       <c r="G700" s="7"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E701" s="7"/>
       <c r="F701" s="7"/>
       <c r="G701" s="7"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E702" s="7"/>
       <c r="F702" s="7"/>
       <c r="G702" s="7"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E703" s="7"/>
       <c r="F703" s="7"/>
       <c r="G703" s="7"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E704" s="7"/>
       <c r="F704" s="7"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E705" s="7"/>
       <c r="F705" s="7"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E706" s="7"/>
       <c r="F706" s="7"/>
       <c r="G706" s="7"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E707" s="7"/>
       <c r="F707" s="7"/>
       <c r="G707" s="7"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E708" s="7"/>
       <c r="F708" s="7"/>
       <c r="G708" s="7"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E709" s="7"/>
       <c r="F709" s="7"/>
       <c r="G709" s="7"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E710" s="7"/>
       <c r="F710" s="7"/>
       <c r="G710" s="7"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E711" s="7"/>
       <c r="F711" s="7"/>
       <c r="G711" s="7"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E712" s="7"/>
       <c r="F712" s="7"/>
       <c r="G712" s="7"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E713" s="7"/>
       <c r="F713" s="7"/>
       <c r="G713" s="7"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E714" s="7"/>
       <c r="F714" s="7"/>
       <c r="G714" s="7"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E715" s="7"/>
       <c r="F715" s="7"/>
       <c r="G715" s="7"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E716" s="7"/>
       <c r="F716" s="7"/>
       <c r="G716" s="7"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E717" s="7"/>
       <c r="F717" s="7"/>
       <c r="G717" s="7"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E718" s="7"/>
       <c r="F718" s="7"/>
       <c r="G718" s="7"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E719" s="7"/>
       <c r="F719" s="7"/>
       <c r="G719" s="7"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E720" s="7"/>
       <c r="F720" s="7"/>
       <c r="G720" s="7"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E721" s="7"/>
       <c r="F721" s="7"/>
       <c r="G721" s="7"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E722" s="7"/>
       <c r="F722" s="7"/>
       <c r="G722" s="7"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E723" s="7"/>
       <c r="F723" s="7"/>
       <c r="G723" s="7"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E724" s="7"/>
       <c r="F724" s="7"/>
       <c r="G724" s="7"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E725" s="7"/>
       <c r="F725" s="7"/>
       <c r="G725" s="7"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E726" s="7"/>
       <c r="F726" s="7"/>
       <c r="G726" s="7"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E727" s="7"/>
       <c r="F727" s="7"/>
       <c r="G727" s="7"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E728" s="7"/>
       <c r="F728" s="7"/>
       <c r="G728" s="7"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E729" s="7"/>
       <c r="F729" s="7"/>
       <c r="G729" s="7"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E730" s="7"/>
       <c r="F730" s="7"/>
       <c r="G730" s="7"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E731" s="7"/>
       <c r="F731" s="7"/>
       <c r="G731" s="7"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E732" s="7"/>
       <c r="F732" s="7"/>
       <c r="G732" s="7"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E733" s="7"/>
       <c r="F733" s="7"/>
       <c r="G733" s="7"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E734" s="7"/>
       <c r="F734" s="7"/>
       <c r="G734" s="7"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E735" s="7"/>
       <c r="F735" s="7"/>
       <c r="G735" s="7"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E736" s="7"/>
       <c r="F736" s="7"/>
       <c r="G736" s="7"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E737" s="7"/>
       <c r="F737" s="7"/>
       <c r="G737" s="7"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E738" s="7"/>
       <c r="F738" s="7"/>
       <c r="G738" s="7"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E739" s="7"/>
       <c r="F739" s="7"/>
       <c r="G739" s="7"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E740" s="7"/>
       <c r="F740" s="7"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E741" s="7"/>
       <c r="F741" s="7"/>
       <c r="G741" s="7"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E742" s="7"/>
       <c r="F742" s="7"/>
       <c r="G742" s="7"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E743" s="7"/>
       <c r="F743" s="7"/>
       <c r="G743" s="7"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E744" s="7"/>
       <c r="F744" s="7"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E745" s="7"/>
       <c r="F745" s="7"/>
       <c r="G745" s="7"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E746" s="7"/>
       <c r="F746" s="7"/>
       <c r="G746" s="7"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E747" s="7"/>
       <c r="F747" s="7"/>
       <c r="G747" s="7"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E748" s="7"/>
       <c r="F748" s="7"/>
       <c r="G748" s="7"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E749" s="7"/>
       <c r="F749" s="7"/>
       <c r="G749" s="7"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E750" s="7"/>
       <c r="F750" s="7"/>
       <c r="G750" s="7"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E751" s="7"/>
       <c r="F751" s="7"/>
       <c r="G751" s="7"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E752" s="7"/>
       <c r="F752" s="7"/>
       <c r="G752" s="7"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E753" s="7"/>
       <c r="F753" s="7"/>
       <c r="G753" s="7"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E754" s="7"/>
       <c r="F754" s="7"/>
       <c r="G754" s="7"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E755" s="7"/>
       <c r="F755" s="7"/>
       <c r="G755" s="7"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E756" s="7"/>
       <c r="F756" s="7"/>
       <c r="G756" s="7"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E757" s="7"/>
       <c r="F757" s="7"/>
       <c r="G757" s="7"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E758" s="7"/>
       <c r="F758" s="7"/>
       <c r="G758" s="7"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E759" s="7"/>
       <c r="F759" s="7"/>
       <c r="G759" s="7"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E760" s="7"/>
       <c r="F760" s="7"/>
       <c r="G760" s="7"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E761" s="7"/>
       <c r="F761" s="7"/>
       <c r="G761" s="7"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E762" s="7"/>
       <c r="F762" s="7"/>
       <c r="G762" s="7"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E763" s="7"/>
       <c r="F763" s="7"/>
       <c r="G763" s="7"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E764" s="7"/>
       <c r="F764" s="7"/>
       <c r="G764" s="7"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E765" s="7"/>
       <c r="F765" s="7"/>
       <c r="G765" s="7"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E766" s="7"/>
       <c r="F766" s="7"/>
       <c r="G766" s="7"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E767" s="7"/>
       <c r="F767" s="7"/>
       <c r="G767" s="7"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E768" s="7"/>
       <c r="F768" s="7"/>
       <c r="G768" s="7"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E769" s="7"/>
       <c r="F769" s="7"/>
       <c r="G769" s="7"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E770" s="7"/>
       <c r="F770" s="7"/>
       <c r="G770" s="7"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E771" s="7"/>
       <c r="F771" s="7"/>
       <c r="G771" s="7"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E772" s="7"/>
       <c r="F772" s="7"/>
       <c r="G772" s="7"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E773" s="7"/>
       <c r="F773" s="7"/>
       <c r="G773" s="7"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E774" s="7"/>
       <c r="F774" s="7"/>
       <c r="G774" s="7"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E775" s="7"/>
       <c r="F775" s="7"/>
       <c r="G775" s="7"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E776" s="7"/>
       <c r="F776" s="7"/>
       <c r="G776" s="7"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E777" s="7"/>
       <c r="F777" s="7"/>
       <c r="G777" s="7"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E778" s="7"/>
       <c r="F778" s="7"/>
       <c r="G778" s="7"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E779" s="7"/>
       <c r="F779" s="7"/>
       <c r="G779" s="7"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E780" s="7"/>
       <c r="F780" s="7"/>
       <c r="G780" s="7"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E781" s="7"/>
       <c r="F781" s="7"/>
       <c r="G781" s="7"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E782" s="7"/>
       <c r="F782" s="7"/>
       <c r="G782" s="7"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E783" s="7"/>
       <c r="F783" s="7"/>
       <c r="G783" s="7"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E784" s="7"/>
       <c r="F784" s="7"/>
       <c r="G784" s="7"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E785" s="7"/>
       <c r="F785" s="7"/>
       <c r="G785" s="7"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E786" s="7"/>
       <c r="F786" s="7"/>
       <c r="G786" s="7"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E787" s="7"/>
       <c r="F787" s="7"/>
       <c r="G787" s="7"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E788" s="7"/>
       <c r="F788" s="7"/>
       <c r="G788" s="7"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E789" s="7"/>
       <c r="F789" s="7"/>
       <c r="G789" s="7"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E790" s="7"/>
       <c r="F790" s="7"/>
       <c r="G790" s="7"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E791" s="7"/>
       <c r="F791" s="7"/>
       <c r="G791" s="7"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E792" s="7"/>
       <c r="F792" s="7"/>
       <c r="G792" s="7"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E793" s="7"/>
       <c r="F793" s="7"/>
       <c r="G793" s="7"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E794" s="7"/>
       <c r="F794" s="7"/>
       <c r="G794" s="7"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E795" s="7"/>
       <c r="F795" s="7"/>
       <c r="G795" s="7"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E796" s="7"/>
       <c r="F796" s="7"/>
       <c r="G796" s="7"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E797" s="7"/>
       <c r="F797" s="7"/>
       <c r="G797" s="7"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E798" s="7"/>
       <c r="F798" s="7"/>
       <c r="G798" s="7"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E799" s="7"/>
       <c r="F799" s="7"/>
       <c r="G799" s="7"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E800" s="7"/>
       <c r="F800" s="7"/>
       <c r="G800" s="7"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E801" s="7"/>
       <c r="F801" s="7"/>
       <c r="G801" s="7"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E802" s="7"/>
       <c r="F802" s="7"/>
       <c r="G802" s="7"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E803" s="7"/>
       <c r="F803" s="7"/>
       <c r="G803" s="7"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E804" s="7"/>
       <c r="F804" s="7"/>
       <c r="G804" s="7"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E805" s="7"/>
       <c r="F805" s="7"/>
       <c r="G805" s="7"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E806" s="7"/>
       <c r="F806" s="7"/>
       <c r="G806" s="7"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E807" s="7"/>
       <c r="F807" s="7"/>
       <c r="G807" s="7"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E808" s="7"/>
       <c r="F808" s="7"/>
       <c r="G808" s="7"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E809" s="7"/>
       <c r="F809" s="7"/>
       <c r="G809" s="7"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E810" s="7"/>
       <c r="F810" s="7"/>
       <c r="G810" s="7"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E811" s="7"/>
       <c r="F811" s="7"/>
       <c r="G811" s="7"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E812" s="7"/>
       <c r="F812" s="7"/>
       <c r="G812" s="7"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E813" s="7"/>
       <c r="F813" s="7"/>
       <c r="G813" s="7"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E814" s="7"/>
       <c r="F814" s="7"/>
       <c r="G814" s="7"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E815" s="7"/>
       <c r="F815" s="7"/>
       <c r="G815" s="7"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E816" s="7"/>
       <c r="F816" s="7"/>
       <c r="G816" s="7"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E817" s="7"/>
       <c r="F817" s="7"/>
       <c r="G817" s="7"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E818" s="7"/>
       <c r="F818" s="7"/>
       <c r="G818" s="7"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E819" s="7"/>
       <c r="F819" s="7"/>
       <c r="G819" s="7"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E820" s="7"/>
       <c r="F820" s="7"/>
       <c r="G820" s="7"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E821" s="7"/>
       <c r="F821" s="7"/>
       <c r="G821" s="7"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E822" s="7"/>
       <c r="F822" s="7"/>
       <c r="G822" s="7"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E823" s="7"/>
       <c r="F823" s="7"/>
       <c r="G823" s="7"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E824" s="7"/>
       <c r="F824" s="7"/>
       <c r="G824" s="7"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E825" s="7"/>
       <c r="F825" s="7"/>
       <c r="G825" s="7"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E826" s="7"/>
       <c r="F826" s="7"/>
       <c r="G826" s="7"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E827" s="7"/>
       <c r="F827" s="7"/>
       <c r="G827" s="7"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E828" s="7"/>
       <c r="F828" s="7"/>
       <c r="G828" s="7"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E829" s="7"/>
       <c r="F829" s="7"/>
       <c r="G829" s="7"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E830" s="7"/>
       <c r="F830" s="7"/>
       <c r="G830" s="7"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E831" s="7"/>
       <c r="F831" s="7"/>
       <c r="G831" s="7"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E832" s="7"/>
       <c r="F832" s="7"/>
       <c r="G832" s="7"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E833" s="7"/>
       <c r="F833" s="7"/>
       <c r="G833" s="7"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E834" s="7"/>
       <c r="F834" s="7"/>
       <c r="G834" s="7"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E835" s="7"/>
       <c r="F835" s="7"/>
       <c r="G835" s="7"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E836" s="7"/>
       <c r="F836" s="7"/>
       <c r="G836" s="7"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E837" s="7"/>
       <c r="F837" s="7"/>
       <c r="G837" s="7"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E838" s="7"/>
       <c r="F838" s="7"/>
       <c r="G838" s="7"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E839" s="7"/>
       <c r="F839" s="7"/>
       <c r="G839" s="7"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E840" s="7"/>
       <c r="F840" s="7"/>
       <c r="G840" s="7"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E841" s="7"/>
       <c r="F841" s="7"/>
       <c r="G841" s="7"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E842" s="7"/>
       <c r="F842" s="7"/>
       <c r="G842" s="7"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E843" s="7"/>
       <c r="F843" s="7"/>
       <c r="G843" s="7"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E844" s="7"/>
       <c r="F844" s="7"/>
       <c r="G844" s="7"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E845" s="7"/>
       <c r="F845" s="7"/>
       <c r="G845" s="7"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E846" s="7"/>
       <c r="F846" s="7"/>
       <c r="G846" s="7"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E847" s="7"/>
       <c r="F847" s="7"/>
       <c r="G847" s="7"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E848" s="7"/>
       <c r="F848" s="7"/>
       <c r="G848" s="7"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E849" s="7"/>
       <c r="F849" s="7"/>
       <c r="G849" s="7"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E850" s="7"/>
       <c r="F850" s="7"/>
       <c r="G850" s="7"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E851" s="7"/>
       <c r="F851" s="7"/>
       <c r="G851" s="7"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E852" s="7"/>
       <c r="F852" s="7"/>
       <c r="G852" s="7"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E853" s="7"/>
       <c r="F853" s="7"/>
       <c r="G853" s="7"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E854" s="7"/>
       <c r="F854" s="7"/>
       <c r="G854" s="7"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E855" s="7"/>
       <c r="F855" s="7"/>
       <c r="G855" s="7"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E856" s="7"/>
       <c r="F856" s="7"/>
       <c r="G856" s="7"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E857" s="7"/>
       <c r="F857" s="7"/>
       <c r="G857" s="7"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E858" s="7"/>
       <c r="F858" s="7"/>
       <c r="G858" s="7"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E859" s="7"/>
       <c r="F859" s="7"/>
       <c r="G859" s="7"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E860" s="7"/>
       <c r="F860" s="7"/>
       <c r="G860" s="7"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E861" s="7"/>
       <c r="F861" s="7"/>
       <c r="G861" s="7"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E862" s="7"/>
       <c r="F862" s="7"/>
       <c r="G862" s="7"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E863" s="7"/>
       <c r="F863" s="7"/>
       <c r="G863" s="7"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E864" s="7"/>
       <c r="F864" s="7"/>
       <c r="G864" s="7"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E865" s="7"/>
       <c r="F865" s="7"/>
       <c r="G865" s="7"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E866" s="7"/>
       <c r="F866" s="7"/>
       <c r="G866" s="7"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E867" s="7"/>
       <c r="F867" s="7"/>
       <c r="G867" s="7"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E868" s="7"/>
       <c r="F868" s="7"/>
       <c r="G868" s="7"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E869" s="7"/>
       <c r="F869" s="7"/>
       <c r="G869" s="7"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E870" s="7"/>
       <c r="F870" s="7"/>
       <c r="G870" s="7"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E871" s="7"/>
       <c r="F871" s="7"/>
       <c r="G871" s="7"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E872" s="7"/>
       <c r="F872" s="7"/>
       <c r="G872" s="7"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E873" s="7"/>
       <c r="F873" s="7"/>
       <c r="G873" s="7"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E874" s="7"/>
       <c r="F874" s="7"/>
       <c r="G874" s="7"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E875" s="7"/>
       <c r="F875" s="7"/>
       <c r="G875" s="7"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E876" s="7"/>
       <c r="F876" s="7"/>
       <c r="G876" s="7"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E877" s="7"/>
       <c r="F877" s="7"/>
       <c r="G877" s="7"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E878" s="7"/>
       <c r="F878" s="7"/>
       <c r="G878" s="7"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E879" s="7"/>
       <c r="F879" s="7"/>
       <c r="G879" s="7"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E880" s="7"/>
       <c r="F880" s="7"/>
       <c r="G880" s="7"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E881" s="7"/>
       <c r="F881" s="7"/>
       <c r="G881" s="7"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E882" s="7"/>
       <c r="F882" s="7"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E883" s="7"/>
       <c r="F883" s="7"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E884" s="7"/>
       <c r="F884" s="7"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E885" s="7"/>
       <c r="F885" s="7"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E886" s="7"/>
       <c r="F886" s="7"/>
       <c r="G886" s="7"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E887" s="7"/>
       <c r="F887" s="7"/>
       <c r="G887" s="7"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E888" s="7"/>
       <c r="F888" s="7"/>
       <c r="G888" s="7"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E889" s="7"/>
       <c r="F889" s="7"/>
       <c r="G889" s="7"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E890" s="7"/>
       <c r="F890" s="7"/>
       <c r="G890" s="7"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E891" s="7"/>
       <c r="F891" s="7"/>
       <c r="G891" s="7"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E892" s="7"/>
       <c r="F892" s="7"/>
       <c r="G892" s="7"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E893" s="7"/>
       <c r="F893" s="7"/>
       <c r="G893" s="7"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E894" s="7"/>
       <c r="F894" s="7"/>
       <c r="G894" s="7"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E895" s="7"/>
       <c r="F895" s="7"/>
       <c r="G895" s="7"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E896" s="7"/>
       <c r="F896" s="7"/>
       <c r="G896" s="7"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E897" s="7"/>
       <c r="F897" s="7"/>
       <c r="G897" s="7"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E898" s="7"/>
       <c r="F898" s="7"/>
       <c r="G898" s="7"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E899" s="7"/>
       <c r="F899" s="7"/>
       <c r="G899" s="7"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E900" s="7"/>
       <c r="F900" s="7"/>
       <c r="G900" s="7"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E901" s="7"/>
       <c r="F901" s="7"/>
       <c r="G901" s="7"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E902" s="7"/>
       <c r="F902" s="7"/>
       <c r="G902" s="7"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E903" s="7"/>
       <c r="F903" s="7"/>
       <c r="G903" s="7"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E904" s="7"/>
       <c r="F904" s="7"/>
       <c r="G904" s="7"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E905" s="7"/>
       <c r="F905" s="7"/>
       <c r="G905" s="7"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E906" s="7"/>
       <c r="F906" s="7"/>
       <c r="G906" s="7"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E907" s="7"/>
       <c r="F907" s="7"/>
       <c r="G907" s="7"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E908" s="7"/>
       <c r="F908" s="7"/>
       <c r="G908" s="7"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E909" s="7"/>
       <c r="F909" s="7"/>
       <c r="G909" s="7"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E910" s="7"/>
       <c r="F910" s="7"/>
       <c r="G910" s="7"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E911" s="7"/>
       <c r="F911" s="7"/>
       <c r="G911" s="7"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E912" s="7"/>
       <c r="F912" s="7"/>
       <c r="G912" s="7"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E913" s="7"/>
       <c r="F913" s="7"/>
       <c r="G913" s="7"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E914" s="7"/>
       <c r="F914" s="7"/>
       <c r="G914" s="7"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E915" s="7"/>
       <c r="F915" s="7"/>
       <c r="G915" s="7"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E916" s="7"/>
       <c r="F916" s="7"/>
       <c r="G916" s="7"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E917" s="7"/>
       <c r="F917" s="7"/>
       <c r="G917" s="7"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E918" s="7"/>
       <c r="F918" s="7"/>
       <c r="G918" s="7"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E919" s="7"/>
       <c r="F919" s="7"/>
       <c r="G919" s="7"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E920" s="7"/>
       <c r="F920" s="7"/>
       <c r="G920" s="7"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E921" s="7"/>
       <c r="F921" s="7"/>
       <c r="G921" s="7"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E922" s="7"/>
       <c r="F922" s="7"/>
       <c r="G922" s="7"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E923" s="7"/>
       <c r="F923" s="7"/>
       <c r="G923" s="7"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E924" s="7"/>
       <c r="F924" s="7"/>
       <c r="G924" s="7"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E925" s="7"/>
       <c r="F925" s="7"/>
       <c r="G925" s="7"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E926" s="7"/>
       <c r="F926" s="7"/>
       <c r="G926" s="7"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E927" s="7"/>
       <c r="F927" s="7"/>
       <c r="G927" s="7"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E928" s="7"/>
       <c r="F928" s="7"/>
       <c r="G928" s="7"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E929" s="7"/>
       <c r="F929" s="7"/>
       <c r="G929" s="7"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E930" s="7"/>
       <c r="F930" s="7"/>
       <c r="G930" s="7"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E931" s="7"/>
       <c r="F931" s="7"/>
       <c r="G931" s="7"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E932" s="7"/>
       <c r="F932" s="7"/>
       <c r="G932" s="7"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E933" s="7"/>
       <c r="F933" s="7"/>
       <c r="G933" s="7"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E934" s="7"/>
       <c r="F934" s="7"/>
       <c r="G934" s="7"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E935" s="7"/>
       <c r="F935" s="7"/>
       <c r="G935" s="7"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E936" s="7"/>
       <c r="F936" s="7"/>
       <c r="G936" s="7"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E937" s="7"/>
       <c r="F937" s="7"/>
       <c r="G937" s="7"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E938" s="7"/>
       <c r="F938" s="7"/>
       <c r="G938" s="7"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E939" s="7"/>
       <c r="F939" s="7"/>
       <c r="G939" s="7"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E940" s="7"/>
       <c r="F940" s="7"/>
       <c r="G940" s="7"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E941" s="7"/>
       <c r="F941" s="7"/>
       <c r="G941" s="7"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E942" s="7"/>
       <c r="F942" s="7"/>
       <c r="G942" s="7"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E943" s="7"/>
       <c r="F943" s="7"/>
       <c r="G943" s="7"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E944" s="7"/>
       <c r="F944" s="7"/>
       <c r="G944" s="7"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E945" s="7"/>
       <c r="F945" s="7"/>
       <c r="G945" s="7"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E946" s="7"/>
       <c r="F946" s="7"/>
       <c r="G946" s="7"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E947" s="7"/>
       <c r="F947" s="7"/>
       <c r="G947" s="7"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E948" s="7"/>
       <c r="F948" s="7"/>
       <c r="G948" s="7"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E949" s="7"/>
       <c r="F949" s="7"/>
       <c r="G949" s="7"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E950" s="7"/>
       <c r="F950" s="7"/>
       <c r="G950" s="7"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E951" s="7"/>
       <c r="F951" s="7"/>
       <c r="G951" s="7"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E952" s="7"/>
       <c r="F952" s="7"/>
       <c r="G952" s="7"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E953" s="7"/>
       <c r="F953" s="7"/>
       <c r="G953" s="7"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E954" s="7"/>
       <c r="F954" s="7"/>
       <c r="G954" s="7"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E955" s="7"/>
       <c r="F955" s="7"/>
       <c r="G955" s="7"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E956" s="7"/>
       <c r="F956" s="7"/>
       <c r="G956" s="7"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E957" s="7"/>
       <c r="F957" s="7"/>
       <c r="G957" s="7"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E958" s="7"/>
       <c r="F958" s="7"/>
       <c r="G958" s="7"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E959" s="7"/>
       <c r="F959" s="7"/>
       <c r="G959" s="7"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E960" s="7"/>
       <c r="F960" s="7"/>
       <c r="G960" s="7"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E961" s="7"/>
       <c r="F961" s="7"/>
       <c r="G961" s="7"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E962" s="7"/>
       <c r="F962" s="7"/>
       <c r="G962" s="7"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E963" s="7"/>
       <c r="F963" s="7"/>
       <c r="G963" s="7"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E964" s="7"/>
       <c r="F964" s="7"/>
       <c r="G964" s="7"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E965" s="7"/>
       <c r="F965" s="7"/>
       <c r="G965" s="7"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E966" s="7"/>
       <c r="F966" s="7"/>
       <c r="G966" s="7"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E967" s="7"/>
       <c r="F967" s="7"/>
       <c r="G967" s="7"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E968" s="7"/>
       <c r="F968" s="7"/>
       <c r="G968" s="7"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E969" s="7"/>
       <c r="F969" s="7"/>
       <c r="G969" s="7"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E970" s="7"/>
       <c r="F970" s="7"/>
       <c r="G970" s="7"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E971" s="7"/>
       <c r="F971" s="7"/>
       <c r="G971" s="7"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E972" s="7"/>
       <c r="F972" s="7"/>
       <c r="G972" s="7"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E973" s="7"/>
       <c r="F973" s="7"/>
       <c r="G973" s="7"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E974" s="7"/>
       <c r="F974" s="7"/>
       <c r="G974" s="7"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E975" s="7"/>
       <c r="F975" s="7"/>
       <c r="G975" s="7"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E976" s="7"/>
       <c r="F976" s="7"/>
       <c r="G976" s="7"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E977" s="7"/>
       <c r="F977" s="7"/>
       <c r="G977" s="7"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E978" s="7"/>
       <c r="F978" s="7"/>
       <c r="G978" s="7"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E979" s="7"/>
       <c r="F979" s="7"/>
       <c r="G979" s="7"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E980" s="7"/>
       <c r="F980" s="7"/>
       <c r="G980" s="7"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E981" s="7"/>
       <c r="F981" s="7"/>
       <c r="G981" s="7"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E982" s="7"/>
       <c r="F982" s="7"/>
       <c r="G982" s="7"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E983" s="7"/>
       <c r="F983" s="7"/>
       <c r="G983" s="7"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E984" s="7"/>
       <c r="F984" s="7"/>
       <c r="G984" s="7"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E985" s="7"/>
       <c r="F985" s="7"/>
       <c r="G985" s="7"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E986" s="7"/>
       <c r="F986" s="7"/>
       <c r="G986" s="7"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E987" s="7"/>
       <c r="F987" s="7"/>
       <c r="G987" s="7"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E988" s="7"/>
       <c r="F988" s="7"/>
       <c r="G988" s="7"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E989" s="7"/>
       <c r="F989" s="7"/>
       <c r="G989" s="7"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E990" s="7"/>
       <c r="F990" s="7"/>
       <c r="G990" s="7"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E991" s="7"/>
       <c r="F991" s="7"/>
       <c r="G991" s="7"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E992" s="7"/>
       <c r="F992" s="7"/>
       <c r="G992" s="7"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E993" s="7"/>
       <c r="F993" s="7"/>
       <c r="G993" s="7"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E994" s="7"/>
       <c r="F994" s="7"/>
       <c r="G994" s="7"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E995" s="7"/>
       <c r="F995" s="7"/>
       <c r="G995" s="7"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E996" s="7"/>
       <c r="F996" s="7"/>
       <c r="G996" s="7"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E997" s="7"/>
       <c r="F997" s="7"/>
       <c r="G997" s="7"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E998" s="7"/>
       <c r="F998" s="7"/>
       <c r="G998" s="7"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E999" s="7"/>
       <c r="F999" s="7"/>
       <c r="G999" s="7"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1000" s="7"/>
       <c r="F1000" s="7"/>
       <c r="G1000" s="7"/>
     </row>
-    <row r="1001" ht="14.25" customHeight="1">
+    <row r="1001" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1001" s="7"/>
       <c r="F1001" s="7"/>
       <c r="G1001" s="7"/>
     </row>
-    <row r="1002" ht="14.25" customHeight="1">
+    <row r="1002" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1002" s="7"/>
       <c r="F1002" s="7"/>
       <c r="G1002" s="7"/>
     </row>
-    <row r="1003" ht="14.25" customHeight="1">
+    <row r="1003" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1003" s="7"/>
       <c r="F1003" s="7"/>
       <c r="G1003" s="7"/>
     </row>
-    <row r="1004" ht="14.25" customHeight="1">
+    <row r="1004" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1004" s="7"/>
       <c r="F1004" s="7"/>
       <c r="G1004" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$1006"/>
+  <autoFilter ref="A1:AA1006" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F33"/>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>